--- a/data/hotels_by_city/Dallas/Dallas_shard_599.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_599.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="314">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,825 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r577084540-Motel_6_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>56854</t>
+  </si>
+  <si>
+    <t>285820</t>
+  </si>
+  <si>
+    <t>577084540</t>
+  </si>
+  <si>
+    <t>05/01/2018</t>
+  </si>
+  <si>
+    <t>Stiff Bed</t>
+  </si>
+  <si>
+    <t>The price was decent while the other hotels were too high in cost. I was there just for one night to get my daughter to DFW after driving three hours. Very nice room but the bed was too stiff to my back that I didn't get a full sleep. It was hard the next day to get back to west Texas as I keep falling asleep at the wheel. Ugh. I heard you have to pay for WiFi but we didn't use it as we went straight to bed.</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r533678095-Motel_6_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>533678095</t>
+  </si>
+  <si>
+    <t>10/17/2017</t>
+  </si>
+  <si>
+    <t>Pleased</t>
+  </si>
+  <si>
+    <t>Hi. Pilot car girl review. I stay in a lot of motels due to my job and I must say that I was very pleased with this Motel 6. The rooms as well as the outside around the motel are very well kept. A big thing to me is that this motel has NO BUGS. Our room was very nice and very clean. Upon checking in we had to give a lot of information but that’s ok and everything was well explained to us. They do have security monitors for the parking area and do take all info about our vehicles and that’s also good so not just anybody can park there and possibly vandalize a vehicle. I do have 2 service dogs which was not a problem but I would like to see a small grassy area in the back for dogs since we could not get in the grass. Overall this motel has definitely passed my review. It is obvious that the staff at this motel do their job. I have no complaints about this Motel 6!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Hi. Pilot car girl review. I stay in a lot of motels due to my job and I must say that I was very pleased with this Motel 6. The rooms as well as the outside around the motel are very well kept. A big thing to me is that this motel has NO BUGS. Our room was very nice and very clean. Upon checking in we had to give a lot of information but that’s ok and everything was well explained to us. They do have security monitors for the parking area and do take all info about our vehicles and that’s also good so not just anybody can park there and possibly vandalize a vehicle. I do have 2 service dogs which was not a problem but I would like to see a small grassy area in the back for dogs since we could not get in the grass. Overall this motel has definitely passed my review. It is obvious that the staff at this motel do their job. I have no complaints about this Motel 6!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r516489853-Motel_6_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>516489853</t>
+  </si>
+  <si>
+    <t>08/22/2017</t>
+  </si>
+  <si>
+    <t>Ok Room</t>
+  </si>
+  <si>
+    <t>No food or coffee ,its just OK if you don't want to keep driving ,to much personal information requested to check in,good parking with plenty of light.The hotel is over priced but had a safe feeling that help.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r416958636-Motel_6_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>416958636</t>
+  </si>
+  <si>
+    <t>09/10/2016</t>
+  </si>
+  <si>
+    <t>It's a Hotel Room with a Bed</t>
+  </si>
+  <si>
+    <t>My wife and I arrived late after a long drive from New Mexico.  The first room we were given had a bad odor like mildew.  Went down and lady at front desk quickly changed the room.  The second room was better.  Not top of the line hotel, but the bed was ok and the A/C worked.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r415081306-Motel_6_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>415081306</t>
+  </si>
+  <si>
+    <t>09/05/2016</t>
+  </si>
+  <si>
+    <t>One of the Better Motel 6 Locations</t>
+  </si>
+  <si>
+    <t>This Motel 6 has a newer design than their older locations, and it's surrounded by other motels, just south of I - 20 at exit 408.  Check in was easy, and my room was comfortable and clean.  I got a good night's sleep.  I like how there are many stores and restaurants nearby.  I also like how Weatherford is not in the middle of the hustle and bustle of Fort Worth and Dallas.  It was a perfect place to spend the night, and then continue heading west on I - 20 the next morning.  I've stayed at many Motel 6 locations through the years and to me this is one of their better motels.  I would definitely stay here again the next time I'm traveling west on I - 20.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>This Motel 6 has a newer design than their older locations, and it's surrounded by other motels, just south of I - 20 at exit 408.  Check in was easy, and my room was comfortable and clean.  I got a good night's sleep.  I like how there are many stores and restaurants nearby.  I also like how Weatherford is not in the middle of the hustle and bustle of Fort Worth and Dallas.  It was a perfect place to spend the night, and then continue heading west on I - 20 the next morning.  I've stayed at many Motel 6 locations through the years and to me this is one of their better motels.  I would definitely stay here again the next time I'm traveling west on I - 20.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r397741737-Motel_6_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>397741737</t>
+  </si>
+  <si>
+    <t>07/26/2016</t>
+  </si>
+  <si>
+    <t>Better than average Motel 6</t>
+  </si>
+  <si>
+    <t>I frequently stay at Motel 6's when I travel by my self. The tend to be clean, but very basic. This one was fairly new. The room was larger than normal, and in good condition. The manager told me he runs a tight ship. Having just stayed at a 6 with noisy guests, he assured me does not tolerate kids running up and down the halls, or loud parties. It was quiet. Location is right off the freeway, but not much road noise.</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r346383227-Motel_6_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>346383227</t>
+  </si>
+  <si>
+    <t>02/09/2016</t>
+  </si>
+  <si>
+    <t>Convenient</t>
+  </si>
+  <si>
+    <t>After driving almost 1000 miles wanted to rest before getting into city traffic.  This place was just short of Ft. Worth when going east on I-20.  Easy on and off good rates.  Room was clean and check-in clerk was friendly and helpful.  Would stay here again.</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r339057802-Motel_6_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>339057802</t>
+  </si>
+  <si>
+    <t>01/10/2016</t>
+  </si>
+  <si>
+    <t>NOT PET FRIENDLY!!!</t>
+  </si>
+  <si>
+    <t>We stopped here because we thought Motel 6 was "Pet friendly" but not this place. I was traveling with my Shitzu and when I walked into the lobby with her, the desk clerk quickly told me that I wasn"t allowed to bring my dog inside the lobby even though I was holding her. The clerk then went on to give us detailed instructions that the dog wasn't allowed to walk on the carpeted hallway to the room, not allowed to bark and we could only enter the motel from the back if we had our dog with us which was anytime we left the room because we weren't allowed to leave our dog in the room for any reason. We were also told that we had to have the room inspected before we checked out. Oh, and one last thing, we did check out after walking into the room because it looked like someone took a razor blade and slashed the blanket which was exposed when we walked in the room.I don't know who runs this place but it should be called MOTEL 86.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>We stopped here because we thought Motel 6 was "Pet friendly" but not this place. I was traveling with my Shitzu and when I walked into the lobby with her, the desk clerk quickly told me that I wasn"t allowed to bring my dog inside the lobby even though I was holding her. The clerk then went on to give us detailed instructions that the dog wasn't allowed to walk on the carpeted hallway to the room, not allowed to bark and we could only enter the motel from the back if we had our dog with us which was anytime we left the room because we weren't allowed to leave our dog in the room for any reason. We were also told that we had to have the room inspected before we checked out. Oh, and one last thing, we did check out after walking into the room because it looked like someone took a razor blade and slashed the blanket which was exposed when we walked in the room.I don't know who runs this place but it should be called MOTEL 86.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r322878911-Motel_6_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>322878911</t>
+  </si>
+  <si>
+    <t>10/29/2015</t>
+  </si>
+  <si>
+    <t>Just What the Dr. Ordered</t>
+  </si>
+  <si>
+    <t>I needed a quick and last minute get-a-way to get some much need rest and intense studying done. I basically just pointed my finger, made the reservation and hoped for the best. To my surprise, it was just what the Dr. ordered. It wasn't fancy or 5 star quality, but it was nice, clean, and had a very friendly atmosphere. There were plenty other hotels around I could've chosen, but this was a solo trip, not a vacation, so it was just right for me. The staff were very nice and courteous. I had my DO NOT DISTURB sign up the whole weekend, and no one bothered me at all. I left my room to get something to eat, the housekeeper saw me and still asked if everything was ok and if I needed anything. I thought that was awesome. On the 2nd night, some young men were right outside of my window playing ball. I thought it was going to be a problem, but by the time it got dark, they had stopped. Again, if you just need a quiet get-a-way, don't have a lot of money, need peace and quiet, and not too concerned with 5 star luxury, then this is the place to go.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>I needed a quick and last minute get-a-way to get some much need rest and intense studying done. I basically just pointed my finger, made the reservation and hoped for the best. To my surprise, it was just what the Dr. ordered. It wasn't fancy or 5 star quality, but it was nice, clean, and had a very friendly atmosphere. There were plenty other hotels around I could've chosen, but this was a solo trip, not a vacation, so it was just right for me. The staff were very nice and courteous. I had my DO NOT DISTURB sign up the whole weekend, and no one bothered me at all. I left my room to get something to eat, the housekeeper saw me and still asked if everything was ok and if I needed anything. I thought that was awesome. On the 2nd night, some young men were right outside of my window playing ball. I thought it was going to be a problem, but by the time it got dark, they had stopped. Again, if you just need a quiet get-a-way, don't have a lot of money, need peace and quiet, and not too concerned with 5 star luxury, then this is the place to go.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r304317850-Motel_6_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>304317850</t>
+  </si>
+  <si>
+    <t>08/28/2015</t>
+  </si>
+  <si>
+    <t>piss pour play to stay dont stay here at all they discrimate agaist people and pets ya looser place</t>
+  </si>
+  <si>
+    <t>they discrimation against people pets ect and service dogs called to reserve a room smking room w service dog was told by angels they had no dog room [motel 6 says they do]was then told by angela they did not have a smking pet room switch her story ya motel 6 says they do ya they do not need to b a motel 6 the people are rude have them in a lawsuit my goal is for them to loose the motel 6/property bob and angela are very rude  made my resavation by wrong name so id have trouble at check in looser people called to switch resavation to smking room whitch they have was told by bob comp were down for hours call bk 5 hrs later get ur lazy butt out of bed and do ur job indain place smells bugs ect just like the reveiws say motel 6 need to take this property away well see what jerome black distric  mananger says about this to since he a good friend ya my stay will b e free just to prove a point and out of coursty to jerome but my lawer will be on this trip w me yaMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>6Team, brand expericened team member at Motel 6 Weatherford, responded to this reviewResponded August 31, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 31, 2015</t>
+  </si>
+  <si>
+    <t>they discrimation against people pets ect and service dogs called to reserve a room smking room w service dog was told by angels they had no dog room [motel 6 says they do]was then told by angela they did not have a smking pet room switch her story ya motel 6 says they do ya they do not need to b a motel 6 the people are rude have them in a lawsuit my goal is for them to loose the motel 6/property bob and angela are very rude  made my resavation by wrong name so id have trouble at check in looser people called to switch resavation to smking room whitch they have was told by bob comp were down for hours call bk 5 hrs later get ur lazy butt out of bed and do ur job indain place smells bugs ect just like the reveiws say motel 6 need to take this property away well see what jerome black distric  mananger says about this to since he a good friend ya my stay will b e free just to prove a point and out of coursty to jerome but my lawer will be on this trip w me yaMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r292798101-Motel_6_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>292798101</t>
+  </si>
+  <si>
+    <t>07/26/2015</t>
+  </si>
+  <si>
+    <t>Most Hostile Staff Ever</t>
+  </si>
+  <si>
+    <t>My brother-in-law, his wife, and son from Iowa checked into the Weatherford Motel 6 on July 25 for two nights. On the second night they were there my husband, son, and I took two vehicles to pick our kinfolk up. My son planned to take his cousin to play mini-golf while the adults went with us to grab a soft drink somewhere. The visitors had made a quick run to the nearby Wal-Mart, so we attempted to get parked in a location where our visitors would see us upon their return. Though the hotel had very few guests, the manager of the Motel 6 came running out of the building and began a confrontation about parking our car. We explained we were waiting for family to return from WalMart. He demanded to know their room number which we did not know but we provided a name. He then rudely declared he was going to check the name and have us towed if our relatives were not registered there. I was shocked to be treated this way and as our relatives pulled up and he turned abruptly without apology when he realized we were being truthful, I assured him I would never allow anyone else I knew to grace his property. The whole encounter so lacked any semblance of customer service, it has now biased me against the whole chain. Stay clear of this property at all costs!!! My relatives also...My brother-in-law, his wife, and son from Iowa checked into the Weatherford Motel 6 on July 25 for two nights. On the second night they were there my husband, son, and I took two vehicles to pick our kinfolk up. My son planned to take his cousin to play mini-golf while the adults went with us to grab a soft drink somewhere. The visitors had made a quick run to the nearby Wal-Mart, so we attempted to get parked in a location where our visitors would see us upon their return. Though the hotel had very few guests, the manager of the Motel 6 came running out of the building and began a confrontation about parking our car. We explained we were waiting for family to return from WalMart. He demanded to know their room number which we did not know but we provided a name. He then rudely declared he was going to check the name and have us towed if our relatives were not registered there. I was shocked to be treated this way and as our relatives pulled up and he turned abruptly without apology when he realized we were being truthful, I assured him I would never allow anyone else I knew to grace his property. The whole encounter so lacked any semblance of customer service, it has now biased me against the whole chain. Stay clear of this property at all costs!!! My relatives also shared their horror stories about check-in, trying to get clean towels, being harassed about if they had a pet (they did not), etc. No cheap room is worth the hostile staff attitude at this property.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Weatherford, responded to this reviewResponded July 31, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 31, 2015</t>
+  </si>
+  <si>
+    <t>My brother-in-law, his wife, and son from Iowa checked into the Weatherford Motel 6 on July 25 for two nights. On the second night they were there my husband, son, and I took two vehicles to pick our kinfolk up. My son planned to take his cousin to play mini-golf while the adults went with us to grab a soft drink somewhere. The visitors had made a quick run to the nearby Wal-Mart, so we attempted to get parked in a location where our visitors would see us upon their return. Though the hotel had very few guests, the manager of the Motel 6 came running out of the building and began a confrontation about parking our car. We explained we were waiting for family to return from WalMart. He demanded to know their room number which we did not know but we provided a name. He then rudely declared he was going to check the name and have us towed if our relatives were not registered there. I was shocked to be treated this way and as our relatives pulled up and he turned abruptly without apology when he realized we were being truthful, I assured him I would never allow anyone else I knew to grace his property. The whole encounter so lacked any semblance of customer service, it has now biased me against the whole chain. Stay clear of this property at all costs!!! My relatives also...My brother-in-law, his wife, and son from Iowa checked into the Weatherford Motel 6 on July 25 for two nights. On the second night they were there my husband, son, and I took two vehicles to pick our kinfolk up. My son planned to take his cousin to play mini-golf while the adults went with us to grab a soft drink somewhere. The visitors had made a quick run to the nearby Wal-Mart, so we attempted to get parked in a location where our visitors would see us upon their return. Though the hotel had very few guests, the manager of the Motel 6 came running out of the building and began a confrontation about parking our car. We explained we were waiting for family to return from WalMart. He demanded to know their room number which we did not know but we provided a name. He then rudely declared he was going to check the name and have us towed if our relatives were not registered there. I was shocked to be treated this way and as our relatives pulled up and he turned abruptly without apology when he realized we were being truthful, I assured him I would never allow anyone else I knew to grace his property. The whole encounter so lacked any semblance of customer service, it has now biased me against the whole chain. Stay clear of this property at all costs!!! My relatives also shared their horror stories about check-in, trying to get clean towels, being harassed about if they had a pet (they did not), etc. No cheap room is worth the hostile staff attitude at this property.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r291598467-Motel_6_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>291598467</t>
+  </si>
+  <si>
+    <t>07/22/2015</t>
+  </si>
+  <si>
+    <t>A NIGHTMARE</t>
+  </si>
+  <si>
+    <t>I'm just going to say very nasty people very rude. Not pet friendly people at all when I checked out the lady said you left your dog alone. I said I did she said I went in your room and you were not there but your dog was. so if you don't want people going in your room looking around don't stay there. I don't know about you but knowing people go in your room with out you there makes you wonder what else they may be doing.MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Weatherford, responded to this reviewResponded July 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 24, 2015</t>
+  </si>
+  <si>
+    <t>I'm just going to say very nasty people very rude. Not pet friendly people at all when I checked out the lady said you left your dog alone. I said I did she said I went in your room and you were not there but your dog was. so if you don't want people going in your room looking around don't stay there. I don't know about you but knowing people go in your room with out you there makes you wonder what else they may be doing.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r259614106-Motel_6_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>259614106</t>
+  </si>
+  <si>
+    <t>03/15/2015</t>
+  </si>
+  <si>
+    <t>Best Motel 6 I have stayed in</t>
+  </si>
+  <si>
+    <t>The room we stayed in  was clean and quiet.  It had a fresh smell, sheets and towels were in very good condition.  There were 3 pillows per person (with different thicknesses), very nice bedspread and curtains.  My wife and I got much needed good  restThe best Motel 6 I have stayed in.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r252172248-Motel_6_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>252172248</t>
+  </si>
+  <si>
+    <t>02/01/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sadly, not great. </t>
+  </si>
+  <si>
+    <t>I've stayed in some really nice hotel's around the country and surprisingly a few of them have been Motel 6's. Sadly, based on my room experience, this was not one of them. I would like to say that the owner and staff really are nice people and they certainly do try.Much to their credit the bathroom was exceptionally clean, as was the bedding and furniture but that's where it stopped being good. I had my dog with me (which was the reason for choosing Motel 6) and so obviously we were given a pet friendly room. The carpet stunk of stale urine and there were large stains on it where animals had used it as a toilet. We were also right next to the exit door which believe me, seemed to be as busy as Walmart at Christmas! There seemed to be rather a lot of nocturnal activity in the room above, so all the elements combined did not make for a nice, nor restful stay.It could be a really nice place if people were more respectful, the exit door had a much quieter mechanism and the carpet was given an intensely deep clean. Non pet rooms may be entirely different. MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>I've stayed in some really nice hotel's around the country and surprisingly a few of them have been Motel 6's. Sadly, based on my room experience, this was not one of them. I would like to say that the owner and staff really are nice people and they certainly do try.Much to their credit the bathroom was exceptionally clean, as was the bedding and furniture but that's where it stopped being good. I had my dog with me (which was the reason for choosing Motel 6) and so obviously we were given a pet friendly room. The carpet stunk of stale urine and there were large stains on it where animals had used it as a toilet. We were also right next to the exit door which believe me, seemed to be as busy as Walmart at Christmas! There seemed to be rather a lot of nocturnal activity in the room above, so all the elements combined did not make for a nice, nor restful stay.It could be a really nice place if people were more respectful, the exit door had a much quieter mechanism and the carpet was given an intensely deep clean. Non pet rooms may be entirely different. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r236826415-Motel_6_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>236826415</t>
+  </si>
+  <si>
+    <t>10/28/2014</t>
+  </si>
+  <si>
+    <t>Not a good choice...you get what you pay for!</t>
+  </si>
+  <si>
+    <t>We were traveling from TN (2 adults &amp; 1 child). We were exhausted to say the least. We searched the internet for a reasonable hotel in a close range from where we were fueling our SUV. We found this hotel &amp; the reviews weren't bad, the pics looked nice, &amp; the price was reasonable. The Good #1 Clean bathroom with hot water for showering. #2 Price was great.
+Problems #1 Bad Location...could see the hotel but was very difficult to access. 
+#2 When my husband checked in the front desk said to access the hotel from the other end of the building because it was easier for us. Um no it was easier for front desk...he could keep the front locked up. We had to walk basically the entire length of the hotel to get to the elevator. #3 The entire hotel smelled of some insensse that absolutely was awful! I have asthma &amp; honestly it was difficult to breathe in. Took some getting use to &amp; your clothes smelled like it after you leave. #4 Our room was non-smoking...it reaked of cigerette smoke. #5 I question if our sheets were changed. It appeared to have been slept on. The other bed was fine. #6 The little digital TV box worked ok but the TV did not want to respond to our remote.
+Overall this was not a good choice!!! Think twice before staying &amp; if you have any respiratory...We were traveling from TN (2 adults &amp; 1 child). We were exhausted to say the least. We searched the internet for a reasonable hotel in a close range from where we were fueling our SUV. We found this hotel &amp; the reviews weren't bad, the pics looked nice, &amp; the price was reasonable. The Good #1 Clean bathroom with hot water for showering. #2 Price was great.Problems #1 Bad Location...could see the hotel but was very difficult to access. #2 When my husband checked in the front desk said to access the hotel from the other end of the building because it was easier for us. Um no it was easier for front desk...he could keep the front locked up. We had to walk basically the entire length of the hotel to get to the elevator. #3 The entire hotel smelled of some insensse that absolutely was awful! I have asthma &amp; honestly it was difficult to breathe in. Took some getting use to &amp; your clothes smelled like it after you leave. #4 Our room was non-smoking...it reaked of cigerette smoke. #5 I question if our sheets were changed. It appeared to have been slept on. The other bed was fine. #6 The little digital TV box worked ok but the TV did not want to respond to our remote.Overall this was not a good choice!!! Think twice before staying &amp; if you have any respiratory issues I do not recommend.   MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Weatherford, responded to this reviewResponded November 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 4, 2014</t>
+  </si>
+  <si>
+    <t>We were traveling from TN (2 adults &amp; 1 child). We were exhausted to say the least. We searched the internet for a reasonable hotel in a close range from where we were fueling our SUV. We found this hotel &amp; the reviews weren't bad, the pics looked nice, &amp; the price was reasonable. The Good #1 Clean bathroom with hot water for showering. #2 Price was great.
+Problems #1 Bad Location...could see the hotel but was very difficult to access. 
+#2 When my husband checked in the front desk said to access the hotel from the other end of the building because it was easier for us. Um no it was easier for front desk...he could keep the front locked up. We had to walk basically the entire length of the hotel to get to the elevator. #3 The entire hotel smelled of some insensse that absolutely was awful! I have asthma &amp; honestly it was difficult to breathe in. Took some getting use to &amp; your clothes smelled like it after you leave. #4 Our room was non-smoking...it reaked of cigerette smoke. #5 I question if our sheets were changed. It appeared to have been slept on. The other bed was fine. #6 The little digital TV box worked ok but the TV did not want to respond to our remote.
+Overall this was not a good choice!!! Think twice before staying &amp; if you have any respiratory...We were traveling from TN (2 adults &amp; 1 child). We were exhausted to say the least. We searched the internet for a reasonable hotel in a close range from where we were fueling our SUV. We found this hotel &amp; the reviews weren't bad, the pics looked nice, &amp; the price was reasonable. The Good #1 Clean bathroom with hot water for showering. #2 Price was great.Problems #1 Bad Location...could see the hotel but was very difficult to access. #2 When my husband checked in the front desk said to access the hotel from the other end of the building because it was easier for us. Um no it was easier for front desk...he could keep the front locked up. We had to walk basically the entire length of the hotel to get to the elevator. #3 The entire hotel smelled of some insensse that absolutely was awful! I have asthma &amp; honestly it was difficult to breathe in. Took some getting use to &amp; your clothes smelled like it after you leave. #4 Our room was non-smoking...it reaked of cigerette smoke. #5 I question if our sheets were changed. It appeared to have been slept on. The other bed was fine. #6 The little digital TV box worked ok but the TV did not want to respond to our remote.Overall this was not a good choice!!! Think twice before staying &amp; if you have any respiratory issues I do not recommend.   More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r222923189-Motel_6_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>222923189</t>
+  </si>
+  <si>
+    <t>08/19/2014</t>
+  </si>
+  <si>
+    <t>Great Place</t>
+  </si>
+  <si>
+    <t>Spent one night here for work and the motel is very clean and bed were great. The rate is very reasonable and it is very close to many popular restaurant chains and only about 20 miles from downtown Ft. Worth.</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r220766308-Motel_6_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>220766308</t>
+  </si>
+  <si>
+    <t>08/09/2014</t>
+  </si>
+  <si>
+    <t>Excellent hotel with great hospitality.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I really enjoyed my stay in the hotel. My bed room and the bathroom was in excellent condition.  Everything about this hotel is excellent. The service I got was fantastic.  I also saw a wonderful outdoor swimming pool!!  I will come back to this hotel again with no hesitation.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r217094876-Motel_6_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>217094876</t>
+  </si>
+  <si>
+    <t>07/23/2014</t>
+  </si>
+  <si>
+    <t>Great property, great locate &amp; great staff</t>
+  </si>
+  <si>
+    <t>I am a traveling medical professional &amp; when I received a 13 week contract at the local hospital, I contacted Bob, the owner &amp; proprietor, about lodging for that period.The rate was so reasonable that I did not look at any other motels or short term lease apartments.Bob &amp; his staff were great. The property is well kept &amp; very secure. At least 2 other guest were there on work contracts as long as mine or longer.  Both seemed happy w/ their accommodations.  My room was fine, not large,but comfortable w/ a flat scene TV, cable &amp; WiFi access, half size refrigerator w/ freezer compartment &amp; most important, a very comfortable queen size bed. The towels were changed every day &amp; the bed linens weekly.  The room was always clean &amp; quiet. As it turned out, I spent 20 weeks at the hospital. Thanks to everyone, the time flew by.If I am ever requested to return to Weatherford, I will be calling Bob &amp; his first thing!!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>I am a traveling medical professional &amp; when I received a 13 week contract at the local hospital, I contacted Bob, the owner &amp; proprietor, about lodging for that period.The rate was so reasonable that I did not look at any other motels or short term lease apartments.Bob &amp; his staff were great. The property is well kept &amp; very secure. At least 2 other guest were there on work contracts as long as mine or longer.  Both seemed happy w/ their accommodations.  My room was fine, not large,but comfortable w/ a flat scene TV, cable &amp; WiFi access, half size refrigerator w/ freezer compartment &amp; most important, a very comfortable queen size bed. The towels were changed every day &amp; the bed linens weekly.  The room was always clean &amp; quiet. As it turned out, I spent 20 weeks at the hospital. Thanks to everyone, the time flew by.If I am ever requested to return to Weatherford, I will be calling Bob &amp; his first thing!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r195671148-Motel_6_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>195671148</t>
+  </si>
+  <si>
+    <t>02/28/2014</t>
+  </si>
+  <si>
+    <t>2nd time good as the first</t>
+  </si>
+  <si>
+    <t>This is actually the 2nd time we have stayed there and oddly enough got the same room almost 1 year later. We we're very happy with the room, staff, service and cleanliness and it was the nicest motel 6 we have encountered. It had all the normal ammenities but did not offer even a continental breakfast.  However, they made up for it by offering a 15% discount to either waffle house or dennys, both close by. The price was reasonable and the bed was comfy. I must also mention my husband was excited to find it had night stands on BOTH sides of the bed as he is not usually able to beat me to the side with the handy stand...lol!MoreShow less</t>
+  </si>
+  <si>
+    <t>This is actually the 2nd time we have stayed there and oddly enough got the same room almost 1 year later. We we're very happy with the room, staff, service and cleanliness and it was the nicest motel 6 we have encountered. It had all the normal ammenities but did not offer even a continental breakfast.  However, they made up for it by offering a 15% discount to either waffle house or dennys, both close by. The price was reasonable and the bed was comfy. I must also mention my husband was excited to find it had night stands on BOTH sides of the bed as he is not usually able to beat me to the side with the handy stand...lol!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r187401731-Motel_6_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>187401731</t>
+  </si>
+  <si>
+    <t>12/11/2013</t>
+  </si>
+  <si>
+    <t>Amazing Customer Service</t>
+  </si>
+  <si>
+    <t>We stay here ever so often and we love it!! Clean rooms and great customer service. They tell you how you are everytime you pass, and its always a great price. One morning we got 4inches or ice and the manager himself came out and cleared our windsheild. We thank him and this hotel! Very great</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r185673029-Motel_6_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>185673029</t>
+  </si>
+  <si>
+    <t>11/24/2013</t>
+  </si>
+  <si>
+    <t>Good place to stay</t>
+  </si>
+  <si>
+    <t>I recently traveled to Weatherford, Texas to visit family and friends, having never stayed in Motel 6 before I was somewhat apprehensive. Based on my brother's recommendation, I booked 7 nights in this hotel, other than being somewhat difficult to find, I was elated with my stay. The front desk was courteous and friendly, the entire staff that I encountered was very friendly and accommodating, the room (while somewhat spartan) was clean, comfortable and in good repair. I'll stay at this hotel again during my next trip to Weatherford.</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r165133628-Motel_6_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>165133628</t>
+  </si>
+  <si>
+    <t>06/24/2013</t>
+  </si>
+  <si>
+    <t>Awful staff &amp; poor service.</t>
+  </si>
+  <si>
+    <t>I usually go out of my way to stay @ Motel 6...they are reasonably priced &amp; allow pets. We were laid over Memorial Day weekend and decided to stay at the hotel. The first night everything was okay, the next day the maid did not exchange our dirty towels or collect our trash. I proceeded to do so and went to the front desk to inquire why. We were told that we did not receive maid service because of my 3 pound chihuahua (we were in the room &amp; would've kindly went outside). The next day we went outside and sat by the pool waiting for the maid to finish when the owner approaches us and tells me that I couldn't walk my dog on the property, I couldn't sit outside with her or allow her in my bed. So, I called the 800 number and made a complaint. Customer service must have called because while we were collecting our belongings to leave, the owner was phoning our room and his rude wife was telling us to get out. As we approached the desk the owner started raising his voice and telling us that this was a Democratic country and us Americans are stupid. He didn't realize that all the while he was screaming and beating his fist on the counter...I still had customer service on the line. I found his demeanor inappropriate and if they aren't a "pet friendly"...I usually go out of my way to stay @ Motel 6...they are reasonably priced &amp; allow pets. We were laid over Memorial Day weekend and decided to stay at the hotel. The first night everything was okay, the next day the maid did not exchange our dirty towels or collect our trash. I proceeded to do so and went to the front desk to inquire why. We were told that we did not receive maid service because of my 3 pound chihuahua (we were in the room &amp; would've kindly went outside). The next day we went outside and sat by the pool waiting for the maid to finish when the owner approaches us and tells me that I couldn't walk my dog on the property, I couldn't sit outside with her or allow her in my bed. So, I called the 800 number and made a complaint. Customer service must have called because while we were collecting our belongings to leave, the owner was phoning our room and his rude wife was telling us to get out. As we approached the desk the owner started raising his voice and telling us that this was a Democratic country and us Americans are stupid. He didn't realize that all the while he was screaming and beating his fist on the counter...I still had customer service on the line. I found his demeanor inappropriate and if they aren't a "pet friendly" motel they should not advertise to be. Nice rooms for the money, nice pool but horrible behavior from the owner.MoreShow less</t>
+  </si>
+  <si>
+    <t>I usually go out of my way to stay @ Motel 6...they are reasonably priced &amp; allow pets. We were laid over Memorial Day weekend and decided to stay at the hotel. The first night everything was okay, the next day the maid did not exchange our dirty towels or collect our trash. I proceeded to do so and went to the front desk to inquire why. We were told that we did not receive maid service because of my 3 pound chihuahua (we were in the room &amp; would've kindly went outside). The next day we went outside and sat by the pool waiting for the maid to finish when the owner approaches us and tells me that I couldn't walk my dog on the property, I couldn't sit outside with her or allow her in my bed. So, I called the 800 number and made a complaint. Customer service must have called because while we were collecting our belongings to leave, the owner was phoning our room and his rude wife was telling us to get out. As we approached the desk the owner started raising his voice and telling us that this was a Democratic country and us Americans are stupid. He didn't realize that all the while he was screaming and beating his fist on the counter...I still had customer service on the line. I found his demeanor inappropriate and if they aren't a "pet friendly"...I usually go out of my way to stay @ Motel 6...they are reasonably priced &amp; allow pets. We were laid over Memorial Day weekend and decided to stay at the hotel. The first night everything was okay, the next day the maid did not exchange our dirty towels or collect our trash. I proceeded to do so and went to the front desk to inquire why. We were told that we did not receive maid service because of my 3 pound chihuahua (we were in the room &amp; would've kindly went outside). The next day we went outside and sat by the pool waiting for the maid to finish when the owner approaches us and tells me that I couldn't walk my dog on the property, I couldn't sit outside with her or allow her in my bed. So, I called the 800 number and made a complaint. Customer service must have called because while we were collecting our belongings to leave, the owner was phoning our room and his rude wife was telling us to get out. As we approached the desk the owner started raising his voice and telling us that this was a Democratic country and us Americans are stupid. He didn't realize that all the while he was screaming and beating his fist on the counter...I still had customer service on the line. I found his demeanor inappropriate and if they aren't a "pet friendly" motel they should not advertise to be. Nice rooms for the money, nice pool but horrible behavior from the owner.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r161440973-Motel_6_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>161440973</t>
+  </si>
+  <si>
+    <t>05/21/2013</t>
+  </si>
+  <si>
+    <t>Great Staff Great Motel</t>
+  </si>
+  <si>
+    <t>I am in the disaster relief business and have to pay my own way and always looking for a good weekly rate.  The front desk clerk spoke with the management and they gave me an excellent rate. They even gave me discount coupons for local restaurants. The motel is very clean and quiet.  The internet speed was fast enough for me to skype with my children.  The vending machines were also surprisingly reasonable.  The housekeeping staff also are very friendly and respectful.  I have stayed at Motel 6 before but never one like this, it is by far the best I have ever stayed at.</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r156402059-Motel_6_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>156402059</t>
+  </si>
+  <si>
+    <t>04/02/2013</t>
+  </si>
+  <si>
+    <t>Terrible service at front desk.  WILL NEVER GO THERE AGAIN!!!</t>
+  </si>
+  <si>
+    <t>I had called for a monthly rate and was quoted 700-750$ and when I went to get my room the manager told me that it would be $950 with a $200 deposit.  so I told him what I was quoted over the phone and he said "who told you that?" the lady that had was at the front desk and she said that she had given me that price so he told her that she "needs to learn our prices or leave" he was rude to me the customer and rude to his staff.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r150631092-Motel_6_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>150631092</t>
+  </si>
+  <si>
+    <t>01/25/2013</t>
+  </si>
+  <si>
+    <t>Very Impressed</t>
+  </si>
+  <si>
+    <t>After a long day and a half of driving across country my husband and I decided to stop for the night.  We found a motel 6 through our gps and contacted them within 5 minutes of showing up.  This is a pet friendly, kid friendly hotel!  The team was polite and welcoming and quick to help get us into a room.  The room is huge for a 2 bed room with a very spacious bathroom.  It was very affordable (about 65 all inclusive to include wi-fi) and even had a mini fridge and microwave.  Very clean and we are very pleased we stopped!  Also, would like to note that upon getting on here to do a review, I checked the posted pictures and were pleased to see that they were really of the rooms they put you in and the current condition.  There also appears to be an outdoor pool.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>After a long day and a half of driving across country my husband and I decided to stop for the night.  We found a motel 6 through our gps and contacted them within 5 minutes of showing up.  This is a pet friendly, kid friendly hotel!  The team was polite and welcoming and quick to help get us into a room.  The room is huge for a 2 bed room with a very spacious bathroom.  It was very affordable (about 65 all inclusive to include wi-fi) and even had a mini fridge and microwave.  Very clean and we are very pleased we stopped!  Also, would like to note that upon getting on here to do a review, I checked the posted pictures and were pleased to see that they were really of the rooms they put you in and the current condition.  There also appears to be an outdoor pool.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r146600384-Motel_6_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>146600384</t>
+  </si>
+  <si>
+    <t>12/01/2012</t>
+  </si>
+  <si>
+    <t>The service attendent should be fired and fined , I dont recomend anyone stay here till then, and I will be contacting all manag</t>
+  </si>
+  <si>
+    <t>Please read this and address this asap, tonight I got a	phone call from a most respected friend for a designated drive home so -i got a ride to pick her up , drove her safely to Motel 6 and paid for a room, all better right ? I called for a ride witch was 10 15 min away walked out side lit a cig feeling a	good deed - when the attendent told me you have 5 min to leave this property or the cops wil bel called, I told her my ride will b here in ten min, she said im calling the police</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r144772223-Motel_6_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>144772223</t>
+  </si>
+  <si>
+    <t>11/06/2012</t>
+  </si>
+  <si>
+    <t>very nice</t>
+  </si>
+  <si>
+    <t>my husband and i stayed here for 9 days,the room was very clean,the bed was very comfy.the owner&amp;his wife were extremely nice as was the rest of the staff.the prices were very reasonable.if you needed anything they were quick to respond .we enjoyed our stay and would stay here again.we would recommend it to others.its close to shopping and restaurants.</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r137945066-Motel_6_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>137945066</t>
+  </si>
+  <si>
+    <t>08/21/2012</t>
+  </si>
+  <si>
+    <t>Best Motel 6 Room Ever</t>
+  </si>
+  <si>
+    <t>This is a three story, hotel style building. You may have to carry your luggage a ways, but hey, exercise is good after sitting in a car all day. The gentleman and his wife who seem to be in charge are lovely and helpful. The room is large, very clean and includes a mini refrigerator and a microwave. It is a smoking room, but there is no smell at all, and even though I smoke, I have a very good nose. The bathroom is well designed and large. It even had fancy folded washcloths along with a little bottle of shampoo, which I have not seen in a Motel 6 in quite a while. After a hideous stay in Midland, this was a very much appreciated relief. And as a woman I feel very safe with the inside hallways. And I love having a screened window that I can open safely three stories up. I would not hesitate to recommend this, even to those who usually pay twice as much at fancier places.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>This is a three story, hotel style building. You may have to carry your luggage a ways, but hey, exercise is good after sitting in a car all day. The gentleman and his wife who seem to be in charge are lovely and helpful. The room is large, very clean and includes a mini refrigerator and a microwave. It is a smoking room, but there is no smell at all, and even though I smoke, I have a very good nose. The bathroom is well designed and large. It even had fancy folded washcloths along with a little bottle of shampoo, which I have not seen in a Motel 6 in quite a while. After a hideous stay in Midland, this was a very much appreciated relief. And as a woman I feel very safe with the inside hallways. And I love having a screened window that I can open safely three stories up. I would not hesitate to recommend this, even to those who usually pay twice as much at fancier places.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r137212443-Motel_6_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>137212443</t>
+  </si>
+  <si>
+    <t>08/14/2012</t>
+  </si>
+  <si>
+    <t>I had a very nice stay there and when I left I forgot a flower that I had gotten from the Billy Graham Library and had carried  with me for 5000 miles in three weeks. I was an hour away when I realized that I had left my plant in a water bottle in my room. For sure the maid would toss it. I pulled over and called and my little plant was safe in the hands of the front desk person. I drove back and my little plant was in excellent condition. Thank you</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r135896954-Motel_6_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>135896954</t>
+  </si>
+  <si>
+    <t>07/31/2012</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>Clean, comfortable and friendly. Very nice motel 6. I would  highly recommend this hotel for anyone traveling through the area. The price was very reasonable and everything exceeded my expectations. Will stay again!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r120215663-Motel_6_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>120215663</t>
+  </si>
+  <si>
+    <t>11/05/2011</t>
+  </si>
+  <si>
+    <t>Exceeded expectations</t>
+  </si>
+  <si>
+    <t>Normally we don't stay in Motel 6, but I read the reviews on this place and thought I'd give it a try.  We were greeted right away and with friendliness.  When booking online, it didn't give the option to add a discount, but Bob asked us if we had any discounts.  My husband showed him his military ID and he gave us the discount.  The hotel and room was clean and nice looking.  We had 2 queen beds which was comfortable.  I had some trouble getting connected to the internet, so Bob gave me some advice and asked me to let him know if everything was ok.  When it still wouldn't work, he asked me if I could bring the laptop to him.  He showed my husband and I how to fix the problem with ease. We then got to talking about other computer tips and he was very helpful.  He made sure everything was fine with the room.  The next morning I took a shower &amp; it was heaven - roomy &amp; great water pressure.   We were again greeted with friendliness with them making sure the room was good and if we needed anything else.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>Normally we don't stay in Motel 6, but I read the reviews on this place and thought I'd give it a try.  We were greeted right away and with friendliness.  When booking online, it didn't give the option to add a discount, but Bob asked us if we had any discounts.  My husband showed him his military ID and he gave us the discount.  The hotel and room was clean and nice looking.  We had 2 queen beds which was comfortable.  I had some trouble getting connected to the internet, so Bob gave me some advice and asked me to let him know if everything was ok.  When it still wouldn't work, he asked me if I could bring the laptop to him.  He showed my husband and I how to fix the problem with ease. We then got to talking about other computer tips and he was very helpful.  He made sure everything was fine with the room.  The next morning I took a shower &amp; it was heaven - roomy &amp; great water pressure.   We were again greeted with friendliness with them making sure the room was good and if we needed anything else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r117823668-Motel_6_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>117823668</t>
+  </si>
+  <si>
+    <t>09/08/2011</t>
+  </si>
+  <si>
+    <t>Hard stiff bed</t>
+  </si>
+  <si>
+    <t>Very firm mattress, like sleeping box. Staff watching everything like you gona steal it, very uncomfortable atmosphere.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r115592377-Motel_6_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>115592377</t>
+  </si>
+  <si>
+    <t>07/20/2011</t>
+  </si>
+  <si>
+    <t>Great hotel-Overpriced and dis honest</t>
+  </si>
+  <si>
+    <t>I stayed at the Motel 6 in Weatherford to simply get away on the 18th of July which as my moms anniversary of her passing.  The staff I must admit was great, the hotel was very clean. not many people stayed on either the 18th or 19th yet all the same difference.  The only problem I had was the pricing which said on the Motel 6 board 32.99 or 35.99 , cant remember yet I was mis lead by the manager whom told me the first night it would be 52.88 plus tax for the hotel was booked solid so I paid it.  Later that evening around 9-10 p.m I had my dog and as I was taking him for a walk I noticed maybe 5-6 cars in the parking lot so I felt cheated and lied to.  The second night on July 19, 2011 I just was not thinking and let them get me again for 45.00 plus tax reasoning givin was because having a dog, mind you I had a mini schnauzer was more.  Well, I cant say anything bad about the hotel as it was clean, pool was nice but false advertising is to blame for this stay at the Motel 6 in Weatherford, Texas and I got a variety if reasons why the 32.95 or 35.95 rate did not apply, first it was thats for only people that stayed a week.  I called corporate and told...I stayed at the Motel 6 in Weatherford to simply get away on the 18th of July which as my moms anniversary of her passing.  The staff I must admit was great, the hotel was very clean. not many people stayed on either the 18th or 19th yet all the same difference.  The only problem I had was the pricing which said on the Motel 6 board 32.99 or 35.99 , cant remember yet I was mis lead by the manager whom told me the first night it would be 52.88 plus tax for the hotel was booked solid so I paid it.  Later that evening around 9-10 p.m I had my dog and as I was taking him for a walk I noticed maybe 5-6 cars in the parking lot so I felt cheated and lied to.  The second night on July 19, 2011 I just was not thinking and let them get me again for 45.00 plus tax reasoning givin was because having a dog, mind you I had a mini schnauzer was more.  Well, I cant say anything bad about the hotel as it was clean, pool was nice but false advertising is to blame for this stay at the Motel 6 in Weatherford, Texas and I got a variety if reasons why the 32.95 or 35.95 rate did not apply, first it was thats for only people that stayed a week.  I called corporate and told them that paying 111.00 for 2 nights at the Motel 6 ,which had not fridge,microwave,or hairdryer was price gaudging and as usual the manager has failed to get back to me and settle the difference .  In fact i looked up the exact same room I had and it was 36.99 on-line.  So, bottom line is hotel was clean but come to find out the owners were very dis honest and did not even try to make a effort to resolve this issue so I got duked..   But I have options and plan to use thm....False advertising can be pretty serious offence.  Just  Preceed with caution when it comes to paying for a simple ,basic, plain room.  This Motel 6 did not follow what Tom Bodite the spokesman on all the commercials stand for. And apparantly every guest is offered a discount coupon to one of the local breakfast restaraunts and not one time out of my two days there was I offered one.   And yes I cover my basis when it comes to making sure I have pictures and I took my pictures of room before I touched anything and of the sign that said 32.99 or 35.99, just cant remember.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>I stayed at the Motel 6 in Weatherford to simply get away on the 18th of July which as my moms anniversary of her passing.  The staff I must admit was great, the hotel was very clean. not many people stayed on either the 18th or 19th yet all the same difference.  The only problem I had was the pricing which said on the Motel 6 board 32.99 or 35.99 , cant remember yet I was mis lead by the manager whom told me the first night it would be 52.88 plus tax for the hotel was booked solid so I paid it.  Later that evening around 9-10 p.m I had my dog and as I was taking him for a walk I noticed maybe 5-6 cars in the parking lot so I felt cheated and lied to.  The second night on July 19, 2011 I just was not thinking and let them get me again for 45.00 plus tax reasoning givin was because having a dog, mind you I had a mini schnauzer was more.  Well, I cant say anything bad about the hotel as it was clean, pool was nice but false advertising is to blame for this stay at the Motel 6 in Weatherford, Texas and I got a variety if reasons why the 32.95 or 35.95 rate did not apply, first it was thats for only people that stayed a week.  I called corporate and told...I stayed at the Motel 6 in Weatherford to simply get away on the 18th of July which as my moms anniversary of her passing.  The staff I must admit was great, the hotel was very clean. not many people stayed on either the 18th or 19th yet all the same difference.  The only problem I had was the pricing which said on the Motel 6 board 32.99 or 35.99 , cant remember yet I was mis lead by the manager whom told me the first night it would be 52.88 plus tax for the hotel was booked solid so I paid it.  Later that evening around 9-10 p.m I had my dog and as I was taking him for a walk I noticed maybe 5-6 cars in the parking lot so I felt cheated and lied to.  The second night on July 19, 2011 I just was not thinking and let them get me again for 45.00 plus tax reasoning givin was because having a dog, mind you I had a mini schnauzer was more.  Well, I cant say anything bad about the hotel as it was clean, pool was nice but false advertising is to blame for this stay at the Motel 6 in Weatherford, Texas and I got a variety if reasons why the 32.95 or 35.95 rate did not apply, first it was thats for only people that stayed a week.  I called corporate and told them that paying 111.00 for 2 nights at the Motel 6 ,which had not fridge,microwave,or hairdryer was price gaudging and as usual the manager has failed to get back to me and settle the difference .  In fact i looked up the exact same room I had and it was 36.99 on-line.  So, bottom line is hotel was clean but come to find out the owners were very dis honest and did not even try to make a effort to resolve this issue so I got duked..   But I have options and plan to use thm....False advertising can be pretty serious offence.  Just  Preceed with caution when it comes to paying for a simple ,basic, plain room.  This Motel 6 did not follow what Tom Bodite the spokesman on all the commercials stand for. And apparantly every guest is offered a discount coupon to one of the local breakfast restaraunts and not one time out of my two days there was I offered one.   And yes I cover my basis when it comes to making sure I have pictures and I took my pictures of room before I touched anything and of the sign that said 32.99 or 35.99, just cant remember.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r113512083-Motel_6_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>113512083</t>
+  </si>
+  <si>
+    <t>06/14/2011</t>
+  </si>
+  <si>
+    <t>Newly renovated, great price , room was very clean and the staff was very helpful.  The general manager Bob and his wife were very helpful from where to eat to where to take my dry cleaning in town. I would recommend this motel 6.</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r113234259-Motel_6_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>113234259</t>
+  </si>
+  <si>
+    <t>06/13/2011</t>
+  </si>
+  <si>
+    <t>Clean, well-run motel</t>
+  </si>
+  <si>
+    <t>When we travel, we look for clean, safe, moderate priced rooms.  This hotel is a well-managed, excellent value.  The room was very clean, the bed was comfortable with fresh, crisp sheets, the water pressure in the shower was good, and the air conditioner was cold.  There were plenty of pillows and towels and there was a microwave and small frig in the room.  We had a good night's sleep for ~$55.  In my book, that's about the best you can ask for.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r110917109-Motel_6_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>110917109</t>
+  </si>
+  <si>
+    <t>06/01/2011</t>
+  </si>
+  <si>
+    <t>Clean, and great value!!</t>
+  </si>
+  <si>
+    <t>We pulled in late the night we checked in.  The owner was at the desk when we came in.  We had spent a night in a horror Motel 6 a few nights before (literally had a bed and small tv).  After looking at TripAdvisor (they have a T.A sticker award on their entrance door), we decided to give M6 another shot.  We told the owner this and he was nothing but helpful and understanding.  Hr let us view a room before checking in.  The room was so clean, it had a fridge, microwave, a good sized desk, and a good sized tv.  This motel gave us hope in Motel 6s again!  The price was amazing, too.  43$ for a king bed.  If we have to drive back.through anytime, this is where we will be staying!!MoreShow less</t>
+  </si>
+  <si>
+    <t>We pulled in late the night we checked in.  The owner was at the desk when we came in.  We had spent a night in a horror Motel 6 a few nights before (literally had a bed and small tv).  After looking at TripAdvisor (they have a T.A sticker award on their entrance door), we decided to give M6 another shot.  We told the owner this and he was nothing but helpful and understanding.  Hr let us view a room before checking in.  The room was so clean, it had a fridge, microwave, a good sized desk, and a good sized tv.  This motel gave us hope in Motel 6s again!  The price was amazing, too.  43$ for a king bed.  If we have to drive back.through anytime, this is where we will be staying!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r100886697-Motel_6_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>100886697</t>
+  </si>
+  <si>
+    <t>03/20/2011</t>
+  </si>
+  <si>
+    <t>Helpful Staff, GR8 Value</t>
+  </si>
+  <si>
+    <t>Rooms are clean and quiet and have a nice TV, Mini Fridge, Internet, Microwave, comfortable beads and a nice desk area for studying, eating, etc.  Free coffee in the morning and BOB will provide discount coupons for some local restaurants.They are doing upgrades to the building and Internet system, so it should be even better next time I visit.Overall, a very good experience and the price was around $45.00  a good deal for sure.</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r95422194-Motel_6_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>95422194</t>
+  </si>
+  <si>
+    <t>02/03/2011</t>
+  </si>
+  <si>
+    <t>Nice, Friendly and Very Helpful</t>
+  </si>
+  <si>
+    <t>I was enroute to Fl. from Co. in the nice ice storm and snow they got in Texas. On Feb 2nd, I was stranded on interstate 20 and managed to get a ride to the motel 6. Immediately upon my arrival, Bob the manager was very helpful at making me feel less streesed. He called a mechanic for me and my car was picked up within 45 minutes from the side of the interstate. On the 3rd, the mechanic was working on my car, and Bob took me to get some food at walmart and to the mechanics shop to get my bags. The hotel was very clean in all areas, and if EVER I get back this way, I would stay again, and will definitely tell all my traveling friends. Stay here. They make you feel so welcome.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2011</t>
+  </si>
+  <si>
+    <t>I was enroute to Fl. from Co. in the nice ice storm and snow they got in Texas. On Feb 2nd, I was stranded on interstate 20 and managed to get a ride to the motel 6. Immediately upon my arrival, Bob the manager was very helpful at making me feel less streesed. He called a mechanic for me and my car was picked up within 45 minutes from the side of the interstate. On the 3rd, the mechanic was working on my car, and Bob took me to get some food at walmart and to the mechanics shop to get my bags. The hotel was very clean in all areas, and if EVER I get back this way, I would stay again, and will definitely tell all my traveling friends. Stay here. They make you feel so welcome.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r90475589-Motel_6_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>90475589</t>
+  </si>
+  <si>
+    <t>12/22/2010</t>
+  </si>
+  <si>
+    <t>Good value, great staff.</t>
+  </si>
+  <si>
+    <t>After a long day of driving, we checked out this motel and found it to be clean with updated bathrooms and very friendly and conscientious staff.  The price was right, and in the morning we were offered a coupon for 20% off on a nearby breakfast place.</t>
+  </si>
+  <si>
+    <t>December 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r77231431-Motel_6_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>77231431</t>
+  </si>
+  <si>
+    <t>08/28/2010</t>
+  </si>
+  <si>
+    <t>Comfortable, clean, safe motel with very friendly staff</t>
+  </si>
+  <si>
+    <t>I have stayed at the Weatherford, Texas, Motel 6 more than once.  I keep coming back because of the friendly staff.  Even so, I wouldn't return so often if they didn't also offer very spacious, comfortable rooms.  A refrigerator and microwave may be available upon request.  They do a great job of keeping the rooms and grounds clean.  The motel is safe, in a good part of town, with easy-on, easy-off access to Highway 20. Good restaurants and shopping are close.   It is just a short drive to Fort Worth.</t>
+  </si>
+  <si>
+    <t>August 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r58852730-Motel_6_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>58852730</t>
+  </si>
+  <si>
+    <t>03/17/2010</t>
+  </si>
+  <si>
+    <t>excellent motel 6</t>
+  </si>
+  <si>
+    <t>About Weatherford, TX Motel 6: It is a terrific Motel 6. The owners are a personable couple. They are at the front desk throughout the day. The rooms are clean, no signs of bugs or funk. My room was large for a Motel 6 and had lots of convenient outlets. Strong WiFi is included in the room price. They take extra care in the housekeeping with cute folded towels in the bathroom. The A/C looks new and works well, with a thermostat. There is lots of cable and a 27" TV. The pool is a disappointment: basically a lap pool right next to the parking lot, but it was being cleaned by pool professionals while I stayed. I am female and felt extra safe because of the inner corridor and the owners on the premise.About Motel 6 (especially regarding Tennis Chick's review above): This chain is a national treasure. It enables me to travel far and wide without paying over $50 a night for lots of extras. Every Motel 6 is a budget motel. This is not a getaway place to stay. That is why they are able to keep the price so low. That means NO extras. No art on the wall, no clock, no closet, no coffee maker, hairdryer, etc. The linens are budget quality and there is no "free" breakfast. I hope more people will write reviews with that in mind.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2010</t>
+  </si>
+  <si>
+    <t>About Weatherford, TX Motel 6: It is a terrific Motel 6. The owners are a personable couple. They are at the front desk throughout the day. The rooms are clean, no signs of bugs or funk. My room was large for a Motel 6 and had lots of convenient outlets. Strong WiFi is included in the room price. They take extra care in the housekeeping with cute folded towels in the bathroom. The A/C looks new and works well, with a thermostat. There is lots of cable and a 27" TV. The pool is a disappointment: basically a lap pool right next to the parking lot, but it was being cleaned by pool professionals while I stayed. I am female and felt extra safe because of the inner corridor and the owners on the premise.About Motel 6 (especially regarding Tennis Chick's review above): This chain is a national treasure. It enables me to travel far and wide without paying over $50 a night for lots of extras. Every Motel 6 is a budget motel. This is not a getaway place to stay. That is why they are able to keep the price so low. That means NO extras. No art on the wall, no clock, no closet, no coffee maker, hairdryer, etc. The linens are budget quality and there is no "free" breakfast. I hope more people will write reviews with that in mind.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r30414422-Motel_6_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>30414422</t>
+  </si>
+  <si>
+    <t>05/20/2009</t>
+  </si>
+  <si>
+    <t>Very nice stay.</t>
+  </si>
+  <si>
+    <t>Price was a little higher than the surrounding hotels but much cleaner and quieter. NO COCKROACHES. The owners were very personable. After talking to them I Knew that I was going to stay here again. They said that shortly after they took over this hotel they had thrown away and put in new bedding. When i first arrived I witnessed one of the owners outside working in the garden area. To me, that showed they cared about what you and I think when we first arrive. They say they are going continue updating this hotel.</t>
+  </si>
+  <si>
+    <t>May 2009</t>
   </si>
 </sst>
 </file>
@@ -645,6 +1464,2692 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>51771</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>4</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>51771</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>51771</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>51771</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
+        <v>67</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>51771</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>79</v>
+      </c>
+      <c r="O6" t="s">
+        <v>80</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>51771</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>87</v>
+      </c>
+      <c r="O7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>51771</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>93</v>
+      </c>
+      <c r="O8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>51771</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>99</v>
+      </c>
+      <c r="O9" t="s">
+        <v>67</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>51771</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10" t="s">
+        <v>105</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>106</v>
+      </c>
+      <c r="O10" t="s">
+        <v>80</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>51771</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>109</v>
+      </c>
+      <c r="J11" t="s">
+        <v>110</v>
+      </c>
+      <c r="K11" t="s">
+        <v>111</v>
+      </c>
+      <c r="L11" t="s">
+        <v>112</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>113</v>
+      </c>
+      <c r="O11" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>114</v>
+      </c>
+      <c r="X11" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>51771</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>117</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>118</v>
+      </c>
+      <c r="J12" t="s">
+        <v>119</v>
+      </c>
+      <c r="K12" t="s">
+        <v>120</v>
+      </c>
+      <c r="L12" t="s">
+        <v>121</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>122</v>
+      </c>
+      <c r="O12" t="s">
+        <v>52</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>123</v>
+      </c>
+      <c r="X12" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>51771</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>127</v>
+      </c>
+      <c r="J13" t="s">
+        <v>128</v>
+      </c>
+      <c r="K13" t="s">
+        <v>129</v>
+      </c>
+      <c r="L13" t="s">
+        <v>130</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>122</v>
+      </c>
+      <c r="O13" t="s">
+        <v>59</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>131</v>
+      </c>
+      <c r="X13" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>51771</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>134</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>135</v>
+      </c>
+      <c r="J14" t="s">
+        <v>136</v>
+      </c>
+      <c r="K14" t="s">
+        <v>137</v>
+      </c>
+      <c r="L14" t="s">
+        <v>138</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s"/>
+      <c r="O14" t="s"/>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>51771</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>139</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>140</v>
+      </c>
+      <c r="J15" t="s">
+        <v>141</v>
+      </c>
+      <c r="K15" t="s">
+        <v>142</v>
+      </c>
+      <c r="L15" t="s">
+        <v>143</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>144</v>
+      </c>
+      <c r="O15" t="s">
+        <v>80</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>51771</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>146</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>147</v>
+      </c>
+      <c r="J16" t="s">
+        <v>148</v>
+      </c>
+      <c r="K16" t="s">
+        <v>149</v>
+      </c>
+      <c r="L16" t="s">
+        <v>150</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s"/>
+      <c r="O16" t="s"/>
+      <c r="P16" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>2</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>151</v>
+      </c>
+      <c r="X16" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>51771</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>154</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>155</v>
+      </c>
+      <c r="J17" t="s">
+        <v>156</v>
+      </c>
+      <c r="K17" t="s">
+        <v>157</v>
+      </c>
+      <c r="L17" t="s">
+        <v>158</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>159</v>
+      </c>
+      <c r="O17" t="s">
+        <v>59</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>51771</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>160</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>161</v>
+      </c>
+      <c r="J18" t="s">
+        <v>162</v>
+      </c>
+      <c r="K18" t="s">
+        <v>163</v>
+      </c>
+      <c r="L18" t="s">
+        <v>164</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>51771</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>165</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>166</v>
+      </c>
+      <c r="J19" t="s">
+        <v>167</v>
+      </c>
+      <c r="K19" t="s">
+        <v>168</v>
+      </c>
+      <c r="L19" t="s">
+        <v>169</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>170</v>
+      </c>
+      <c r="O19" t="s">
+        <v>59</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>51771</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>172</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>173</v>
+      </c>
+      <c r="J20" t="s">
+        <v>174</v>
+      </c>
+      <c r="K20" t="s">
+        <v>175</v>
+      </c>
+      <c r="L20" t="s">
+        <v>176</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s"/>
+      <c r="O20" t="s"/>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>51771</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>178</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>179</v>
+      </c>
+      <c r="J21" t="s">
+        <v>180</v>
+      </c>
+      <c r="K21" t="s">
+        <v>181</v>
+      </c>
+      <c r="L21" t="s">
+        <v>182</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>183</v>
+      </c>
+      <c r="O21" t="s">
+        <v>67</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>51771</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>184</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>185</v>
+      </c>
+      <c r="J22" t="s">
+        <v>186</v>
+      </c>
+      <c r="K22" t="s">
+        <v>187</v>
+      </c>
+      <c r="L22" t="s">
+        <v>188</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>189</v>
+      </c>
+      <c r="O22" t="s">
+        <v>52</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>51771</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>190</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>191</v>
+      </c>
+      <c r="J23" t="s">
+        <v>192</v>
+      </c>
+      <c r="K23" t="s">
+        <v>193</v>
+      </c>
+      <c r="L23" t="s">
+        <v>194</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>51771</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>196</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>197</v>
+      </c>
+      <c r="J24" t="s">
+        <v>198</v>
+      </c>
+      <c r="K24" t="s">
+        <v>199</v>
+      </c>
+      <c r="L24" t="s">
+        <v>200</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>201</v>
+      </c>
+      <c r="O24" t="s">
+        <v>59</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>51771</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>202</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>203</v>
+      </c>
+      <c r="J25" t="s">
+        <v>204</v>
+      </c>
+      <c r="K25" t="s">
+        <v>205</v>
+      </c>
+      <c r="L25" t="s">
+        <v>206</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s"/>
+      <c r="O25" t="s"/>
+      <c r="P25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1</v>
+      </c>
+      <c r="R25" t="n">
+        <v>3</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>1</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>51771</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>207</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>208</v>
+      </c>
+      <c r="J26" t="s">
+        <v>209</v>
+      </c>
+      <c r="K26" t="s">
+        <v>210</v>
+      </c>
+      <c r="L26" t="s">
+        <v>211</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>212</v>
+      </c>
+      <c r="O26" t="s">
+        <v>52</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>51771</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>214</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>215</v>
+      </c>
+      <c r="J27" t="s">
+        <v>216</v>
+      </c>
+      <c r="K27" t="s">
+        <v>217</v>
+      </c>
+      <c r="L27" t="s">
+        <v>218</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s"/>
+      <c r="O27" t="s"/>
+      <c r="P27" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>51771</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>219</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>220</v>
+      </c>
+      <c r="J28" t="s">
+        <v>221</v>
+      </c>
+      <c r="K28" t="s">
+        <v>222</v>
+      </c>
+      <c r="L28" t="s">
+        <v>223</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>224</v>
+      </c>
+      <c r="O28" t="s">
+        <v>59</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>51771</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>225</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>226</v>
+      </c>
+      <c r="J29" t="s">
+        <v>227</v>
+      </c>
+      <c r="K29" t="s">
+        <v>228</v>
+      </c>
+      <c r="L29" t="s">
+        <v>229</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>230</v>
+      </c>
+      <c r="O29" t="s">
+        <v>80</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>51771</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>232</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>233</v>
+      </c>
+      <c r="J30" t="s">
+        <v>234</v>
+      </c>
+      <c r="K30" t="s">
+        <v>157</v>
+      </c>
+      <c r="L30" t="s">
+        <v>235</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>230</v>
+      </c>
+      <c r="O30" t="s">
+        <v>80</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>51771</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>236</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>237</v>
+      </c>
+      <c r="J31" t="s">
+        <v>238</v>
+      </c>
+      <c r="K31" t="s">
+        <v>239</v>
+      </c>
+      <c r="L31" t="s">
+        <v>240</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s"/>
+      <c r="O31" t="s"/>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>51771</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>241</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>242</v>
+      </c>
+      <c r="J32" t="s">
+        <v>243</v>
+      </c>
+      <c r="K32" t="s">
+        <v>244</v>
+      </c>
+      <c r="L32" t="s">
+        <v>245</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>246</v>
+      </c>
+      <c r="O32" t="s">
+        <v>52</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>51771</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>248</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>249</v>
+      </c>
+      <c r="J33" t="s">
+        <v>250</v>
+      </c>
+      <c r="K33" t="s">
+        <v>251</v>
+      </c>
+      <c r="L33" t="s">
+        <v>252</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
+      <c r="P33" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>3</v>
+      </c>
+      <c r="R33" t="n">
+        <v>3</v>
+      </c>
+      <c r="S33" t="n">
+        <v>3</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>1</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>51771</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>253</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>254</v>
+      </c>
+      <c r="J34" t="s">
+        <v>255</v>
+      </c>
+      <c r="K34" t="s">
+        <v>256</v>
+      </c>
+      <c r="L34" t="s">
+        <v>257</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>258</v>
+      </c>
+      <c r="O34" t="s">
+        <v>80</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>2</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>51771</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>260</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>261</v>
+      </c>
+      <c r="J35" t="s">
+        <v>262</v>
+      </c>
+      <c r="K35" t="s">
+        <v>239</v>
+      </c>
+      <c r="L35" t="s">
+        <v>263</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>264</v>
+      </c>
+      <c r="O35" t="s">
+        <v>59</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>4</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>51771</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>265</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>266</v>
+      </c>
+      <c r="J36" t="s">
+        <v>267</v>
+      </c>
+      <c r="K36" t="s">
+        <v>268</v>
+      </c>
+      <c r="L36" t="s">
+        <v>269</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>264</v>
+      </c>
+      <c r="O36" t="s">
+        <v>67</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>51771</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>270</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>271</v>
+      </c>
+      <c r="J37" t="s">
+        <v>272</v>
+      </c>
+      <c r="K37" t="s">
+        <v>273</v>
+      </c>
+      <c r="L37" t="s">
+        <v>274</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s"/>
+      <c r="O37" t="s"/>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>51771</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>276</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>277</v>
+      </c>
+      <c r="J38" t="s">
+        <v>278</v>
+      </c>
+      <c r="K38" t="s">
+        <v>279</v>
+      </c>
+      <c r="L38" t="s">
+        <v>280</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>281</v>
+      </c>
+      <c r="O38" t="s">
+        <v>80</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>51771</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>282</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>283</v>
+      </c>
+      <c r="J39" t="s">
+        <v>284</v>
+      </c>
+      <c r="K39" t="s">
+        <v>285</v>
+      </c>
+      <c r="L39" t="s">
+        <v>286</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>287</v>
+      </c>
+      <c r="O39" t="s">
+        <v>80</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>51771</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>289</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>290</v>
+      </c>
+      <c r="J40" t="s">
+        <v>291</v>
+      </c>
+      <c r="K40" t="s">
+        <v>292</v>
+      </c>
+      <c r="L40" t="s">
+        <v>293</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>294</v>
+      </c>
+      <c r="O40" t="s">
+        <v>67</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>4</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>51771</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>295</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>296</v>
+      </c>
+      <c r="J41" t="s">
+        <v>297</v>
+      </c>
+      <c r="K41" t="s">
+        <v>298</v>
+      </c>
+      <c r="L41" t="s">
+        <v>299</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>300</v>
+      </c>
+      <c r="O41" t="s">
+        <v>59</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>51771</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>301</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>302</v>
+      </c>
+      <c r="J42" t="s">
+        <v>303</v>
+      </c>
+      <c r="K42" t="s">
+        <v>304</v>
+      </c>
+      <c r="L42" t="s">
+        <v>305</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>306</v>
+      </c>
+      <c r="O42" t="s">
+        <v>80</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>3</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
+      <c r="S42" t="n">
+        <v>3</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>3</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>51771</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>308</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>309</v>
+      </c>
+      <c r="J43" t="s">
+        <v>310</v>
+      </c>
+      <c r="K43" t="s">
+        <v>311</v>
+      </c>
+      <c r="L43" t="s">
+        <v>312</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>313</v>
+      </c>
+      <c r="O43" t="s">
+        <v>59</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>312</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_599.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_599.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="356">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Amy L</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -177,6 +180,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>pilotgirl6720</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r533678095-Motel_6_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -201,6 +207,9 @@
     <t>Hi. Pilot car girl review. I stay in a lot of motels due to my job and I must say that I was very pleased with this Motel 6. The rooms as well as the outside around the motel are very well kept. A big thing to me is that this motel has NO BUGS. Our room was very nice and very clean. Upon checking in we had to give a lot of information but that’s ok and everything was well explained to us. They do have security monitors for the parking area and do take all info about our vehicles and that’s also good so not just anybody can park there and possibly vandalize a vehicle. I do have 2 service dogs which was not a problem but I would like to see a small grassy area in the back for dogs since we could not get in the grass. Overall this motel has definitely passed my review. It is obvious that the staff at this motel do their job. I have no complaints about this Motel 6!More</t>
   </si>
   <si>
+    <t>josemonterr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r516489853-Motel_6_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -222,6 +231,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>John R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r416958636-Motel_6_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -240,6 +252,9 @@
     <t>September 2016</t>
   </si>
   <si>
+    <t>TallTexWally</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r415081306-Motel_6_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -264,6 +279,9 @@
     <t>This Motel 6 has a newer design than their older locations, and it's surrounded by other motels, just south of I - 20 at exit 408.  Check in was easy, and my room was comfortable and clean.  I got a good night's sleep.  I like how there are many stores and restaurants nearby.  I also like how Weatherford is not in the middle of the hustle and bustle of Fort Worth and Dallas.  It was a perfect place to spend the night, and then continue heading west on I - 20 the next morning.  I've stayed at many Motel 6 locations through the years and to me this is one of their better motels.  I would definitely stay here again the next time I'm traveling west on I - 20.More</t>
   </si>
   <si>
+    <t>Mark672</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r397741737-Motel_6_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -282,6 +300,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>45ronaldd</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r346383227-Motel_6_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -300,6 +321,9 @@
     <t>February 2016</t>
   </si>
   <si>
+    <t>Jamie32737</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r339057802-Motel_6_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -321,6 +345,9 @@
     <t>We stopped here because we thought Motel 6 was "Pet friendly" but not this place. I was traveling with my Shitzu and when I walked into the lobby with her, the desk clerk quickly told me that I wasn"t allowed to bring my dog inside the lobby even though I was holding her. The clerk then went on to give us detailed instructions that the dog wasn't allowed to walk on the carpeted hallway to the room, not allowed to bark and we could only enter the motel from the back if we had our dog with us which was anytime we left the room because we weren't allowed to leave our dog in the room for any reason. We were also told that we had to have the room inspected before we checked out. Oh, and one last thing, we did check out after walking into the room because it looked like someone took a razor blade and slashed the blanket which was exposed when we walked in the room.I don't know who runs this place but it should be called MOTEL 86.More</t>
   </si>
   <si>
+    <t>doowell68</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r322878911-Motel_6_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -342,6 +369,9 @@
     <t>I needed a quick and last minute get-a-way to get some much need rest and intense studying done. I basically just pointed my finger, made the reservation and hoped for the best. To my surprise, it was just what the Dr. ordered. It wasn't fancy or 5 star quality, but it was nice, clean, and had a very friendly atmosphere. There were plenty other hotels around I could've chosen, but this was a solo trip, not a vacation, so it was just right for me. The staff were very nice and courteous. I had my DO NOT DISTURB sign up the whole weekend, and no one bothered me at all. I left my room to get something to eat, the housekeeper saw me and still asked if everything was ok and if I needed anything. I thought that was awesome. On the 2nd night, some young men were right outside of my window playing ball. I thought it was going to be a problem, but by the time it got dark, they had stopped. Again, if you just need a quiet get-a-way, don't have a lot of money, need peace and quiet, and not too concerned with 5 star luxury, then this is the place to go.More</t>
   </si>
   <si>
+    <t>brittany g</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r304317850-Motel_6_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -369,6 +399,9 @@
     <t>they discrimation against people pets ect and service dogs called to reserve a room smking room w service dog was told by angels they had no dog room [motel 6 says they do]was then told by angela they did not have a smking pet room switch her story ya motel 6 says they do ya they do not need to b a motel 6 the people are rude have them in a lawsuit my goal is for them to loose the motel 6/property bob and angela are very rude  made my resavation by wrong name so id have trouble at check in looser people called to switch resavation to smking room whitch they have was told by bob comp were down for hours call bk 5 hrs later get ur lazy butt out of bed and do ur job indain place smells bugs ect just like the reveiws say motel 6 need to take this property away well see what jerome black distric  mananger says about this to since he a good friend ya my stay will b e free just to prove a point and out of coursty to jerome but my lawer will be on this trip w me yaMore</t>
   </si>
   <si>
+    <t>Lisa G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r292798101-Motel_6_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -396,6 +429,9 @@
     <t>My brother-in-law, his wife, and son from Iowa checked into the Weatherford Motel 6 on July 25 for two nights. On the second night they were there my husband, son, and I took two vehicles to pick our kinfolk up. My son planned to take his cousin to play mini-golf while the adults went with us to grab a soft drink somewhere. The visitors had made a quick run to the nearby Wal-Mart, so we attempted to get parked in a location where our visitors would see us upon their return. Though the hotel had very few guests, the manager of the Motel 6 came running out of the building and began a confrontation about parking our car. We explained we were waiting for family to return from WalMart. He demanded to know their room number which we did not know but we provided a name. He then rudely declared he was going to check the name and have us towed if our relatives were not registered there. I was shocked to be treated this way and as our relatives pulled up and he turned abruptly without apology when he realized we were being truthful, I assured him I would never allow anyone else I knew to grace his property. The whole encounter so lacked any semblance of customer service, it has now biased me against the whole chain. Stay clear of this property at all costs!!! My relatives also...My brother-in-law, his wife, and son from Iowa checked into the Weatherford Motel 6 on July 25 for two nights. On the second night they were there my husband, son, and I took two vehicles to pick our kinfolk up. My son planned to take his cousin to play mini-golf while the adults went with us to grab a soft drink somewhere. The visitors had made a quick run to the nearby Wal-Mart, so we attempted to get parked in a location where our visitors would see us upon their return. Though the hotel had very few guests, the manager of the Motel 6 came running out of the building and began a confrontation about parking our car. We explained we were waiting for family to return from WalMart. He demanded to know their room number which we did not know but we provided a name. He then rudely declared he was going to check the name and have us towed if our relatives were not registered there. I was shocked to be treated this way and as our relatives pulled up and he turned abruptly without apology when he realized we were being truthful, I assured him I would never allow anyone else I knew to grace his property. The whole encounter so lacked any semblance of customer service, it has now biased me against the whole chain. Stay clear of this property at all costs!!! My relatives also shared their horror stories about check-in, trying to get clean towels, being harassed about if they had a pet (they did not), etc. No cheap room is worth the hostile staff attitude at this property.More</t>
   </si>
   <si>
+    <t>957kellyg</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r291598467-Motel_6_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -420,6 +456,9 @@
     <t>I'm just going to say very nasty people very rude. Not pet friendly people at all when I checked out the lady said you left your dog alone. I said I did she said I went in your room and you were not there but your dog was. so if you don't want people going in your room looking around don't stay there. I don't know about you but knowing people go in your room with out you there makes you wonder what else they may be doing.More</t>
   </si>
   <si>
+    <t>Superpeople</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r259614106-Motel_6_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -435,6 +474,9 @@
     <t>The room we stayed in  was clean and quiet.  It had a fresh smell, sheets and towels were in very good condition.  There were 3 pillows per person (with different thicknesses), very nice bedspread and curtains.  My wife and I got much needed good  restThe best Motel 6 I have stayed in.</t>
   </si>
   <si>
+    <t>Martin J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r252172248-Motel_6_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -454,6 +496,9 @@
   </si>
   <si>
     <t>I've stayed in some really nice hotel's around the country and surprisingly a few of them have been Motel 6's. Sadly, based on my room experience, this was not one of them. I would like to say that the owner and staff really are nice people and they certainly do try.Much to their credit the bathroom was exceptionally clean, as was the bedding and furniture but that's where it stopped being good. I had my dog with me (which was the reason for choosing Motel 6) and so obviously we were given a pet friendly room. The carpet stunk of stale urine and there were large stains on it where animals had used it as a toilet. We were also right next to the exit door which believe me, seemed to be as busy as Walmart at Christmas! There seemed to be rather a lot of nocturnal activity in the room above, so all the elements combined did not make for a nice, nor restful stay.It could be a really nice place if people were more respectful, the exit door had a much quieter mechanism and the carpet was given an intensely deep clean. Non pet rooms may be entirely different. More</t>
+  </si>
+  <si>
+    <t>manatee_zone</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r236826415-Motel_6_Weatherford-Weatherford_Texas.html</t>
@@ -486,6 +531,9 @@
 Overall this was not a good choice!!! Think twice before staying &amp; if you have any respiratory...We were traveling from TN (2 adults &amp; 1 child). We were exhausted to say the least. We searched the internet for a reasonable hotel in a close range from where we were fueling our SUV. We found this hotel &amp; the reviews weren't bad, the pics looked nice, &amp; the price was reasonable. The Good #1 Clean bathroom with hot water for showering. #2 Price was great.Problems #1 Bad Location...could see the hotel but was very difficult to access. #2 When my husband checked in the front desk said to access the hotel from the other end of the building because it was easier for us. Um no it was easier for front desk...he could keep the front locked up. We had to walk basically the entire length of the hotel to get to the elevator. #3 The entire hotel smelled of some insensse that absolutely was awful! I have asthma &amp; honestly it was difficult to breathe in. Took some getting use to &amp; your clothes smelled like it after you leave. #4 Our room was non-smoking...it reaked of cigerette smoke. #5 I question if our sheets were changed. It appeared to have been slept on. The other bed was fine. #6 The little digital TV box worked ok but the TV did not want to respond to our remote.Overall this was not a good choice!!! Think twice before staying &amp; if you have any respiratory issues I do not recommend.   More</t>
   </si>
   <si>
+    <t>Michael F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r222923189-Motel_6_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -504,6 +552,9 @@
     <t>September 2013</t>
   </si>
   <si>
+    <t>Tgeorgedpm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r220766308-Motel_6_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -519,6 +570,9 @@
     <t xml:space="preserve">I really enjoyed my stay in the hotel. My bed room and the bathroom was in excellent condition.  Everything about this hotel is excellent. The service I got was fantastic.  I also saw a wonderful outdoor swimming pool!!  I will come back to this hotel again with no hesitation.  </t>
   </si>
   <si>
+    <t>Bill_PT</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r217094876-Motel_6_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -540,6 +594,9 @@
     <t>I am a traveling medical professional &amp; when I received a 13 week contract at the local hospital, I contacted Bob, the owner &amp; proprietor, about lodging for that period.The rate was so reasonable that I did not look at any other motels or short term lease apartments.Bob &amp; his staff were great. The property is well kept &amp; very secure. At least 2 other guest were there on work contracts as long as mine or longer.  Both seemed happy w/ their accommodations.  My room was fine, not large,but comfortable w/ a flat scene TV, cable &amp; WiFi access, half size refrigerator w/ freezer compartment &amp; most important, a very comfortable queen size bed. The towels were changed every day &amp; the bed linens weekly.  The room was always clean &amp; quiet. As it turned out, I spent 20 weeks at the hospital. Thanks to everyone, the time flew by.If I am ever requested to return to Weatherford, I will be calling Bob &amp; his first thing!!More</t>
   </si>
   <si>
+    <t>Ruthann60</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r195671148-Motel_6_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -558,6 +615,9 @@
     <t>This is actually the 2nd time we have stayed there and oddly enough got the same room almost 1 year later. We we're very happy with the room, staff, service and cleanliness and it was the nicest motel 6 we have encountered. It had all the normal ammenities but did not offer even a continental breakfast.  However, they made up for it by offering a 15% discount to either waffle house or dennys, both close by. The price was reasonable and the bed was comfy. I must also mention my husband was excited to find it had night stands on BOTH sides of the bed as he is not usually able to beat me to the side with the handy stand...lol!More</t>
   </si>
   <si>
+    <t>Blaine91592</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r187401731-Motel_6_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -576,6 +636,9 @@
     <t>December 2013</t>
   </si>
   <si>
+    <t>Allen M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r185673029-Motel_6_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -594,6 +657,9 @@
     <t>November 2013</t>
   </si>
   <si>
+    <t>busybeez78</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r165133628-Motel_6_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -612,6 +678,9 @@
     <t>I usually go out of my way to stay @ Motel 6...they are reasonably priced &amp; allow pets. We were laid over Memorial Day weekend and decided to stay at the hotel. The first night everything was okay, the next day the maid did not exchange our dirty towels or collect our trash. I proceeded to do so and went to the front desk to inquire why. We were told that we did not receive maid service because of my 3 pound chihuahua (we were in the room &amp; would've kindly went outside). The next day we went outside and sat by the pool waiting for the maid to finish when the owner approaches us and tells me that I couldn't walk my dog on the property, I couldn't sit outside with her or allow her in my bed. So, I called the 800 number and made a complaint. Customer service must have called because while we were collecting our belongings to leave, the owner was phoning our room and his rude wife was telling us to get out. As we approached the desk the owner started raising his voice and telling us that this was a Democratic country and us Americans are stupid. He didn't realize that all the while he was screaming and beating his fist on the counter...I still had customer service on the line. I found his demeanor inappropriate and if they aren't a "pet friendly"...I usually go out of my way to stay @ Motel 6...they are reasonably priced &amp; allow pets. We were laid over Memorial Day weekend and decided to stay at the hotel. The first night everything was okay, the next day the maid did not exchange our dirty towels or collect our trash. I proceeded to do so and went to the front desk to inquire why. We were told that we did not receive maid service because of my 3 pound chihuahua (we were in the room &amp; would've kindly went outside). The next day we went outside and sat by the pool waiting for the maid to finish when the owner approaches us and tells me that I couldn't walk my dog on the property, I couldn't sit outside with her or allow her in my bed. So, I called the 800 number and made a complaint. Customer service must have called because while we were collecting our belongings to leave, the owner was phoning our room and his rude wife was telling us to get out. As we approached the desk the owner started raising his voice and telling us that this was a Democratic country and us Americans are stupid. He didn't realize that all the while he was screaming and beating his fist on the counter...I still had customer service on the line. I found his demeanor inappropriate and if they aren't a "pet friendly" motel they should not advertise to be. Nice rooms for the money, nice pool but horrible behavior from the owner.More</t>
   </si>
   <si>
+    <t>Steve T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r161440973-Motel_6_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -630,6 +699,9 @@
     <t>May 2013</t>
   </si>
   <si>
+    <t>blackdragon0510</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r156402059-Motel_6_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -645,6 +717,9 @@
     <t>I had called for a monthly rate and was quoted 700-750$ and when I went to get my room the manager told me that it would be $950 with a $200 deposit.  so I told him what I was quoted over the phone and he said "who told you that?" the lady that had was at the front desk and she said that she had given me that price so he told her that she "needs to learn our prices or leave" he was rude to me the customer and rude to his staff.</t>
   </si>
   <si>
+    <t>sika30</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r150631092-Motel_6_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -666,6 +741,9 @@
     <t>After a long day and a half of driving across country my husband and I decided to stop for the night.  We found a motel 6 through our gps and contacted them within 5 minutes of showing up.  This is a pet friendly, kid friendly hotel!  The team was polite and welcoming and quick to help get us into a room.  The room is huge for a 2 bed room with a very spacious bathroom.  It was very affordable (about 65 all inclusive to include wi-fi) and even had a mini fridge and microwave.  Very clean and we are very pleased we stopped!  Also, would like to note that upon getting on here to do a review, I checked the posted pictures and were pleased to see that they were really of the rooms they put you in and the current condition.  There also appears to be an outdoor pool.More</t>
   </si>
   <si>
+    <t>Blame13</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r146600384-Motel_6_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -681,6 +759,9 @@
     <t>Please read this and address this asap, tonight I got a	phone call from a most respected friend for a designated drive home so -i got a ride to pick her up , drove her safely to Motel 6 and paid for a room, all better right ? I called for a ride witch was 10 15 min away walked out side lit a cig feeling a	good deed - when the attendent told me you have 5 min to leave this property or the cops wil bel called, I told her my ride will b here in ten min, she said im calling the police</t>
   </si>
   <si>
+    <t>shelia L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r144772223-Motel_6_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -699,6 +780,9 @@
     <t>October 2012</t>
   </si>
   <si>
+    <t>Shelby F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r137945066-Motel_6_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -720,6 +804,9 @@
     <t>This is a three story, hotel style building. You may have to carry your luggage a ways, but hey, exercise is good after sitting in a car all day. The gentleman and his wife who seem to be in charge are lovely and helpful. The room is large, very clean and includes a mini refrigerator and a microwave. It is a smoking room, but there is no smell at all, and even though I smoke, I have a very good nose. The bathroom is well designed and large. It even had fancy folded washcloths along with a little bottle of shampoo, which I have not seen in a Motel 6 in quite a while. After a hideous stay in Midland, this was a very much appreciated relief. And as a woman I feel very safe with the inside hallways. And I love having a screened window that I can open safely three stories up. I would not hesitate to recommend this, even to those who usually pay twice as much at fancier places.More</t>
   </si>
   <si>
+    <t>Barbara H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r137212443-Motel_6_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -732,6 +819,9 @@
     <t>I had a very nice stay there and when I left I forgot a flower that I had gotten from the Billy Graham Library and had carried  with me for 5000 miles in three weeks. I was an hour away when I realized that I had left my plant in a water bottle in my room. For sure the maid would toss it. I pulled over and called and my little plant was safe in the hands of the front desk person. I drove back and my little plant was in excellent condition. Thank you</t>
   </si>
   <si>
+    <t>pucketts</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r135896954-Motel_6_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -747,6 +837,9 @@
     <t>Clean, comfortable and friendly. Very nice motel 6. I would  highly recommend this hotel for anyone traveling through the area. The price was very reasonable and everything exceeded my expectations. Will stay again!</t>
   </si>
   <si>
+    <t>Lavender2687</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r120215663-Motel_6_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -768,6 +861,9 @@
     <t>Normally we don't stay in Motel 6, but I read the reviews on this place and thought I'd give it a try.  We were greeted right away and with friendliness.  When booking online, it didn't give the option to add a discount, but Bob asked us if we had any discounts.  My husband showed him his military ID and he gave us the discount.  The hotel and room was clean and nice looking.  We had 2 queen beds which was comfortable.  I had some trouble getting connected to the internet, so Bob gave me some advice and asked me to let him know if everything was ok.  When it still wouldn't work, he asked me if I could bring the laptop to him.  He showed my husband and I how to fix the problem with ease. We then got to talking about other computer tips and he was very helpful.  He made sure everything was fine with the room.  The next morning I took a shower &amp; it was heaven - roomy &amp; great water pressure.   We were again greeted with friendliness with them making sure the room was good and if we needed anything else.More</t>
   </si>
   <si>
+    <t>pparmen</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r117823668-Motel_6_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -783,6 +879,9 @@
     <t>Very firm mattress, like sleeping box. Staff watching everything like you gona steal it, very uncomfortable atmosphere.</t>
   </si>
   <si>
+    <t>reboyrn12</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r115592377-Motel_6_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -804,6 +903,9 @@
     <t>I stayed at the Motel 6 in Weatherford to simply get away on the 18th of July which as my moms anniversary of her passing.  The staff I must admit was great, the hotel was very clean. not many people stayed on either the 18th or 19th yet all the same difference.  The only problem I had was the pricing which said on the Motel 6 board 32.99 or 35.99 , cant remember yet I was mis lead by the manager whom told me the first night it would be 52.88 plus tax for the hotel was booked solid so I paid it.  Later that evening around 9-10 p.m I had my dog and as I was taking him for a walk I noticed maybe 5-6 cars in the parking lot so I felt cheated and lied to.  The second night on July 19, 2011 I just was not thinking and let them get me again for 45.00 plus tax reasoning givin was because having a dog, mind you I had a mini schnauzer was more.  Well, I cant say anything bad about the hotel as it was clean, pool was nice but false advertising is to blame for this stay at the Motel 6 in Weatherford, Texas and I got a variety if reasons why the 32.95 or 35.95 rate did not apply, first it was thats for only people that stayed a week.  I called corporate and told...I stayed at the Motel 6 in Weatherford to simply get away on the 18th of July which as my moms anniversary of her passing.  The staff I must admit was great, the hotel was very clean. not many people stayed on either the 18th or 19th yet all the same difference.  The only problem I had was the pricing which said on the Motel 6 board 32.99 or 35.99 , cant remember yet I was mis lead by the manager whom told me the first night it would be 52.88 plus tax for the hotel was booked solid so I paid it.  Later that evening around 9-10 p.m I had my dog and as I was taking him for a walk I noticed maybe 5-6 cars in the parking lot so I felt cheated and lied to.  The second night on July 19, 2011 I just was not thinking and let them get me again for 45.00 plus tax reasoning givin was because having a dog, mind you I had a mini schnauzer was more.  Well, I cant say anything bad about the hotel as it was clean, pool was nice but false advertising is to blame for this stay at the Motel 6 in Weatherford, Texas and I got a variety if reasons why the 32.95 or 35.95 rate did not apply, first it was thats for only people that stayed a week.  I called corporate and told them that paying 111.00 for 2 nights at the Motel 6 ,which had not fridge,microwave,or hairdryer was price gaudging and as usual the manager has failed to get back to me and settle the difference .  In fact i looked up the exact same room I had and it was 36.99 on-line.  So, bottom line is hotel was clean but come to find out the owners were very dis honest and did not even try to make a effort to resolve this issue so I got duked..   But I have options and plan to use thm....False advertising can be pretty serious offence.  Just  Preceed with caution when it comes to paying for a simple ,basic, plain room.  This Motel 6 did not follow what Tom Bodite the spokesman on all the commercials stand for. And apparantly every guest is offered a discount coupon to one of the local breakfast restaraunts and not one time out of my two days there was I offered one.   And yes I cover my basis when it comes to making sure I have pictures and I took my pictures of room before I touched anything and of the sign that said 32.99 or 35.99, just cant remember.More</t>
   </si>
   <si>
+    <t>chawiian</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r113512083-Motel_6_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -819,6 +921,9 @@
     <t>June 2011</t>
   </si>
   <si>
+    <t>SeeingTheWorld701</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r113234259-Motel_6_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -834,6 +939,9 @@
     <t>When we travel, we look for clean, safe, moderate priced rooms.  This hotel is a well-managed, excellent value.  The room was very clean, the bed was comfortable with fresh, crisp sheets, the water pressure in the shower was good, and the air conditioner was cold.  There were plenty of pillows and towels and there was a microwave and small frig in the room.  We had a good night's sleep for ~$55.  In my book, that's about the best you can ask for.</t>
   </si>
   <si>
+    <t>mindfixation</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r110917109-Motel_6_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -852,6 +960,9 @@
     <t>We pulled in late the night we checked in.  The owner was at the desk when we came in.  We had spent a night in a horror Motel 6 a few nights before (literally had a bed and small tv).  After looking at TripAdvisor (they have a T.A sticker award on their entrance door), we decided to give M6 another shot.  We told the owner this and he was nothing but helpful and understanding.  Hr let us view a room before checking in.  The room was so clean, it had a fridge, microwave, a good sized desk, and a good sized tv.  This motel gave us hope in Motel 6s again!  The price was amazing, too.  43$ for a king bed.  If we have to drive back.through anytime, this is where we will be staying!!More</t>
   </si>
   <si>
+    <t>Daniel653</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r100886697-Motel_6_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -870,6 +981,9 @@
     <t>March 2011</t>
   </si>
   <si>
+    <t>pattyboutte</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r95422194-Motel_6_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -891,6 +1005,9 @@
     <t>I was enroute to Fl. from Co. in the nice ice storm and snow they got in Texas. On Feb 2nd, I was stranded on interstate 20 and managed to get a ride to the motel 6. Immediately upon my arrival, Bob the manager was very helpful at making me feel less streesed. He called a mechanic for me and my car was picked up within 45 minutes from the side of the interstate. On the 3rd, the mechanic was working on my car, and Bob took me to get some food at walmart and to the mechanics shop to get my bags. The hotel was very clean in all areas, and if EVER I get back this way, I would stay again, and will definitely tell all my traveling friends. Stay here. They make you feel so welcome.More</t>
   </si>
   <si>
+    <t>suzwil67</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r90475589-Motel_6_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -909,6 +1026,9 @@
     <t>December 2010</t>
   </si>
   <si>
+    <t>travelqueen45485</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r77231431-Motel_6_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -927,6 +1047,9 @@
     <t>August 2010</t>
   </si>
   <si>
+    <t>travellatin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r58852730-Motel_6_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -946,6 +1069,9 @@
   </si>
   <si>
     <t>About Weatherford, TX Motel 6: It is a terrific Motel 6. The owners are a personable couple. They are at the front desk throughout the day. The rooms are clean, no signs of bugs or funk. My room was large for a Motel 6 and had lots of convenient outlets. Strong WiFi is included in the room price. They take extra care in the housekeeping with cute folded towels in the bathroom. The A/C looks new and works well, with a thermostat. There is lots of cable and a 27" TV. The pool is a disappointment: basically a lap pool right next to the parking lot, but it was being cleaned by pool professionals while I stayed. I am female and felt extra safe because of the inner corridor and the owners on the premise.About Motel 6 (especially regarding Tennis Chick's review above): This chain is a national treasure. It enables me to travel far and wide without paying over $50 a night for lots of extras. Every Motel 6 is a budget motel. This is not a getaway place to stay. That is why they are able to keep the price so low. That means NO extras. No art on the wall, no clock, no closet, no coffee maker, hairdryer, etc. The linens are budget quality and there is no "free" breakfast. I hope more people will write reviews with that in mind.More</t>
+  </si>
+  <si>
+    <t>redbear1210</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r30414422-Motel_6_Weatherford-Weatherford_Texas.html</t>
@@ -1468,43 +1594,47 @@
       <c r="A2" t="n">
         <v>51771</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>10393</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="n">
         <v>3</v>
@@ -1524,50 +1654,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>51771</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>169505</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1581,50 +1715,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>51771</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>169506</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
         <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P4" t="n">
         <v>2</v>
@@ -1642,50 +1780,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>51771</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>6779</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="O5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1705,50 +1847,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>51771</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>169507</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="L6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="O6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P6" t="n">
         <v>5</v>
@@ -1768,50 +1914,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>51771</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>169508</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="J7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="L7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="O7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1825,50 +1975,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>51771</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>169509</v>
+      </c>
+      <c r="C8" t="s">
+        <v>94</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="J8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="K8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="L8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="O8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1886,50 +2040,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>51771</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>169510</v>
+      </c>
+      <c r="C9" t="s">
+        <v>101</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="J9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="K9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="L9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="O9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1943,50 +2101,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>51771</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>169511</v>
+      </c>
+      <c r="C10" t="s">
+        <v>109</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="J10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="K10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="L10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="O10" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="n">
@@ -2006,50 +2168,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>51771</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>169512</v>
+      </c>
+      <c r="C11" t="s">
+        <v>117</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="J11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="L11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="O11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P11" t="n">
         <v>1</v>
@@ -2065,56 +2231,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="X11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="Y11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>51771</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>5462</v>
+      </c>
+      <c r="C12" t="s">
+        <v>127</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="J12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="K12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="L12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="O12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2126,56 +2296,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="X12" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="Y12" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>51771</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>169513</v>
+      </c>
+      <c r="C13" t="s">
+        <v>137</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="J13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="K13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="L13" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="O13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2191,47 +2365,51 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="X13" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="Y13" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>51771</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>169514</v>
+      </c>
+      <c r="C14" t="s">
+        <v>146</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="J14" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="K14" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="L14" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
@@ -2260,50 +2438,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>51771</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>102031</v>
+      </c>
+      <c r="C15" t="s">
+        <v>152</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="J15" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="K15" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="L15" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="O15" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2317,41 +2499,45 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>51771</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>169515</v>
+      </c>
+      <c r="C16" t="s">
+        <v>160</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="J16" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="K16" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="L16" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="M16" t="n">
         <v>2</v>
@@ -2378,56 +2564,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="X16" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="Y16" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>51771</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>1950</v>
+      </c>
+      <c r="C17" t="s">
+        <v>169</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="J17" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="K17" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="L17" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="O17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
@@ -2447,41 +2637,45 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>51771</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>73401</v>
+      </c>
+      <c r="C18" t="s">
+        <v>176</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="J18" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="K18" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="L18" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
@@ -2510,50 +2704,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>51771</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>169516</v>
+      </c>
+      <c r="C19" t="s">
+        <v>182</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="J19" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="K19" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="L19" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="O19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
@@ -2571,41 +2769,45 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>51771</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>169517</v>
+      </c>
+      <c r="C20" t="s">
+        <v>190</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="J20" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="K20" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="L20" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
@@ -2634,50 +2836,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>51771</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>169518</v>
+      </c>
+      <c r="C21" t="s">
+        <v>197</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="J21" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="K21" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="L21" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="O21" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -2701,50 +2907,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>51771</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>32780</v>
+      </c>
+      <c r="C22" t="s">
+        <v>204</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="J22" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="K22" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="L22" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="O22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -2768,41 +2978,45 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>51771</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>169519</v>
+      </c>
+      <c r="C23" t="s">
+        <v>211</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="J23" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="K23" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="L23" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
@@ -2831,50 +3045,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>51771</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>7214</v>
+      </c>
+      <c r="C24" t="s">
+        <v>218</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="J24" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="K24" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="L24" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="O24" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -2898,41 +3116,45 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>51771</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>169520</v>
+      </c>
+      <c r="C25" t="s">
+        <v>225</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="J25" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="K25" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="L25" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="M25" t="n">
         <v>1</v>
@@ -2961,50 +3183,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>51771</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>169521</v>
+      </c>
+      <c r="C26" t="s">
+        <v>231</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="J26" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="K26" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="L26" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="O26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -3028,41 +3254,45 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>51771</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>169522</v>
+      </c>
+      <c r="C27" t="s">
+        <v>239</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="J27" t="s">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="K27" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="L27" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="M27" t="n">
         <v>1</v>
@@ -3091,50 +3321,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>51771</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>169523</v>
+      </c>
+      <c r="C28" t="s">
+        <v>245</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="J28" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="K28" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="L28" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="O28" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
@@ -3158,50 +3392,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>51771</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>53376</v>
+      </c>
+      <c r="C29" t="s">
+        <v>252</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="J29" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="K29" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="L29" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c r="O29" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
@@ -3225,50 +3463,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>51771</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>16229</v>
+      </c>
+      <c r="C30" t="s">
+        <v>260</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>232</v>
+        <v>261</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="J30" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="K30" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="L30" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c r="O30" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P30" t="n">
         <v>5</v>
@@ -3292,41 +3534,45 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>51771</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>169524</v>
+      </c>
+      <c r="C31" t="s">
+        <v>265</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="J31" t="s">
-        <v>238</v>
+        <v>268</v>
       </c>
       <c r="K31" t="s">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="L31" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
@@ -3355,50 +3601,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>51771</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>169525</v>
+      </c>
+      <c r="C32" t="s">
+        <v>271</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>241</v>
+        <v>272</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="J32" t="s">
-        <v>243</v>
+        <v>274</v>
       </c>
       <c r="K32" t="s">
-        <v>244</v>
+        <v>275</v>
       </c>
       <c r="L32" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
       <c r="O32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -3422,41 +3672,45 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>51771</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>169526</v>
+      </c>
+      <c r="C33" t="s">
+        <v>279</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>248</v>
+        <v>280</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>249</v>
+        <v>281</v>
       </c>
       <c r="J33" t="s">
-        <v>250</v>
+        <v>282</v>
       </c>
       <c r="K33" t="s">
-        <v>251</v>
+        <v>283</v>
       </c>
       <c r="L33" t="s">
-        <v>252</v>
+        <v>284</v>
       </c>
       <c r="M33" t="n">
         <v>2</v>
@@ -3485,50 +3739,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>252</v>
+        <v>284</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>51771</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>169527</v>
+      </c>
+      <c r="C34" t="s">
+        <v>285</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>253</v>
+        <v>286</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>254</v>
+        <v>287</v>
       </c>
       <c r="J34" t="s">
-        <v>255</v>
+        <v>288</v>
       </c>
       <c r="K34" t="s">
-        <v>256</v>
+        <v>289</v>
       </c>
       <c r="L34" t="s">
-        <v>257</v>
+        <v>290</v>
       </c>
       <c r="M34" t="n">
         <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>258</v>
+        <v>291</v>
       </c>
       <c r="O34" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P34" t="n">
         <v>1</v>
@@ -3548,50 +3806,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>259</v>
+        <v>292</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>51771</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>169528</v>
+      </c>
+      <c r="C35" t="s">
+        <v>293</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>260</v>
+        <v>294</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>261</v>
+        <v>295</v>
       </c>
       <c r="J35" t="s">
-        <v>262</v>
+        <v>296</v>
       </c>
       <c r="K35" t="s">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="L35" t="s">
-        <v>263</v>
+        <v>297</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>264</v>
+        <v>298</v>
       </c>
       <c r="O35" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
@@ -3615,50 +3877,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>263</v>
+        <v>297</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>51771</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>169529</v>
+      </c>
+      <c r="C36" t="s">
+        <v>299</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>265</v>
+        <v>300</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
       <c r="J36" t="s">
-        <v>267</v>
+        <v>302</v>
       </c>
       <c r="K36" t="s">
-        <v>268</v>
+        <v>303</v>
       </c>
       <c r="L36" t="s">
-        <v>269</v>
+        <v>304</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>264</v>
+        <v>298</v>
       </c>
       <c r="O36" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
@@ -3682,41 +3948,45 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>269</v>
+        <v>304</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>51771</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>169530</v>
+      </c>
+      <c r="C37" t="s">
+        <v>305</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>270</v>
+        <v>306</v>
       </c>
       <c r="G37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>271</v>
+        <v>307</v>
       </c>
       <c r="J37" t="s">
-        <v>272</v>
+        <v>308</v>
       </c>
       <c r="K37" t="s">
-        <v>273</v>
+        <v>309</v>
       </c>
       <c r="L37" t="s">
-        <v>274</v>
+        <v>310</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
@@ -3745,50 +4015,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>275</v>
+        <v>311</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>51771</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>169531</v>
+      </c>
+      <c r="C38" t="s">
+        <v>312</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c r="G38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c r="J38" t="s">
-        <v>278</v>
+        <v>315</v>
       </c>
       <c r="K38" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="L38" t="s">
-        <v>280</v>
+        <v>317</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>281</v>
+        <v>318</v>
       </c>
       <c r="O38" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -3812,50 +4086,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>280</v>
+        <v>317</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>51771</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>169532</v>
+      </c>
+      <c r="C39" t="s">
+        <v>319</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="G39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>283</v>
+        <v>321</v>
       </c>
       <c r="J39" t="s">
-        <v>284</v>
+        <v>322</v>
       </c>
       <c r="K39" t="s">
-        <v>285</v>
+        <v>323</v>
       </c>
       <c r="L39" t="s">
-        <v>286</v>
+        <v>324</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>287</v>
+        <v>325</v>
       </c>
       <c r="O39" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P39" t="n">
         <v>5</v>
@@ -3879,50 +4157,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>288</v>
+        <v>326</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>51771</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>169533</v>
+      </c>
+      <c r="C40" t="s">
+        <v>327</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>289</v>
+        <v>328</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>290</v>
+        <v>329</v>
       </c>
       <c r="J40" t="s">
-        <v>291</v>
+        <v>330</v>
       </c>
       <c r="K40" t="s">
-        <v>292</v>
+        <v>331</v>
       </c>
       <c r="L40" t="s">
-        <v>293</v>
+        <v>332</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>294</v>
+        <v>333</v>
       </c>
       <c r="O40" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -3946,50 +4228,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>293</v>
+        <v>332</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>51771</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>169534</v>
+      </c>
+      <c r="C41" t="s">
+        <v>334</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>295</v>
+        <v>335</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>296</v>
+        <v>336</v>
       </c>
       <c r="J41" t="s">
-        <v>297</v>
+        <v>337</v>
       </c>
       <c r="K41" t="s">
-        <v>298</v>
+        <v>338</v>
       </c>
       <c r="L41" t="s">
-        <v>299</v>
+        <v>339</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="O41" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -4013,50 +4299,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>299</v>
+        <v>339</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>51771</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>169535</v>
+      </c>
+      <c r="C42" t="s">
+        <v>341</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>301</v>
+        <v>342</v>
       </c>
       <c r="G42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>302</v>
+        <v>343</v>
       </c>
       <c r="J42" t="s">
-        <v>303</v>
+        <v>344</v>
       </c>
       <c r="K42" t="s">
-        <v>304</v>
+        <v>345</v>
       </c>
       <c r="L42" t="s">
-        <v>305</v>
+        <v>346</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>306</v>
+        <v>347</v>
       </c>
       <c r="O42" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -4080,50 +4370,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>307</v>
+        <v>348</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>51771</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>169536</v>
+      </c>
+      <c r="C43" t="s">
+        <v>349</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>308</v>
+        <v>350</v>
       </c>
       <c r="G43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>309</v>
+        <v>351</v>
       </c>
       <c r="J43" t="s">
-        <v>310</v>
+        <v>352</v>
       </c>
       <c r="K43" t="s">
-        <v>311</v>
+        <v>353</v>
       </c>
       <c r="L43" t="s">
-        <v>312</v>
+        <v>354</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>313</v>
+        <v>355</v>
       </c>
       <c r="O43" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -4147,7 +4441,7 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>312</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_599.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_599.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="516">
   <si>
     <t>STR#</t>
   </si>
@@ -147,21 +147,135 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Amy L</t>
-  </si>
-  <si>
-    <t>06/15/2018</t>
+    <t>08/26/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r600879166-Motel_6_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>56854</t>
+  </si>
+  <si>
+    <t>285820</t>
+  </si>
+  <si>
+    <t>600879166</t>
+  </si>
+  <si>
+    <t>07/29/2018</t>
+  </si>
+  <si>
+    <t>My new place to stay.</t>
+  </si>
+  <si>
+    <t>We have family in Weatherford that we like to come visit but they have cats (I'm Allergic) and sleeping at their house was always difficult for me so finding a place to stay in town was on my to-do list.  Looking around town there are several places to choose from right off the interstate but in terms of budget this Motel 6 has them beat without any drawbacks.  They've got comfortable rooms, a pool and very friendly staff.  They've got smoking and non smoking rooms as well so everyone can be accommodated. There are vending machines that have snacks, drinks and toiletries in case you forgot anything,  Don't know what else to say aside from I'll be coming back.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>We have family in Weatherford that we like to come visit but they have cats (I'm Allergic) and sleeping at their house was always difficult for me so finding a place to stay in town was on my to-do list.  Looking around town there are several places to choose from right off the interstate but in terms of budget this Motel 6 has them beat without any drawbacks.  They've got comfortable rooms, a pool and very friendly staff.  They've got smoking and non smoking rooms as well so everyone can be accommodated. There are vending machines that have snacks, drinks and toiletries in case you forgot anything,  Don't know what else to say aside from I'll be coming back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r593061212-Motel_6_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>593061212</t>
+  </si>
+  <si>
+    <t>07/04/2018</t>
+  </si>
+  <si>
+    <t>Wonderful experience</t>
+  </si>
+  <si>
+    <t>We have stayed at Motel 6 Weatherford TX for several weeks. The motel is great and the staff is the best I have ever experienced. From the front desk staff, to housekeeping, to the awesome General Manager Bob. They have been excellent. We could not have asked for better. I highly recommend Motel 6 Weatherford for an amazing, pleasant stay. A++++. Thank you to everyone here for making us feel right at home. Much appreciation, Jason and Kristi Dubberly</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r593052574-Motel_6_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>593052574</t>
+  </si>
+  <si>
+    <t>Excellent motel, fantastic bargin</t>
+  </si>
+  <si>
+    <t>The room was large &amp; well appointed, the staff was very friendly &amp; courteous.  Nice pool outside, quiet area.   Only issue, when we arrived we were told the maximum size dog they allow was 50 lbs.  Ours was 65 lbs, but they decided to allow us to have her stay.  There was nothing on their site restricting dog size.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r589062790-Motel_6_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>589062790</t>
+  </si>
+  <si>
+    <t>06/19/2018</t>
+  </si>
+  <si>
+    <t>Very Pleased</t>
+  </si>
+  <si>
+    <t>I have been staying at this motel for several years now. I commute from the West Texas Oilfields to Benton, LA once a month and try to break up my trip with an overnight at the Motel 6 in Weatherford. The staff is professional, the rooms are always clean and comfortable. I would recommend this motel highly.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r588661017-Motel_6_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>588661017</t>
+  </si>
+  <si>
+    <t>06/18/2018</t>
+  </si>
+  <si>
+    <t>Belligerent Management</t>
+  </si>
+  <si>
+    <t>I had a credit card reservation and tried to check in after driving 500 miles. I chose this place because it is listed as "pet friendly" all over the internet. Bob became hostile with me when I told him I had two small dogs and accused me of being dishonest about having more than one dog. When I tried to explain the Motel 6 web site only has a check box for "Traveling with pets— Maximum of two (2) per room," he further accused me of making disparaging comments about his skin color (huh?), and refused to honor my reservation. Of course this was a bold faced lie, as that is something I would never even think about doing. So here I was with my two dogs, almost 600 miles from home, and no where to stay for the night.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team at Motel 6 Weatherford, responded to this reviewResponded June 20, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 20, 2018</t>
+  </si>
+  <si>
+    <t>I had a credit card reservation and tried to check in after driving 500 miles. I chose this place because it is listed as "pet friendly" all over the internet. Bob became hostile with me when I told him I had two small dogs and accused me of being dishonest about having more than one dog. When I tried to explain the Motel 6 web site only has a check box for "Traveling with pets— Maximum of two (2) per room," he further accused me of making disparaging comments about his skin color (huh?), and refused to honor my reservation. Of course this was a bold faced lie, as that is something I would never even think about doing. So here I was with my two dogs, almost 600 miles from home, and no where to stay for the night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r586730792-Motel_6_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>586730792</t>
+  </si>
+  <si>
+    <t>06/11/2018</t>
+  </si>
+  <si>
+    <t>Surprisingly pleased</t>
+  </si>
+  <si>
+    <t>My husband and I drove to Weatherford for my son's 30th birthday party from Houston. We didn't have a lot of money to spare so we chose this hotel because the rates were lower. We were happy with both the room and friendly service. The parking lot seemed secure and they took our car info. Our room was clean, WiFi was free, and the bed was comfy. We had free hot coffee the next morning and were  offered coupons for nearby restaurants. We didn't have pets but the manager said they loved pets. You might want to specify a quite room. We were very near lobby and there was some noise.MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband and I drove to Weatherford for my son's 30th birthday party from Houston. We didn't have a lot of money to spare so we chose this hotel because the rates were lower. We were happy with both the room and friendly service. The parking lot seemed secure and they took our car info. Our room was clean, WiFi was free, and the bed was comfy. We had free hot coffee the next morning and were  offered coupons for nearby restaurants. We didn't have pets but the manager said they loved pets. You might want to specify a quite room. We were very near lobby and there was some noise.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r577084540-Motel_6_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
-    <t>56854</t>
-  </si>
-  <si>
-    <t>285820</t>
-  </si>
-  <si>
     <t>577084540</t>
   </si>
   <si>
@@ -177,12 +291,6 @@
     <t>April 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>pilotgirl6720</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r533678095-Motel_6_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -201,15 +309,9 @@
     <t>October 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>Hi. Pilot car girl review. I stay in a lot of motels due to my job and I must say that I was very pleased with this Motel 6. The rooms as well as the outside around the motel are very well kept. A big thing to me is that this motel has NO BUGS. Our room was very nice and very clean. Upon checking in we had to give a lot of information but that’s ok and everything was well explained to us. They do have security monitors for the parking area and do take all info about our vehicles and that’s also good so not just anybody can park there and possibly vandalize a vehicle. I do have 2 service dogs which was not a problem but I would like to see a small grassy area in the back for dogs since we could not get in the grass. Overall this motel has definitely passed my review. It is obvious that the staff at this motel do their job. I have no complaints about this Motel 6!More</t>
   </si>
   <si>
-    <t>josemonterr</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r516489853-Motel_6_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -231,7 +333,46 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
-    <t>John R</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r488876319-Motel_6_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>488876319</t>
+  </si>
+  <si>
+    <t>05/29/2017</t>
+  </si>
+  <si>
+    <t>Worst Motel EVER!</t>
+  </si>
+  <si>
+    <t>I arrived at the motel to find I had been given a smoking room even though I had booked a non smoking room. Being too exhausted from working outside all day, I just stayed. I found there was only a small bar of soap, no shampoo or conditioner. The toilet ran continuously and I found the microwave didn't work. I had to turn off the water valve to the toilet to stop the noise. I told the front desk about the problems the next morning but when I returned exhausted from working outside in 90 degree heat all day, I found nothing was repaired and the room hadn't even been cleaned!When I called the desk to complain I was told there was nothing to do except change rooms. Being exhausted, I just stayed. I awoke the next morning and found a water leak from the ceiling soaking the foot of the bed!When I checked out of this nightmare, I told the manager I wasn't paying for an uncleaned room with broken equipment and a leaking ceiling. He informed me I had prepaid for the room so there was nothing he could do. He refused to issue a refund. I informed him thanks for nothing and told him i would post the most negative review I could and left in disgust.WARNING; STAY AWAY FROM THIS TERRIBLE PLACE!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>I arrived at the motel to find I had been given a smoking room even though I had booked a non smoking room. Being too exhausted from working outside all day, I just stayed. I found there was only a small bar of soap, no shampoo or conditioner. The toilet ran continuously and I found the microwave didn't work. I had to turn off the water valve to the toilet to stop the noise. I told the front desk about the problems the next morning but when I returned exhausted from working outside in 90 degree heat all day, I found nothing was repaired and the room hadn't even been cleaned!When I called the desk to complain I was told there was nothing to do except change rooms. Being exhausted, I just stayed. I awoke the next morning and found a water leak from the ceiling soaking the foot of the bed!When I checked out of this nightmare, I told the manager I wasn't paying for an uncleaned room with broken equipment and a leaking ceiling. He informed me I had prepaid for the room so there was nothing he could do. He refused to issue a refund. I informed him thanks for nothing and told him i would post the most negative review I could and left in disgust.WARNING; STAY AWAY FROM THIS TERRIBLE PLACE!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r452241389-Motel_6_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>452241389</t>
+  </si>
+  <si>
+    <t>01/15/2017</t>
+  </si>
+  <si>
+    <t>Tried to take advantage of me</t>
+  </si>
+  <si>
+    <t>I booked this hotel online and paid for the room in full. They called to confirm and I told them I was on the way. When we arrived they said they didn't  have anymore king rooms and would have to put us in a double queen. I said this was fine until he tried to charge us extra. I explained that I booked the king at the rate they has online and I confirmed my reservation less than 30 min. prior. He yelled at me and told me to go somewhere else cause he was refusing my service. I have bad anxiety and do not handle confrontation well.  He caused me to have an anxiety attack when he yelled at me. I'm going to persue this further. It was the worst hotel experience ever.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>I booked this hotel online and paid for the room in full. They called to confirm and I told them I was on the way. When we arrived they said they didn't  have anymore king rooms and would have to put us in a double queen. I said this was fine until he tried to charge us extra. I explained that I booked the king at the rate they has online and I confirmed my reservation less than 30 min. prior. He yelled at me and told me to go somewhere else cause he was refusing my service. I have bad anxiety and do not handle confrontation well.  He caused me to have an anxiety attack when he yelled at me. I'm going to persue this further. It was the worst hotel experience ever.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r416958636-Motel_6_Weatherford-Weatherford_Texas.html</t>
@@ -252,9 +393,6 @@
     <t>September 2016</t>
   </si>
   <si>
-    <t>TallTexWally</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r415081306-Motel_6_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -273,15 +411,9 @@
     <t>June 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>This Motel 6 has a newer design than their older locations, and it's surrounded by other motels, just south of I - 20 at exit 408.  Check in was easy, and my room was comfortable and clean.  I got a good night's sleep.  I like how there are many stores and restaurants nearby.  I also like how Weatherford is not in the middle of the hustle and bustle of Fort Worth and Dallas.  It was a perfect place to spend the night, and then continue heading west on I - 20 the next morning.  I've stayed at many Motel 6 locations through the years and to me this is one of their better motels.  I would definitely stay here again the next time I'm traveling west on I - 20.More</t>
   </si>
   <si>
-    <t>Mark672</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r397741737-Motel_6_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -300,7 +432,43 @@
     <t>July 2016</t>
   </si>
   <si>
-    <t>45ronaldd</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r384446945-Motel_6_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>384446945</t>
+  </si>
+  <si>
+    <t>06/20/2016</t>
+  </si>
+  <si>
+    <t>Basic but adequate</t>
+  </si>
+  <si>
+    <t>I needed a convenient place to stay for a night. The motel is just off Interstate 20 and within easy walking or driving distance to many eateries. There is also A Target about a quarter mile away--good for groceries or other supplies.The motel rooms are plain and basic. The air conditioning worked at night but took some time to cool the room. The room was warm during the afternoon and early evening and difficult to cool. (The outdoor temperature was in the 90s.) The ice machine on my floor was out of order. There's not much to do at the motel but it works as a stopover en route to elsewhere.MoreShow less</t>
+  </si>
+  <si>
+    <t>I needed a convenient place to stay for a night. The motel is just off Interstate 20 and within easy walking or driving distance to many eateries. There is also A Target about a quarter mile away--good for groceries or other supplies.The motel rooms are plain and basic. The air conditioning worked at night but took some time to cool the room. The room was warm during the afternoon and early evening and difficult to cool. (The outdoor temperature was in the 90s.) The ice machine on my floor was out of order. There's not much to do at the motel but it works as a stopover en route to elsewhere.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r375612898-Motel_6_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>375612898</t>
+  </si>
+  <si>
+    <t>05/22/2016</t>
+  </si>
+  <si>
+    <t>Worst customer service I've ever received.</t>
+  </si>
+  <si>
+    <t>Motel 6 at this property shows the rooms with refrigerator and microwave in the rooms.  That was not the case.  There were fewer 12 cars in the parking lot at 10 pm.  We asked for a micro and refrig be sent to our room or offered to change rooms.  Was told they would "see if I can find one", but received no communication after that.  Thinking I might have better luck with the Proprietor, the next day I went down to the office. I repeated my request and offer to switch rooms if needed.  He was visibly upset curtly replying "We only have a few.  You room doesn't have one."  I told him again that I would be willing to switch rooms (we were scheduled to stay 4 nights).  He responded with "We are booked full"  I knew this was a lie because just prior to going to the office, I had checked their website to ensure that they had other rooms available for the period of my stay. Then, he turned around and went through a door in the office and did not come back out while I waited there some 6 or 7 minutes.  Telling myself he was probably working on my request after all, I finally went back to my room.  About 9pm that evening, with still no communication from the office, my son called down to enquire about the status of our request (He's 38).  The...Motel 6 at this property shows the rooms with refrigerator and microwave in the rooms.  That was not the case.  There were fewer 12 cars in the parking lot at 10 pm.  We asked for a micro and refrig be sent to our room or offered to change rooms.  Was told they would "see if I can find one", but received no communication after that.  Thinking I might have better luck with the Proprietor, the next day I went down to the office. I repeated my request and offer to switch rooms if needed.  He was visibly upset curtly replying "We only have a few.  You room doesn't have one."  I told him again that I would be willing to switch rooms (we were scheduled to stay 4 nights).  He responded with "We are booked full"  I knew this was a lie because just prior to going to the office, I had checked their website to ensure that they had other rooms available for the period of my stay. Then, he turned around and went through a door in the office and did not come back out while I waited there some 6 or 7 minutes.  Telling myself he was probably working on my request after all, I finally went back to my room.  About 9pm that evening, with still no communication from the office, my son called down to enquire about the status of our request (He's 38).  The same gentleman answered the phone.  Upon hearing my son's polite query, the Proprietor responded with "Quit bothering me about that!" followed immediately with a dial tone.  I called back promptly and informed the front desk that we would be checking out the following morning.  I'm an understanding individual.  I understand that the Proprietor at the Motel 6 in Weatherford, TX has absolutely no business in the Hospitality industry.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Motel 6 at this property shows the rooms with refrigerator and microwave in the rooms.  That was not the case.  There were fewer 12 cars in the parking lot at 10 pm.  We asked for a micro and refrig be sent to our room or offered to change rooms.  Was told they would "see if I can find one", but received no communication after that.  Thinking I might have better luck with the Proprietor, the next day I went down to the office. I repeated my request and offer to switch rooms if needed.  He was visibly upset curtly replying "We only have a few.  You room doesn't have one."  I told him again that I would be willing to switch rooms (we were scheduled to stay 4 nights).  He responded with "We are booked full"  I knew this was a lie because just prior to going to the office, I had checked their website to ensure that they had other rooms available for the period of my stay. Then, he turned around and went through a door in the office and did not come back out while I waited there some 6 or 7 minutes.  Telling myself he was probably working on my request after all, I finally went back to my room.  About 9pm that evening, with still no communication from the office, my son called down to enquire about the status of our request (He's 38).  The...Motel 6 at this property shows the rooms with refrigerator and microwave in the rooms.  That was not the case.  There were fewer 12 cars in the parking lot at 10 pm.  We asked for a micro and refrig be sent to our room or offered to change rooms.  Was told they would "see if I can find one", but received no communication after that.  Thinking I might have better luck with the Proprietor, the next day I went down to the office. I repeated my request and offer to switch rooms if needed.  He was visibly upset curtly replying "We only have a few.  You room doesn't have one."  I told him again that I would be willing to switch rooms (we were scheduled to stay 4 nights).  He responded with "We are booked full"  I knew this was a lie because just prior to going to the office, I had checked their website to ensure that they had other rooms available for the period of my stay. Then, he turned around and went through a door in the office and did not come back out while I waited there some 6 or 7 minutes.  Telling myself he was probably working on my request after all, I finally went back to my room.  About 9pm that evening, with still no communication from the office, my son called down to enquire about the status of our request (He's 38).  The same gentleman answered the phone.  Upon hearing my son's polite query, the Proprietor responded with "Quit bothering me about that!" followed immediately with a dial tone.  I called back promptly and informed the front desk that we would be checking out the following morning.  I'm an understanding individual.  I understand that the Proprietor at the Motel 6 in Weatherford, TX has absolutely no business in the Hospitality industry.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r346383227-Motel_6_Weatherford-Weatherford_Texas.html</t>
@@ -321,9 +489,6 @@
     <t>February 2016</t>
   </si>
   <si>
-    <t>Jamie32737</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r339057802-Motel_6_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -345,9 +510,6 @@
     <t>We stopped here because we thought Motel 6 was "Pet friendly" but not this place. I was traveling with my Shitzu and when I walked into the lobby with her, the desk clerk quickly told me that I wasn"t allowed to bring my dog inside the lobby even though I was holding her. The clerk then went on to give us detailed instructions that the dog wasn't allowed to walk on the carpeted hallway to the room, not allowed to bark and we could only enter the motel from the back if we had our dog with us which was anytime we left the room because we weren't allowed to leave our dog in the room for any reason. We were also told that we had to have the room inspected before we checked out. Oh, and one last thing, we did check out after walking into the room because it looked like someone took a razor blade and slashed the blanket which was exposed when we walked in the room.I don't know who runs this place but it should be called MOTEL 86.More</t>
   </si>
   <si>
-    <t>doowell68</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r322878911-Motel_6_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -369,7 +531,46 @@
     <t>I needed a quick and last minute get-a-way to get some much need rest and intense studying done. I basically just pointed my finger, made the reservation and hoped for the best. To my surprise, it was just what the Dr. ordered. It wasn't fancy or 5 star quality, but it was nice, clean, and had a very friendly atmosphere. There were plenty other hotels around I could've chosen, but this was a solo trip, not a vacation, so it was just right for me. The staff were very nice and courteous. I had my DO NOT DISTURB sign up the whole weekend, and no one bothered me at all. I left my room to get something to eat, the housekeeper saw me and still asked if everything was ok and if I needed anything. I thought that was awesome. On the 2nd night, some young men were right outside of my window playing ball. I thought it was going to be a problem, but by the time it got dark, they had stopped. Again, if you just need a quiet get-a-way, don't have a lot of money, need peace and quiet, and not too concerned with 5 star luxury, then this is the place to go.More</t>
   </si>
   <si>
-    <t>brittany g</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r315228255-Motel_6_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>315228255</t>
+  </si>
+  <si>
+    <t>09/30/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No hot water </t>
+  </si>
+  <si>
+    <t>This appeared to be a great room, it was clean and had a refrigerator, a microwave , big TV, quiet smelled clean, but the next morning when taking a shower realized there was no hot water.  We needed to hit road before traffic got heavy which didn't allow us time to seek a remedy to the cold shower.   I informed the clerk when we were leaving and she stated the hot arrow was for the cold and the cold was for the hot.   The plumbers put the fixture in backward.   I think that is vital information when renting a room and expecting a warm shower before checking out. I have to say that the room was wonderful, aside from a cold shower. MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>6Team, brand expericened team member at Motel 6 Weatherford, responded to this reviewResponded October 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 2, 2015</t>
+  </si>
+  <si>
+    <t>This appeared to be a great room, it was clean and had a refrigerator, a microwave , big TV, quiet smelled clean, but the next morning when taking a shower realized there was no hot water.  We needed to hit road before traffic got heavy which didn't allow us time to seek a remedy to the cold shower.   I informed the clerk when we were leaving and she stated the hot arrow was for the cold and the cold was for the hot.   The plumbers put the fixture in backward.   I think that is vital information when renting a room and expecting a warm shower before checking out. I have to say that the room was wonderful, aside from a cold shower. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r311896287-Motel_6_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>311896287</t>
+  </si>
+  <si>
+    <t>09/19/2015</t>
+  </si>
+  <si>
+    <t>Excellent service</t>
+  </si>
+  <si>
+    <t>We were very pleased with the politeness of the staff.  They made sure all was fine as we came and went.  The room was very clean, beds were amazingly comfy and all was good.  We had NO issues at all.  Also, rooms size was very good.  The manager was so kind as well.  I give Motel 6, Weatherford, TX, FIVE STARS!  I have stayed at higher end hotels that were not nearly as nice.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r304317850-Motel_6_Weatherford-Weatherford_Texas.html</t>
@@ -399,9 +600,6 @@
     <t>they discrimation against people pets ect and service dogs called to reserve a room smking room w service dog was told by angels they had no dog room [motel 6 says they do]was then told by angela they did not have a smking pet room switch her story ya motel 6 says they do ya they do not need to b a motel 6 the people are rude have them in a lawsuit my goal is for them to loose the motel 6/property bob and angela are very rude  made my resavation by wrong name so id have trouble at check in looser people called to switch resavation to smking room whitch they have was told by bob comp were down for hours call bk 5 hrs later get ur lazy butt out of bed and do ur job indain place smells bugs ect just like the reveiws say motel 6 need to take this property away well see what jerome black distric  mananger says about this to since he a good friend ya my stay will b e free just to prove a point and out of coursty to jerome but my lawer will be on this trip w me yaMore</t>
   </si>
   <si>
-    <t>Lisa G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r292798101-Motel_6_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -429,9 +627,6 @@
     <t>My brother-in-law, his wife, and son from Iowa checked into the Weatherford Motel 6 on July 25 for two nights. On the second night they were there my husband, son, and I took two vehicles to pick our kinfolk up. My son planned to take his cousin to play mini-golf while the adults went with us to grab a soft drink somewhere. The visitors had made a quick run to the nearby Wal-Mart, so we attempted to get parked in a location where our visitors would see us upon their return. Though the hotel had very few guests, the manager of the Motel 6 came running out of the building and began a confrontation about parking our car. We explained we were waiting for family to return from WalMart. He demanded to know their room number which we did not know but we provided a name. He then rudely declared he was going to check the name and have us towed if our relatives were not registered there. I was shocked to be treated this way and as our relatives pulled up and he turned abruptly without apology when he realized we were being truthful, I assured him I would never allow anyone else I knew to grace his property. The whole encounter so lacked any semblance of customer service, it has now biased me against the whole chain. Stay clear of this property at all costs!!! My relatives also...My brother-in-law, his wife, and son from Iowa checked into the Weatherford Motel 6 on July 25 for two nights. On the second night they were there my husband, son, and I took two vehicles to pick our kinfolk up. My son planned to take his cousin to play mini-golf while the adults went with us to grab a soft drink somewhere. The visitors had made a quick run to the nearby Wal-Mart, so we attempted to get parked in a location where our visitors would see us upon their return. Though the hotel had very few guests, the manager of the Motel 6 came running out of the building and began a confrontation about parking our car. We explained we were waiting for family to return from WalMart. He demanded to know their room number which we did not know but we provided a name. He then rudely declared he was going to check the name and have us towed if our relatives were not registered there. I was shocked to be treated this way and as our relatives pulled up and he turned abruptly without apology when he realized we were being truthful, I assured him I would never allow anyone else I knew to grace his property. The whole encounter so lacked any semblance of customer service, it has now biased me against the whole chain. Stay clear of this property at all costs!!! My relatives also shared their horror stories about check-in, trying to get clean towels, being harassed about if they had a pet (they did not), etc. No cheap room is worth the hostile staff attitude at this property.More</t>
   </si>
   <si>
-    <t>957kellyg</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r291598467-Motel_6_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -456,7 +651,52 @@
     <t>I'm just going to say very nasty people very rude. Not pet friendly people at all when I checked out the lady said you left your dog alone. I said I did she said I went in your room and you were not there but your dog was. so if you don't want people going in your room looking around don't stay there. I don't know about you but knowing people go in your room with out you there makes you wonder what else they may be doing.More</t>
   </si>
   <si>
-    <t>Superpeople</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r284602821-Motel_6_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>284602821</t>
+  </si>
+  <si>
+    <t>06/30/2015</t>
+  </si>
+  <si>
+    <t>Amazing People</t>
+  </si>
+  <si>
+    <t>We came to town for a birthday party, however our trip turned into a tragedy and ended with the death of a loved one.  The staff was amazing!  I will be eternally grateful for their kindness and generosity. I will definitely return when I am in the area.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r265581505-Motel_6_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>265581505</t>
+  </si>
+  <si>
+    <t>04/13/2015</t>
+  </si>
+  <si>
+    <t>Definitely NOT Dog Friendly!!</t>
+  </si>
+  <si>
+    <t>When I travel, I intentionally choose Motel 6 because they are "dog friendly".  I have NEVER had a problem staying at a Motel 6 with my dogs until I stayed here.  I followed ALL of the rules of where to walk my dogs, picked up after them, and went beyond the rules as my dogs slept in crates.  When we got there, we were "stalked" by the staff on our arrival.  The desk clerk on duty intentionally came down the hall as we were unloading our bags and insisted on showing us the room.  Very strange.  She opened the door and made the comment "Oh it smells like a dog was already in this room."  When we checked out , the manager rudely accused me of letting the dog poop in the room which it did not as they were in crates and then on leash to be walked outside.  He came to inspect the perfectly clean room, even pulling back the sheets, before I was able to get my receipt!!  VERY disappointed as to how we were treated.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Weatherford, responded to this reviewResponded April 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 22, 2015</t>
+  </si>
+  <si>
+    <t>When I travel, I intentionally choose Motel 6 because they are "dog friendly".  I have NEVER had a problem staying at a Motel 6 with my dogs until I stayed here.  I followed ALL of the rules of where to walk my dogs, picked up after them, and went beyond the rules as my dogs slept in crates.  When we got there, we were "stalked" by the staff on our arrival.  The desk clerk on duty intentionally came down the hall as we were unloading our bags and insisted on showing us the room.  Very strange.  She opened the door and made the comment "Oh it smells like a dog was already in this room."  When we checked out , the manager rudely accused me of letting the dog poop in the room which it did not as they were in crates and then on leash to be walked outside.  He came to inspect the perfectly clean room, even pulling back the sheets, before I was able to get my receipt!!  VERY disappointed as to how we were treated.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r259614106-Motel_6_Weatherford-Weatherford_Texas.html</t>
@@ -474,9 +714,6 @@
     <t>The room we stayed in  was clean and quiet.  It had a fresh smell, sheets and towels were in very good condition.  There were 3 pillows per person (with different thicknesses), very nice bedspread and curtains.  My wife and I got much needed good  restThe best Motel 6 I have stayed in.</t>
   </si>
   <si>
-    <t>Martin J</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r252172248-Motel_6_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -496,9 +733,6 @@
   </si>
   <si>
     <t>I've stayed in some really nice hotel's around the country and surprisingly a few of them have been Motel 6's. Sadly, based on my room experience, this was not one of them. I would like to say that the owner and staff really are nice people and they certainly do try.Much to their credit the bathroom was exceptionally clean, as was the bedding and furniture but that's where it stopped being good. I had my dog with me (which was the reason for choosing Motel 6) and so obviously we were given a pet friendly room. The carpet stunk of stale urine and there were large stains on it where animals had used it as a toilet. We were also right next to the exit door which believe me, seemed to be as busy as Walmart at Christmas! There seemed to be rather a lot of nocturnal activity in the room above, so all the elements combined did not make for a nice, nor restful stay.It could be a really nice place if people were more respectful, the exit door had a much quieter mechanism and the carpet was given an intensely deep clean. Non pet rooms may be entirely different. More</t>
-  </si>
-  <si>
-    <t>manatee_zone</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r236826415-Motel_6_Weatherford-Weatherford_Texas.html</t>
@@ -531,7 +765,52 @@
 Overall this was not a good choice!!! Think twice before staying &amp; if you have any respiratory...We were traveling from TN (2 adults &amp; 1 child). We were exhausted to say the least. We searched the internet for a reasonable hotel in a close range from where we were fueling our SUV. We found this hotel &amp; the reviews weren't bad, the pics looked nice, &amp; the price was reasonable. The Good #1 Clean bathroom with hot water for showering. #2 Price was great.Problems #1 Bad Location...could see the hotel but was very difficult to access. #2 When my husband checked in the front desk said to access the hotel from the other end of the building because it was easier for us. Um no it was easier for front desk...he could keep the front locked up. We had to walk basically the entire length of the hotel to get to the elevator. #3 The entire hotel smelled of some insensse that absolutely was awful! I have asthma &amp; honestly it was difficult to breathe in. Took some getting use to &amp; your clothes smelled like it after you leave. #4 Our room was non-smoking...it reaked of cigerette smoke. #5 I question if our sheets were changed. It appeared to have been slept on. The other bed was fine. #6 The little digital TV box worked ok but the TV did not want to respond to our remote.Overall this was not a good choice!!! Think twice before staying &amp; if you have any respiratory issues I do not recommend.   More</t>
   </si>
   <si>
-    <t>Michael F</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r230030904-Motel_6_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>230030904</t>
+  </si>
+  <si>
+    <t>09/20/2014</t>
+  </si>
+  <si>
+    <t>Not good.</t>
+  </si>
+  <si>
+    <t>The front desk people were very nice, but the hotel room and halls were dirty and had dead bugs laying everywhere. You don't expect much from Motel 6, but at least cleanliness would be appreciated. We were forced to stay here, since all other hotels were booked. Hopefully, we won't be in that situation again. It was cheap...so I guess that was something. Bring some Raid if you have to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Weatherford, responded to this reviewResponded September 22, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 22, 2014</t>
+  </si>
+  <si>
+    <t>The front desk people were very nice, but the hotel room and halls were dirty and had dead bugs laying everywhere. You don't expect much from Motel 6, but at least cleanliness would be appreciated. We were forced to stay here, since all other hotels were booked. Hopefully, we won't be in that situation again. It was cheap...so I guess that was something. Bring some Raid if you have to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r226537696-Motel_6_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>226537696</t>
+  </si>
+  <si>
+    <t>09/02/2014</t>
+  </si>
+  <si>
+    <t>Nice extended stay</t>
+  </si>
+  <si>
+    <t>I had a chance to stay here for an extended stay while I was working in the town. I found the room to be clean and nicely furnished. The staff was very friendly and accommodating. I had supplies delivered to my room on several occasions, not only was the items delivered to me safely and in good condition but the manager called me in the field to let me know they were there. On one of those deliveries there were several boxes involved, which were secured on the bell hop dolly in a secured area for me when I came in that night. I think that is going above and beyond the call of duty. I enjoyed my stay at this motel and will stay here again if I am dispatched to this town. I am not affiliated with any person at this motel.It is a well managed motel, reasonably priced, clean inside and out, and a quiet and comfortable room.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>I had a chance to stay here for an extended stay while I was working in the town. I found the room to be clean and nicely furnished. The staff was very friendly and accommodating. I had supplies delivered to my room on several occasions, not only was the items delivered to me safely and in good condition but the manager called me in the field to let me know they were there. On one of those deliveries there were several boxes involved, which were secured on the bell hop dolly in a secured area for me when I came in that night. I think that is going above and beyond the call of duty. I enjoyed my stay at this motel and will stay here again if I am dispatched to this town. I am not affiliated with any person at this motel.It is a well managed motel, reasonably priced, clean inside and out, and a quiet and comfortable room.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r222923189-Motel_6_Weatherford-Weatherford_Texas.html</t>
@@ -552,9 +831,6 @@
     <t>September 2013</t>
   </si>
   <si>
-    <t>Tgeorgedpm</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r220766308-Motel_6_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -570,9 +846,6 @@
     <t xml:space="preserve">I really enjoyed my stay in the hotel. My bed room and the bathroom was in excellent condition.  Everything about this hotel is excellent. The service I got was fantastic.  I also saw a wonderful outdoor swimming pool!!  I will come back to this hotel again with no hesitation.  </t>
   </si>
   <si>
-    <t>Bill_PT</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r217094876-Motel_6_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -594,7 +867,40 @@
     <t>I am a traveling medical professional &amp; when I received a 13 week contract at the local hospital, I contacted Bob, the owner &amp; proprietor, about lodging for that period.The rate was so reasonable that I did not look at any other motels or short term lease apartments.Bob &amp; his staff were great. The property is well kept &amp; very secure. At least 2 other guest were there on work contracts as long as mine or longer.  Both seemed happy w/ their accommodations.  My room was fine, not large,but comfortable w/ a flat scene TV, cable &amp; WiFi access, half size refrigerator w/ freezer compartment &amp; most important, a very comfortable queen size bed. The towels were changed every day &amp; the bed linens weekly.  The room was always clean &amp; quiet. As it turned out, I spent 20 weeks at the hospital. Thanks to everyone, the time flew by.If I am ever requested to return to Weatherford, I will be calling Bob &amp; his first thing!!More</t>
   </si>
   <si>
-    <t>Ruthann60</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r215465702-Motel_6_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>215465702</t>
+  </si>
+  <si>
+    <t>07/14/2014</t>
+  </si>
+  <si>
+    <t>Great place to stay and see Weatherford</t>
+  </si>
+  <si>
+    <t>Spent the weekend at Motel 6 in Weatherford with my wife and two of my kids.  We were in town for a wedding reception which happen to fall on the weekend of the Parker County Peach Festival.  I don't think you can find more value for your money.  We were greeted at the front desk by the owner and another employee and the check in went smooth.  The owner and his wife are almost always around and very friendly and helpful.  Anything we asked for was taken care of immediately.  I would stay here again, and probably will sometime in the future.  If you haven't been to the peach festival I would highly recommend it.  Good times and great peaches.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Spent the weekend at Motel 6 in Weatherford with my wife and two of my kids.  We were in town for a wedding reception which happen to fall on the weekend of the Parker County Peach Festival.  I don't think you can find more value for your money.  We were greeted at the front desk by the owner and another employee and the check in went smooth.  The owner and his wife are almost always around and very friendly and helpful.  Anything we asked for was taken care of immediately.  I would stay here again, and probably will sometime in the future.  If you haven't been to the peach festival I would highly recommend it.  Good times and great peaches.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r211851376-Motel_6_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>211851376</t>
+  </si>
+  <si>
+    <t>06/24/2014</t>
+  </si>
+  <si>
+    <t>Stay away from this place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed here one night for 65.00$ after checking into the room found cockroaches running around our room. Told managment and they said its no big deal. They said "its texas so theres bugs everywhere, other customers dont complane when they see bugs" so tells me this happens a lot. </t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r195671148-Motel_6_Weatherford-Weatherford_Texas.html</t>
@@ -615,9 +921,6 @@
     <t>This is actually the 2nd time we have stayed there and oddly enough got the same room almost 1 year later. We we're very happy with the room, staff, service and cleanliness and it was the nicest motel 6 we have encountered. It had all the normal ammenities but did not offer even a continental breakfast.  However, they made up for it by offering a 15% discount to either waffle house or dennys, both close by. The price was reasonable and the bed was comfy. I must also mention my husband was excited to find it had night stands on BOTH sides of the bed as he is not usually able to beat me to the side with the handy stand...lol!More</t>
   </si>
   <si>
-    <t>Blaine91592</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r187401731-Motel_6_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -636,9 +939,6 @@
     <t>December 2013</t>
   </si>
   <si>
-    <t>Allen M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r185673029-Motel_6_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -657,7 +957,37 @@
     <t>November 2013</t>
   </si>
   <si>
-    <t>busybeez78</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r180646052-Motel_6_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>180646052</t>
+  </si>
+  <si>
+    <t>10/11/2013</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>This is the nicest Motel 6 I have stayed at. The staff was very helpful and efficient. Everyone was friendly. We have dogs and were told at the time of checking in that upon checking out we would need to let them know so they could inspect the room for any damage. I thought this was a great idea. That way I knew the room was in good shape when we arrived and they would know it was good when we left. They came to the room immediately when I called and didn't delay our checking out at all. I would stay there again and would recommend this motel to others.  MoreShow less</t>
+  </si>
+  <si>
+    <t>This is the nicest Motel 6 I have stayed at. The staff was very helpful and efficient. Everyone was friendly. We have dogs and were told at the time of checking in that upon checking out we would need to let them know so they could inspect the room for any damage. I thought this was a great idea. That way I knew the room was in good shape when we arrived and they would know it was good when we left. They came to the room immediately when I called and didn't delay our checking out at all. I would stay there again and would recommend this motel to others.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r166680739-Motel_6_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>166680739</t>
+  </si>
+  <si>
+    <t>07/07/2013</t>
+  </si>
+  <si>
+    <t>Terrible staff</t>
+  </si>
+  <si>
+    <t>Nice hotel and nice, clean pool. However, front desk service was very poor (received rude phone calls prior to check out time that we needed to leave at 11 and to not be late... Completely unprovoked). At one point while smoking outside in the smoking area, I was approached by a staff member and forced to show him that my room key was valid. He made me put out my cigarette and escort him upstairs to show him that I had a room and that I was a guest. It was completely ridiculous... and also entirely unprovoked.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r165133628-Motel_6_Weatherford-Weatherford_Texas.html</t>
@@ -678,9 +1008,6 @@
     <t>I usually go out of my way to stay @ Motel 6...they are reasonably priced &amp; allow pets. We were laid over Memorial Day weekend and decided to stay at the hotel. The first night everything was okay, the next day the maid did not exchange our dirty towels or collect our trash. I proceeded to do so and went to the front desk to inquire why. We were told that we did not receive maid service because of my 3 pound chihuahua (we were in the room &amp; would've kindly went outside). The next day we went outside and sat by the pool waiting for the maid to finish when the owner approaches us and tells me that I couldn't walk my dog on the property, I couldn't sit outside with her or allow her in my bed. So, I called the 800 number and made a complaint. Customer service must have called because while we were collecting our belongings to leave, the owner was phoning our room and his rude wife was telling us to get out. As we approached the desk the owner started raising his voice and telling us that this was a Democratic country and us Americans are stupid. He didn't realize that all the while he was screaming and beating his fist on the counter...I still had customer service on the line. I found his demeanor inappropriate and if they aren't a "pet friendly"...I usually go out of my way to stay @ Motel 6...they are reasonably priced &amp; allow pets. We were laid over Memorial Day weekend and decided to stay at the hotel. The first night everything was okay, the next day the maid did not exchange our dirty towels or collect our trash. I proceeded to do so and went to the front desk to inquire why. We were told that we did not receive maid service because of my 3 pound chihuahua (we were in the room &amp; would've kindly went outside). The next day we went outside and sat by the pool waiting for the maid to finish when the owner approaches us and tells me that I couldn't walk my dog on the property, I couldn't sit outside with her or allow her in my bed. So, I called the 800 number and made a complaint. Customer service must have called because while we were collecting our belongings to leave, the owner was phoning our room and his rude wife was telling us to get out. As we approached the desk the owner started raising his voice and telling us that this was a Democratic country and us Americans are stupid. He didn't realize that all the while he was screaming and beating his fist on the counter...I still had customer service on the line. I found his demeanor inappropriate and if they aren't a "pet friendly" motel they should not advertise to be. Nice rooms for the money, nice pool but horrible behavior from the owner.More</t>
   </si>
   <si>
-    <t>Steve T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r161440973-Motel_6_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -699,9 +1026,6 @@
     <t>May 2013</t>
   </si>
   <si>
-    <t>blackdragon0510</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r156402059-Motel_6_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -717,7 +1041,40 @@
     <t>I had called for a monthly rate and was quoted 700-750$ and when I went to get my room the manager told me that it would be $950 with a $200 deposit.  so I told him what I was quoted over the phone and he said "who told you that?" the lady that had was at the front desk and she said that she had given me that price so he told her that she "needs to learn our prices or leave" he was rude to me the customer and rude to his staff.</t>
   </si>
   <si>
-    <t>sika30</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r153882213-Motel_6_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>153882213</t>
+  </si>
+  <si>
+    <t>03/06/2013</t>
+  </si>
+  <si>
+    <t>Horrible Place To Stay!!!</t>
+  </si>
+  <si>
+    <t>I will never stay here again.  The manager was rude, and tried to call me out and tell me honesty was the best policy when it came to having more than one pet.  I told him after about the third time he told me honesty was the best policy that if honesty was such a good policy he shouldn't of put us in a smoking room that wasn't non-smoking...the beds were hard...there were people with there windows open playing loud music...people slamming doors...no peace was kept...Don't give this a second thought don't stay here!!!!</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r152250808-Motel_6_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>152250808</t>
+  </si>
+  <si>
+    <t>02/16/2013</t>
+  </si>
+  <si>
+    <t>Good Motel</t>
+  </si>
+  <si>
+    <t>Travelling all over the USA we stay at Motel 6 as they have good clean properties (usually).This a very good one that is well managed. Strange cooking smell greets you in the reception area - so I guess that the family live to the rear of reception. Nevertheless - we could not fault the friendly welcome - clean room and public areas.</t>
+  </si>
+  <si>
+    <t>November 2012</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r150631092-Motel_6_Weatherford-Weatherford_Texas.html</t>
@@ -741,9 +1098,6 @@
     <t>After a long day and a half of driving across country my husband and I decided to stop for the night.  We found a motel 6 through our gps and contacted them within 5 minutes of showing up.  This is a pet friendly, kid friendly hotel!  The team was polite and welcoming and quick to help get us into a room.  The room is huge for a 2 bed room with a very spacious bathroom.  It was very affordable (about 65 all inclusive to include wi-fi) and even had a mini fridge and microwave.  Very clean and we are very pleased we stopped!  Also, would like to note that upon getting on here to do a review, I checked the posted pictures and were pleased to see that they were really of the rooms they put you in and the current condition.  There also appears to be an outdoor pool.More</t>
   </si>
   <si>
-    <t>Blame13</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r146600384-Motel_6_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -759,9 +1113,6 @@
     <t>Please read this and address this asap, tonight I got a	phone call from a most respected friend for a designated drive home so -i got a ride to pick her up , drove her safely to Motel 6 and paid for a room, all better right ? I called for a ride witch was 10 15 min away walked out side lit a cig feeling a	good deed - when the attendent told me you have 5 min to leave this property or the cops wil bel called, I told her my ride will b here in ten min, she said im calling the police</t>
   </si>
   <si>
-    <t>shelia L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r144772223-Motel_6_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -780,7 +1131,40 @@
     <t>October 2012</t>
   </si>
   <si>
-    <t>Shelby F</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r140949615-Motel_6_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>140949615</t>
+  </si>
+  <si>
+    <t>09/22/2012</t>
+  </si>
+  <si>
+    <t>Best Motel 6 out of 10</t>
+  </si>
+  <si>
+    <t>During the past 4 weeks, I have stayed in 10 Motel 6’s and the one in Weatherford is the best by far; friendly staff &amp; ownership, large clean room w/refrigerator &amp; microwave, fluffy pillows and king bed, and large bath with tub/shower combination. Unlike other Motel 6’s this one has not undergone the ridiculous remodel especially it still has comfortable furniture and clean soft carpet, not vinyl covered concrete. Still economically priced, this is by far the best value.</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r140341044-Motel_6_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>140341044</t>
+  </si>
+  <si>
+    <t>09/15/2012</t>
+  </si>
+  <si>
+    <t>Pleasantly surprised</t>
+  </si>
+  <si>
+    <t>I stayed for a week in Weatherford for work and needed an inexpensive place to stay, so thought I'd try the Motel 6 for a night, just to check it out.  Honestly, my expectations were low...I didn't expect much for $40 a night.  I was very pleansantly surprised to find that the room was very clean, smelled fresh (didn't have the underlying mustiness that many hotel rooms have), and everything worked fine...TV, shower, AC, mini fridge, microwave, comfortable bed.  I decided to stay the week, and every day my room was cleaned well...fresh towels and linens.  There was no breakfast, but most hotel breakfasts are pretty lame anyway. I just kept food in the fridge and ate in my room.  This place will definitely be my stay of choice from now on in Weatherford...everything I need in a hotel room for half the price of the other places!MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed for a week in Weatherford for work and needed an inexpensive place to stay, so thought I'd try the Motel 6 for a night, just to check it out.  Honestly, my expectations were low...I didn't expect much for $40 a night.  I was very pleansantly surprised to find that the room was very clean, smelled fresh (didn't have the underlying mustiness that many hotel rooms have), and everything worked fine...TV, shower, AC, mini fridge, microwave, comfortable bed.  I decided to stay the week, and every day my room was cleaned well...fresh towels and linens.  There was no breakfast, but most hotel breakfasts are pretty lame anyway. I just kept food in the fridge and ate in my room.  This place will definitely be my stay of choice from now on in Weatherford...everything I need in a hotel room for half the price of the other places!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r137945066-Motel_6_Weatherford-Weatherford_Texas.html</t>
@@ -804,9 +1188,6 @@
     <t>This is a three story, hotel style building. You may have to carry your luggage a ways, but hey, exercise is good after sitting in a car all day. The gentleman and his wife who seem to be in charge are lovely and helpful. The room is large, very clean and includes a mini refrigerator and a microwave. It is a smoking room, but there is no smell at all, and even though I smoke, I have a very good nose. The bathroom is well designed and large. It even had fancy folded washcloths along with a little bottle of shampoo, which I have not seen in a Motel 6 in quite a while. After a hideous stay in Midland, this was a very much appreciated relief. And as a woman I feel very safe with the inside hallways. And I love having a screened window that I can open safely three stories up. I would not hesitate to recommend this, even to those who usually pay twice as much at fancier places.More</t>
   </si>
   <si>
-    <t>Barbara H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r137212443-Motel_6_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -819,9 +1200,6 @@
     <t>I had a very nice stay there and when I left I forgot a flower that I had gotten from the Billy Graham Library and had carried  with me for 5000 miles in three weeks. I was an hour away when I realized that I had left my plant in a water bottle in my room. For sure the maid would toss it. I pulled over and called and my little plant was safe in the hands of the front desk person. I drove back and my little plant was in excellent condition. Thank you</t>
   </si>
   <si>
-    <t>pucketts</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r135896954-Motel_6_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -837,7 +1215,43 @@
     <t>Clean, comfortable and friendly. Very nice motel 6. I would  highly recommend this hotel for anyone traveling through the area. The price was very reasonable and everything exceeded my expectations. Will stay again!</t>
   </si>
   <si>
-    <t>Lavender2687</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r122608582-Motel_6_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>122608582</t>
+  </si>
+  <si>
+    <t>01/05/2012</t>
+  </si>
+  <si>
+    <t>Great place to stay!</t>
+  </si>
+  <si>
+    <t>We showed up at 11:30 pm and were quickly given a room and a great discount. I've never seen a hotel staff that was so friendly. Our room was warm, clean and it did not have that musty hotel smell. I highly recommend this hotel to anyone looking for a place to stay.</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r120801211-Motel_6_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>120801211</t>
+  </si>
+  <si>
+    <t>11/19/2011</t>
+  </si>
+  <si>
+    <t>Rude and non pet-friendly staff</t>
+  </si>
+  <si>
+    <t>Staff was extremely rude.  Did not exhibit any of the Motel 6 expectations about pets.  Did not want to rent a room until I reminded them of their pet friendly policies.  Made a HUGE deal about telling me the room would be inspected thoroughly before I left.  When I left I asked for a receipt that the room had been inspected and no further charges would be on my card.  They threatened not to even give me my credit card receipt.  When I commented that the attitude was what kept their parking lot empty they started cursing at me and threatened to put me on a "no rent" list.  The room had stains on the ceiling and holes in the walls.  The stay was my worst ever.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>Staff was extremely rude.  Did not exhibit any of the Motel 6 expectations about pets.  Did not want to rent a room until I reminded them of their pet friendly policies.  Made a HUGE deal about telling me the room would be inspected thoroughly before I left.  When I left I asked for a receipt that the room had been inspected and no further charges would be on my card.  They threatened not to even give me my credit card receipt.  When I commented that the attitude was what kept their parking lot empty they started cursing at me and threatened to put me on a "no rent" list.  The room had stains on the ceiling and holes in the walls.  The stay was my worst ever.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r120215663-Motel_6_Weatherford-Weatherford_Texas.html</t>
@@ -861,9 +1275,6 @@
     <t>Normally we don't stay in Motel 6, but I read the reviews on this place and thought I'd give it a try.  We were greeted right away and with friendliness.  When booking online, it didn't give the option to add a discount, but Bob asked us if we had any discounts.  My husband showed him his military ID and he gave us the discount.  The hotel and room was clean and nice looking.  We had 2 queen beds which was comfortable.  I had some trouble getting connected to the internet, so Bob gave me some advice and asked me to let him know if everything was ok.  When it still wouldn't work, he asked me if I could bring the laptop to him.  He showed my husband and I how to fix the problem with ease. We then got to talking about other computer tips and he was very helpful.  He made sure everything was fine with the room.  The next morning I took a shower &amp; it was heaven - roomy &amp; great water pressure.   We were again greeted with friendliness with them making sure the room was good and if we needed anything else.More</t>
   </si>
   <si>
-    <t>pparmen</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r117823668-Motel_6_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -879,9 +1290,6 @@
     <t>Very firm mattress, like sleeping box. Staff watching everything like you gona steal it, very uncomfortable atmosphere.</t>
   </si>
   <si>
-    <t>reboyrn12</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r115592377-Motel_6_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -903,7 +1311,40 @@
     <t>I stayed at the Motel 6 in Weatherford to simply get away on the 18th of July which as my moms anniversary of her passing.  The staff I must admit was great, the hotel was very clean. not many people stayed on either the 18th or 19th yet all the same difference.  The only problem I had was the pricing which said on the Motel 6 board 32.99 or 35.99 , cant remember yet I was mis lead by the manager whom told me the first night it would be 52.88 plus tax for the hotel was booked solid so I paid it.  Later that evening around 9-10 p.m I had my dog and as I was taking him for a walk I noticed maybe 5-6 cars in the parking lot so I felt cheated and lied to.  The second night on July 19, 2011 I just was not thinking and let them get me again for 45.00 plus tax reasoning givin was because having a dog, mind you I had a mini schnauzer was more.  Well, I cant say anything bad about the hotel as it was clean, pool was nice but false advertising is to blame for this stay at the Motel 6 in Weatherford, Texas and I got a variety if reasons why the 32.95 or 35.95 rate did not apply, first it was thats for only people that stayed a week.  I called corporate and told...I stayed at the Motel 6 in Weatherford to simply get away on the 18th of July which as my moms anniversary of her passing.  The staff I must admit was great, the hotel was very clean. not many people stayed on either the 18th or 19th yet all the same difference.  The only problem I had was the pricing which said on the Motel 6 board 32.99 or 35.99 , cant remember yet I was mis lead by the manager whom told me the first night it would be 52.88 plus tax for the hotel was booked solid so I paid it.  Later that evening around 9-10 p.m I had my dog and as I was taking him for a walk I noticed maybe 5-6 cars in the parking lot so I felt cheated and lied to.  The second night on July 19, 2011 I just was not thinking and let them get me again for 45.00 plus tax reasoning givin was because having a dog, mind you I had a mini schnauzer was more.  Well, I cant say anything bad about the hotel as it was clean, pool was nice but false advertising is to blame for this stay at the Motel 6 in Weatherford, Texas and I got a variety if reasons why the 32.95 or 35.95 rate did not apply, first it was thats for only people that stayed a week.  I called corporate and told them that paying 111.00 for 2 nights at the Motel 6 ,which had not fridge,microwave,or hairdryer was price gaudging and as usual the manager has failed to get back to me and settle the difference .  In fact i looked up the exact same room I had and it was 36.99 on-line.  So, bottom line is hotel was clean but come to find out the owners were very dis honest and did not even try to make a effort to resolve this issue so I got duked..   But I have options and plan to use thm....False advertising can be pretty serious offence.  Just  Preceed with caution when it comes to paying for a simple ,basic, plain room.  This Motel 6 did not follow what Tom Bodite the spokesman on all the commercials stand for. And apparantly every guest is offered a discount coupon to one of the local breakfast restaraunts and not one time out of my two days there was I offered one.   And yes I cover my basis when it comes to making sure I have pictures and I took my pictures of room before I touched anything and of the sign that said 32.99 or 35.99, just cant remember.More</t>
   </si>
   <si>
-    <t>chawiian</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r115434278-Motel_6_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>115434278</t>
+  </si>
+  <si>
+    <t>07/16/2011</t>
+  </si>
+  <si>
+    <t>Clean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This hotel is fairly new so it looks really clean. Our room was comfortable. Good price. No hairdryer. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r114875055-Motel_6_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>114875055</t>
+  </si>
+  <si>
+    <t>06/29/2011</t>
+  </si>
+  <si>
+    <t>Pleasant Surprize</t>
+  </si>
+  <si>
+    <t>After reading the reviews of the hotels in Weatherford, Tx, I allowed Tom Bodett to entice me into Motel 6 to see if the lights were really on for me. This is the first Motel 6 in which I’ve stayed in many years, and I was pleasantly surprised. It is located in the midst of several motels with eating establishment in the near vicinity. It has good curb appeal with flowers under the portico. The facility seems to be fairly new.The lobby is small, and clean, but adequate with coffee for guests. The desk attendant was friendly and booked my room without incident. He assured me that the management was proud of the reviews that had been published. They took pride in their housekeeping staff.Indeed, the room was clean, and the bathroom was larger than expected, and it was spotless. The beds and pillows were comfortable. There was cable TV, a small refrigerator, and free local calls. Although we did not use it, there was a small outdoor pool. Our stay here was quiet and comfortable.Bodett was correct this time.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>After reading the reviews of the hotels in Weatherford, Tx, I allowed Tom Bodett to entice me into Motel 6 to see if the lights were really on for me. This is the first Motel 6 in which I’ve stayed in many years, and I was pleasantly surprised. It is located in the midst of several motels with eating establishment in the near vicinity. It has good curb appeal with flowers under the portico. The facility seems to be fairly new.The lobby is small, and clean, but adequate with coffee for guests. The desk attendant was friendly and booked my room without incident. He assured me that the management was proud of the reviews that had been published. They took pride in their housekeeping staff.Indeed, the room was clean, and the bathroom was larger than expected, and it was spotless. The beds and pillows were comfortable. There was cable TV, a small refrigerator, and free local calls. Although we did not use it, there was a small outdoor pool. Our stay here was quiet and comfortable.Bodett was correct this time.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r113512083-Motel_6_Weatherford-Weatherford_Texas.html</t>
@@ -918,12 +1359,6 @@
     <t>Newly renovated, great price , room was very clean and the staff was very helpful.  The general manager Bob and his wife were very helpful from where to eat to where to take my dry cleaning in town. I would recommend this motel 6.</t>
   </si>
   <si>
-    <t>June 2011</t>
-  </si>
-  <si>
-    <t>SeeingTheWorld701</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r113234259-Motel_6_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -939,9 +1374,6 @@
     <t>When we travel, we look for clean, safe, moderate priced rooms.  This hotel is a well-managed, excellent value.  The room was very clean, the bed was comfortable with fresh, crisp sheets, the water pressure in the shower was good, and the air conditioner was cold.  There were plenty of pillows and towels and there was a microwave and small frig in the room.  We had a good night's sleep for ~$55.  In my book, that's about the best you can ask for.</t>
   </si>
   <si>
-    <t>mindfixation</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r110917109-Motel_6_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -960,7 +1392,37 @@
     <t>We pulled in late the night we checked in.  The owner was at the desk when we came in.  We had spent a night in a horror Motel 6 a few nights before (literally had a bed and small tv).  After looking at TripAdvisor (they have a T.A sticker award on their entrance door), we decided to give M6 another shot.  We told the owner this and he was nothing but helpful and understanding.  Hr let us view a room before checking in.  The room was so clean, it had a fridge, microwave, a good sized desk, and a good sized tv.  This motel gave us hope in Motel 6s again!  The price was amazing, too.  43$ for a king bed.  If we have to drive back.through anytime, this is where we will be staying!!More</t>
   </si>
   <si>
-    <t>Daniel653</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r110774183-Motel_6_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>110774183</t>
+  </si>
+  <si>
+    <t>05/31/2011</t>
+  </si>
+  <si>
+    <t>Awful hotel and awful staff!!!</t>
+  </si>
+  <si>
+    <t>***************CAUTION**************** Awful hotel and awful staff!!!! First off, the hallway temperature was a solid 89 degrees (with the air conditioner running). Staff was very unfriendly manager BOB is so rude . The pool was so dirty!! And last, I was overcharged for my room it says $33.99+ tax out side and I was charged $49.99+ tax for one person one bed.   The worst experience I have ever had at a hotel. I ended up switching hotels to the Fairfield in across the street. I went from going from a dump (Motel 6) to heaven (Fairfield Inn). DO NOT STAY HERE!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r106983214-Motel_6_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>106983214</t>
+  </si>
+  <si>
+    <t>05/05/2011</t>
+  </si>
+  <si>
+    <t>Can't praise enough</t>
+  </si>
+  <si>
+    <t>After a hard day of driving, being lost, and taking a tumble outside a convenience store, I arrived at this motel and was treated with all the hospitality one would find in a friend's home.  Not only did they check me in, they checked back to see if I needed anything.  The battery on my car was dead the next morning and the manager (I am sorry I didn't get his name) helped me get it started and would not accept pay.  The room was neat, comfortable and the bed and pillows were great.  I will definitely remember where this place is.</t>
+  </si>
+  <si>
+    <t>May 2011</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r100886697-Motel_6_Weatherford-Weatherford_Texas.html</t>
@@ -981,9 +1443,6 @@
     <t>March 2011</t>
   </si>
   <si>
-    <t>pattyboutte</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r95422194-Motel_6_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1005,9 +1464,6 @@
     <t>I was enroute to Fl. from Co. in the nice ice storm and snow they got in Texas. On Feb 2nd, I was stranded on interstate 20 and managed to get a ride to the motel 6. Immediately upon my arrival, Bob the manager was very helpful at making me feel less streesed. He called a mechanic for me and my car was picked up within 45 minutes from the side of the interstate. On the 3rd, the mechanic was working on my car, and Bob took me to get some food at walmart and to the mechanics shop to get my bags. The hotel was very clean in all areas, and if EVER I get back this way, I would stay again, and will definitely tell all my traveling friends. Stay here. They make you feel so welcome.More</t>
   </si>
   <si>
-    <t>suzwil67</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r90475589-Motel_6_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1026,7 +1482,40 @@
     <t>December 2010</t>
   </si>
   <si>
-    <t>travelqueen45485</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r84915954-Motel_6_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>84915954</t>
+  </si>
+  <si>
+    <t>10/26/2010</t>
+  </si>
+  <si>
+    <t>Good value</t>
+  </si>
+  <si>
+    <t>If one can give a 5 star rating,it deserves a 4+       Have stayed in quite a few  motels,(especially in California,) very scruffy and "third worldly" Would not think we were in the USA.  But this Motel 6 is in a class of its own,  clean all over with fridge, micrwave,color TV with all the channels etc.      Very  reasonably  priced.   Definitlely recommended .</t>
+  </si>
+  <si>
+    <t>October 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r77593039-Motel_6_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>77593039</t>
+  </si>
+  <si>
+    <t>08/30/2010</t>
+  </si>
+  <si>
+    <t>Outstanding, friendly, clean, hospitable, relaxing from check in to check out</t>
+  </si>
+  <si>
+    <t>I liked that the hotel was very clean from top to bottom, the front desk was very friendly, nice, and accomodating.</t>
+  </si>
+  <si>
+    <t>August 2010</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r77231431-Motel_6_Weatherford-Weatherford_Texas.html</t>
@@ -1044,12 +1533,6 @@
     <t>I have stayed at the Weatherford, Texas, Motel 6 more than once.  I keep coming back because of the friendly staff.  Even so, I wouldn't return so often if they didn't also offer very spacious, comfortable rooms.  A refrigerator and microwave may be available upon request.  They do a great job of keeping the rooms and grounds clean.  The motel is safe, in a good part of town, with easy-on, easy-off access to Highway 20. Good restaurants and shopping are close.   It is just a short drive to Fort Worth.</t>
   </si>
   <si>
-    <t>August 2010</t>
-  </si>
-  <si>
-    <t>travellatin</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r58852730-Motel_6_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1069,9 +1552,6 @@
   </si>
   <si>
     <t>About Weatherford, TX Motel 6: It is a terrific Motel 6. The owners are a personable couple. They are at the front desk throughout the day. The rooms are clean, no signs of bugs or funk. My room was large for a Motel 6 and had lots of convenient outlets. Strong WiFi is included in the room price. They take extra care in the housekeeping with cute folded towels in the bathroom. The A/C looks new and works well, with a thermostat. There is lots of cable and a 27" TV. The pool is a disappointment: basically a lap pool right next to the parking lot, but it was being cleaned by pool professionals while I stayed. I am female and felt extra safe because of the inner corridor and the owners on the premise.About Motel 6 (especially regarding Tennis Chick's review above): This chain is a national treasure. It enables me to travel far and wide without paying over $50 a night for lots of extras. Every Motel 6 is a budget motel. This is not a getaway place to stay. That is why they are able to keep the price so low. That means NO extras. No art on the wall, no clock, no closet, no coffee maker, hairdryer, etc. The linens are budget quality and there is no "free" breakfast. I hope more people will write reviews with that in mind.More</t>
-  </si>
-  <si>
-    <t>redbear1210</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d285820-r30414422-Motel_6_Weatherford-Weatherford_Texas.html</t>
@@ -1594,59 +2074,55 @@
       <c r="A2" t="n">
         <v>51771</v>
       </c>
-      <c r="B2" t="n">
-        <v>10393</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
-        <v>45</v>
-      </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
       </c>
-      <c r="O2" t="s">
-        <v>53</v>
-      </c>
-      <c r="P2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>4</v>
-      </c>
-      <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -1654,54 +2130,50 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>51771</v>
       </c>
-      <c r="B3" t="n">
-        <v>169505</v>
-      </c>
-      <c r="C3" t="s">
-        <v>54</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
         <v>55</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>56</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>59</v>
       </c>
-      <c r="M3" t="n">
-        <v>4</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>60</v>
-      </c>
-      <c r="O3" t="s">
-        <v>61</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1715,64 +2187,62 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>51771</v>
       </c>
-      <c r="B4" t="n">
-        <v>169506</v>
-      </c>
-      <c r="C4" t="s">
-        <v>63</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
         <v>64</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
-        <v>65</v>
-      </c>
-      <c r="J4" t="s">
-        <v>66</v>
-      </c>
-      <c r="K4" t="s">
-        <v>67</v>
-      </c>
-      <c r="L4" t="s">
-        <v>68</v>
-      </c>
       <c r="M4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="O4" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="P4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -1780,66 +2250,60 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>51771</v>
       </c>
-      <c r="B5" t="n">
-        <v>6779</v>
-      </c>
-      <c r="C5" t="s">
-        <v>71</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="J5" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="K5" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="L5" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="M5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="O5" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
       <c r="R5" t="n">
-        <v>4</v>
-      </c>
-      <c r="S5" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1847,192 +2311,188 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>51771</v>
       </c>
-      <c r="B6" t="n">
-        <v>169507</v>
-      </c>
-      <c r="C6" t="s">
-        <v>78</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="J6" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K6" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="L6" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="M6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="O6" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="P6" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>4</v>
-      </c>
-      <c r="R6" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s"/>
-      <c r="X6" t="s"/>
+      <c r="W6" t="s">
+        <v>76</v>
+      </c>
+      <c r="X6" t="s">
+        <v>77</v>
+      </c>
       <c r="Y6" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>51771</v>
       </c>
-      <c r="B7" t="n">
-        <v>169508</v>
-      </c>
-      <c r="C7" t="s">
-        <v>87</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J7" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K7" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="L7" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="O7" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>51771</v>
       </c>
-      <c r="B8" t="n">
-        <v>169509</v>
-      </c>
-      <c r="C8" t="s">
-        <v>94</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="J8" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="K8" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="L8" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>90</v>
+      </c>
+      <c r="O8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="n">
         <v>4</v>
       </c>
-      <c r="N8" t="s">
-        <v>100</v>
-      </c>
-      <c r="O8" t="s">
-        <v>53</v>
-      </c>
-      <c r="P8" t="s"/>
-      <c r="Q8" t="s"/>
-      <c r="R8" t="n">
-        <v>5</v>
-      </c>
+      <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -2040,54 +2500,50 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>51771</v>
       </c>
-      <c r="B9" t="n">
-        <v>169510</v>
-      </c>
-      <c r="C9" t="s">
-        <v>101</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="J9" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="K9" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="L9" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="O9" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2101,66 +2557,60 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>51771</v>
       </c>
-      <c r="B10" t="n">
-        <v>169511</v>
-      </c>
-      <c r="C10" t="s">
-        <v>109</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="J10" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="K10" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="L10" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="M10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="O10" t="s">
-        <v>85</v>
-      </c>
-      <c r="P10" t="s"/>
-      <c r="Q10" t="n">
-        <v>4</v>
-      </c>
-      <c r="R10" t="n">
-        <v>5</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -2168,60 +2618,58 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>51771</v>
       </c>
-      <c r="B11" t="n">
-        <v>169512</v>
-      </c>
-      <c r="C11" t="s">
-        <v>117</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="J11" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="K11" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="L11" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
-      </c>
-      <c r="P11" t="n">
+        <v>75</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
         <v>1</v>
       </c>
-      <c r="Q11" t="s"/>
-      <c r="R11" t="s"/>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
@@ -2230,61 +2678,53 @@
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s">
-        <v>124</v>
-      </c>
-      <c r="X11" t="s">
-        <v>125</v>
-      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>51771</v>
       </c>
-      <c r="B12" t="n">
-        <v>5462</v>
-      </c>
-      <c r="C12" t="s">
-        <v>127</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="J12" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="K12" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="L12" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2295,142 +2735,128 @@
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s">
-        <v>134</v>
-      </c>
-      <c r="X12" t="s">
-        <v>135</v>
-      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>51771</v>
       </c>
-      <c r="B13" t="n">
-        <v>169513</v>
-      </c>
-      <c r="C13" t="s">
-        <v>137</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="J13" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="K13" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="L13" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="O13" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
-      <c r="R13" t="s"/>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
       <c r="S13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s">
-        <v>143</v>
-      </c>
-      <c r="X13" t="s">
-        <v>144</v>
-      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>51771</v>
       </c>
-      <c r="B14" t="n">
-        <v>169514</v>
-      </c>
-      <c r="C14" t="s">
-        <v>146</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="J14" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="K14" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="L14" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
-      </c>
-      <c r="N14" t="s"/>
-      <c r="O14" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>130</v>
+      </c>
+      <c r="O14" t="s">
+        <v>75</v>
+      </c>
       <c r="P14" t="n">
         <v>5</v>
       </c>
       <c r="Q14" t="n">
-        <v>5</v>
-      </c>
-      <c r="R14" t="n">
-        <v>5</v>
-      </c>
-      <c r="S14" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -2438,54 +2864,50 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>51771</v>
       </c>
-      <c r="B15" t="n">
-        <v>102031</v>
-      </c>
-      <c r="C15" t="s">
-        <v>152</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="J15" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="K15" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="L15" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="M15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="O15" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2499,137 +2921,121 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>51771</v>
       </c>
-      <c r="B16" t="n">
-        <v>169515</v>
-      </c>
-      <c r="C16" t="s">
-        <v>160</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="J16" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="K16" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="L16" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="M16" t="n">
-        <v>2</v>
-      </c>
-      <c r="N16" t="s"/>
-      <c r="O16" t="s"/>
-      <c r="P16" t="n">
-        <v>2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>130</v>
+      </c>
+      <c r="O16" t="s">
+        <v>75</v>
+      </c>
+      <c r="P16" t="s"/>
       <c r="Q16" t="n">
         <v>3</v>
       </c>
-      <c r="R16" t="n">
-        <v>1</v>
-      </c>
-      <c r="S16" t="n">
-        <v>2</v>
-      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s">
-        <v>166</v>
-      </c>
-      <c r="X16" t="s">
-        <v>167</v>
-      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>51771</v>
       </c>
-      <c r="B17" t="n">
-        <v>1950</v>
-      </c>
-      <c r="C17" t="s">
-        <v>169</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="J17" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="K17" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="L17" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="M17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="O17" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="P17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
-      <c r="S17" t="n">
-        <v>5</v>
-      </c>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2637,63 +3043,57 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>51771</v>
       </c>
-      <c r="B18" t="n">
-        <v>73401</v>
-      </c>
-      <c r="C18" t="s">
-        <v>176</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="J18" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="K18" t="s">
-        <v>180</v>
+        <v>154</v>
       </c>
       <c r="L18" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="M18" t="n">
-        <v>5</v>
-      </c>
-      <c r="N18" t="s"/>
-      <c r="O18" t="s"/>
-      <c r="P18" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>156</v>
+      </c>
+      <c r="O18" t="s">
+        <v>52</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
       <c r="R18" t="n">
         <v>5</v>
       </c>
-      <c r="S18" t="n">
-        <v>5</v>
-      </c>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
         <v>5</v>
@@ -2704,131 +3104,119 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>51771</v>
       </c>
-      <c r="B19" t="n">
-        <v>169516</v>
-      </c>
-      <c r="C19" t="s">
-        <v>182</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="J19" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="K19" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="L19" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="O19" t="s">
-        <v>61</v>
-      </c>
-      <c r="P19" t="n">
-        <v>5</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>5</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>51771</v>
       </c>
-      <c r="B20" t="n">
-        <v>169517</v>
-      </c>
-      <c r="C20" t="s">
-        <v>190</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="J20" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="K20" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="L20" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
-      <c r="N20" t="s"/>
-      <c r="O20" t="s"/>
-      <c r="P20" t="n">
-        <v>4</v>
-      </c>
+      <c r="N20" t="s">
+        <v>169</v>
+      </c>
+      <c r="O20" t="s">
+        <v>75</v>
+      </c>
+      <c r="P20" t="s"/>
       <c r="Q20" t="n">
         <v>4</v>
       </c>
       <c r="R20" t="n">
-        <v>4</v>
-      </c>
-      <c r="S20" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2836,135 +3224,115 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>51771</v>
       </c>
-      <c r="B21" t="n">
-        <v>169518</v>
-      </c>
-      <c r="C21" t="s">
-        <v>197</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="J21" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="K21" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="L21" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N21" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="O21" t="s">
-        <v>70</v>
-      </c>
-      <c r="P21" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>5</v>
-      </c>
-      <c r="R21" t="n">
-        <v>5</v>
-      </c>
-      <c r="S21" t="n">
-        <v>5</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>5</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s"/>
-      <c r="X21" t="s"/>
+      <c r="W21" t="s">
+        <v>177</v>
+      </c>
+      <c r="X21" t="s">
+        <v>178</v>
+      </c>
       <c r="Y21" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>51771</v>
       </c>
-      <c r="B22" t="n">
-        <v>32780</v>
-      </c>
-      <c r="C22" t="s">
-        <v>204</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="J22" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="K22" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="L22" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>210</v>
+        <v>176</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
-      </c>
-      <c r="P22" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>4</v>
-      </c>
-      <c r="R22" t="n">
-        <v>3</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
       <c r="S22" t="n">
         <v>5</v>
       </c>
@@ -2978,63 +3346,57 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>51771</v>
       </c>
-      <c r="B23" t="n">
-        <v>169519</v>
-      </c>
-      <c r="C23" t="s">
-        <v>211</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>213</v>
+        <v>186</v>
       </c>
       <c r="J23" t="s">
-        <v>214</v>
+        <v>187</v>
       </c>
       <c r="K23" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
       <c r="L23" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
-      <c r="N23" t="s"/>
-      <c r="O23" t="s"/>
+      <c r="N23" t="s">
+        <v>190</v>
+      </c>
+      <c r="O23" t="s">
+        <v>52</v>
+      </c>
       <c r="P23" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>4</v>
-      </c>
-      <c r="R23" t="n">
-        <v>4</v>
-      </c>
-      <c r="S23" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
         <v>1</v>
@@ -3042,136 +3404,124 @@
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s"/>
-      <c r="X23" t="s"/>
+      <c r="W23" t="s">
+        <v>191</v>
+      </c>
+      <c r="X23" t="s">
+        <v>192</v>
+      </c>
       <c r="Y23" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>51771</v>
       </c>
-      <c r="B24" t="n">
-        <v>7214</v>
-      </c>
-      <c r="C24" t="s">
-        <v>218</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="J24" t="s">
-        <v>221</v>
+        <v>196</v>
       </c>
       <c r="K24" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="L24" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="M24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="O24" t="s">
-        <v>61</v>
-      </c>
-      <c r="P24" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>5</v>
-      </c>
-      <c r="R24" t="n">
-        <v>5</v>
-      </c>
-      <c r="S24" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>5</v>
-      </c>
+      <c r="U24" t="s"/>
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s"/>
-      <c r="X24" t="s"/>
+      <c r="W24" t="s">
+        <v>200</v>
+      </c>
+      <c r="X24" t="s">
+        <v>201</v>
+      </c>
       <c r="Y24" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>51771</v>
       </c>
-      <c r="B25" t="n">
-        <v>169520</v>
-      </c>
-      <c r="C25" t="s">
-        <v>225</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="J25" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="K25" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="L25" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
-      <c r="N25" t="s"/>
-      <c r="O25" t="s"/>
-      <c r="P25" t="n">
+      <c r="N25" t="s">
+        <v>199</v>
+      </c>
+      <c r="O25" t="s">
+        <v>60</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="n">
         <v>1</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1</v>
-      </c>
-      <c r="R25" t="n">
-        <v>3</v>
-      </c>
-      <c r="S25" t="n">
-        <v>3</v>
       </c>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
@@ -3180,70 +3530,64 @@
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s"/>
-      <c r="X25" t="s"/>
+      <c r="W25" t="s">
+        <v>208</v>
+      </c>
+      <c r="X25" t="s">
+        <v>209</v>
+      </c>
       <c r="Y25" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>51771</v>
       </c>
-      <c r="B26" t="n">
-        <v>169521</v>
-      </c>
-      <c r="C26" t="s">
-        <v>231</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="J26" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="K26" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="L26" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
-      </c>
-      <c r="P26" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P26" t="s"/>
       <c r="Q26" t="n">
         <v>5</v>
       </c>
-      <c r="R26" t="n">
-        <v>5</v>
-      </c>
-      <c r="S26" t="n">
-        <v>5</v>
-      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
         <v>5</v>
@@ -3254,62 +3598,56 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>51771</v>
       </c>
-      <c r="B27" t="n">
-        <v>169522</v>
-      </c>
-      <c r="C27" t="s">
-        <v>239</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="J27" t="s">
-        <v>242</v>
+        <v>219</v>
       </c>
       <c r="K27" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="L27" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
-      <c r="N27" t="s"/>
-      <c r="O27" t="s"/>
-      <c r="P27" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1</v>
-      </c>
+      <c r="N27" t="s">
+        <v>222</v>
+      </c>
+      <c r="O27" t="s">
+        <v>223</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
       <c r="S27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
@@ -3318,58 +3656,54 @@
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s"/>
-      <c r="X27" t="s"/>
+      <c r="W27" t="s">
+        <v>224</v>
+      </c>
+      <c r="X27" t="s">
+        <v>225</v>
+      </c>
       <c r="Y27" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>51771</v>
       </c>
-      <c r="B28" t="n">
-        <v>169523</v>
-      </c>
-      <c r="C28" t="s">
-        <v>245</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="J28" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="K28" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="L28" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
-      <c r="N28" t="s">
-        <v>251</v>
-      </c>
-      <c r="O28" t="s">
-        <v>61</v>
-      </c>
+      <c r="N28" t="s"/>
+      <c r="O28" t="s"/>
       <c r="P28" t="n">
         <v>5</v>
       </c>
@@ -3392,270 +3726,244 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>51771</v>
       </c>
-      <c r="B29" t="n">
-        <v>53376</v>
-      </c>
-      <c r="C29" t="s">
-        <v>252</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I29" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="J29" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="K29" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="L29" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="M29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N29" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="O29" t="s">
-        <v>85</v>
-      </c>
-      <c r="P29" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>5</v>
-      </c>
-      <c r="R29" t="n">
-        <v>4</v>
-      </c>
-      <c r="S29" t="n">
-        <v>5</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="n">
-        <v>5</v>
-      </c>
+      <c r="U29" t="s"/>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>51771</v>
       </c>
-      <c r="B30" t="n">
-        <v>16229</v>
-      </c>
-      <c r="C30" t="s">
-        <v>260</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="J30" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="K30" t="s">
-        <v>173</v>
+        <v>242</v>
       </c>
       <c r="L30" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="M30" t="n">
-        <v>4</v>
-      </c>
-      <c r="N30" t="s">
-        <v>258</v>
-      </c>
-      <c r="O30" t="s">
-        <v>85</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N30" t="s"/>
+      <c r="O30" t="s"/>
       <c r="P30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R30" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s"/>
-      <c r="X30" t="s"/>
+      <c r="W30" t="s">
+        <v>244</v>
+      </c>
+      <c r="X30" t="s">
+        <v>245</v>
+      </c>
       <c r="Y30" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>51771</v>
       </c>
-      <c r="B31" t="n">
-        <v>169524</v>
-      </c>
-      <c r="C31" t="s">
-        <v>265</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I31" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="J31" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="K31" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="L31" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="M31" t="n">
-        <v>5</v>
-      </c>
-      <c r="N31" t="s"/>
-      <c r="O31" t="s"/>
-      <c r="P31" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N31" t="s">
+        <v>252</v>
+      </c>
+      <c r="O31" t="s">
+        <v>52</v>
+      </c>
+      <c r="P31" t="s"/>
       <c r="Q31" t="n">
-        <v>5</v>
-      </c>
-      <c r="R31" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="R31" t="s"/>
       <c r="S31" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s"/>
-      <c r="X31" t="s"/>
+      <c r="W31" t="s">
+        <v>253</v>
+      </c>
+      <c r="X31" t="s">
+        <v>254</v>
+      </c>
       <c r="Y31" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>51771</v>
       </c>
-      <c r="B32" t="n">
-        <v>169525</v>
-      </c>
-      <c r="C32" t="s">
-        <v>271</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I32" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="J32" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="K32" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="L32" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
-      </c>
-      <c r="P32" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
       <c r="R32" t="n">
         <v>5</v>
       </c>
@@ -3672,66 +3980,62 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>51771</v>
       </c>
-      <c r="B33" t="n">
-        <v>169526</v>
-      </c>
-      <c r="C33" t="s">
-        <v>279</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I33" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="J33" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="K33" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="L33" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="M33" t="n">
-        <v>2</v>
-      </c>
-      <c r="N33" t="s"/>
-      <c r="O33" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>268</v>
+      </c>
+      <c r="O33" t="s">
+        <v>60</v>
+      </c>
       <c r="P33" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>3</v>
-      </c>
-      <c r="R33" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
       <c r="S33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -3739,66 +4043,62 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>51771</v>
       </c>
-      <c r="B34" t="n">
-        <v>169527</v>
-      </c>
-      <c r="C34" t="s">
-        <v>285</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I34" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="J34" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="K34" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="L34" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="M34" t="n">
-        <v>3</v>
-      </c>
-      <c r="N34" t="s">
-        <v>291</v>
-      </c>
-      <c r="O34" t="s">
-        <v>85</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N34" t="s"/>
+      <c r="O34" t="s"/>
       <c r="P34" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q34" t="s"/>
-      <c r="R34" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
       <c r="S34" t="n">
         <v>5</v>
       </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3806,67 +4106,57 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>51771</v>
       </c>
-      <c r="B35" t="n">
-        <v>169528</v>
-      </c>
-      <c r="C35" t="s">
-        <v>293</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I35" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="J35" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="K35" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="L35" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="M35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="O35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
       </c>
-      <c r="Q35" t="n">
-        <v>4</v>
-      </c>
-      <c r="R35" t="n">
-        <v>4</v>
-      </c>
-      <c r="S35" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
         <v>5</v>
@@ -3877,67 +4167,57 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>51771</v>
       </c>
-      <c r="B36" t="n">
-        <v>169529</v>
-      </c>
-      <c r="C36" t="s">
-        <v>299</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I36" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="J36" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="K36" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="L36" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="O36" t="s">
-        <v>70</v>
-      </c>
-      <c r="P36" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
       <c r="R36" t="n">
-        <v>5</v>
-      </c>
-      <c r="S36" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S36" t="s"/>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
         <v>5</v>
@@ -3948,66 +4228,62 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>51771</v>
       </c>
-      <c r="B37" t="n">
-        <v>169530</v>
-      </c>
-      <c r="C37" t="s">
-        <v>305</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I37" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="J37" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="K37" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="L37" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="M37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N37" t="s"/>
       <c r="O37" t="s"/>
       <c r="P37" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S37" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -4015,70 +4291,62 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>51771</v>
       </c>
-      <c r="B38" t="n">
-        <v>169531</v>
-      </c>
-      <c r="C38" t="s">
-        <v>312</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I38" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="J38" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="K38" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="L38" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="M38" t="n">
-        <v>5</v>
-      </c>
-      <c r="N38" t="s">
-        <v>318</v>
-      </c>
-      <c r="O38" t="s">
-        <v>85</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
       <c r="P38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R38" t="n">
         <v>4</v>
       </c>
       <c r="S38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -4086,54 +4354,50 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>51771</v>
       </c>
-      <c r="B39" t="n">
-        <v>169532</v>
-      </c>
-      <c r="C39" t="s">
-        <v>319</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I39" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="J39" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="K39" t="s">
-        <v>323</v>
+        <v>302</v>
       </c>
       <c r="L39" t="s">
-        <v>324</v>
+        <v>303</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="O39" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="P39" t="n">
         <v>5</v>
@@ -4157,54 +4421,50 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>326</v>
+        <v>303</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>51771</v>
       </c>
-      <c r="B40" t="n">
-        <v>169533</v>
-      </c>
-      <c r="C40" t="s">
-        <v>327</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>328</v>
+        <v>305</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I40" t="s">
-        <v>329</v>
+        <v>306</v>
       </c>
       <c r="J40" t="s">
-        <v>330</v>
+        <v>307</v>
       </c>
       <c r="K40" t="s">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="L40" t="s">
-        <v>332</v>
+        <v>309</v>
       </c>
       <c r="M40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>333</v>
+        <v>310</v>
       </c>
       <c r="O40" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -4213,10 +4473,10 @@
         <v>4</v>
       </c>
       <c r="R40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
@@ -4228,55 +4488,47 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>332</v>
+        <v>309</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>51771</v>
       </c>
-      <c r="B41" t="n">
-        <v>169534</v>
-      </c>
-      <c r="C41" t="s">
-        <v>334</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F41" t="s">
-        <v>335</v>
+        <v>311</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I41" t="s">
-        <v>336</v>
+        <v>312</v>
       </c>
       <c r="J41" t="s">
-        <v>337</v>
+        <v>313</v>
       </c>
       <c r="K41" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="L41" t="s">
-        <v>339</v>
+        <v>315</v>
       </c>
       <c r="M41" t="n">
-        <v>4</v>
-      </c>
-      <c r="N41" t="s">
-        <v>340</v>
-      </c>
-      <c r="O41" t="s">
-        <v>61</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N41" t="s"/>
+      <c r="O41" t="s"/>
       <c r="P41" t="n">
         <v>5</v>
       </c>
@@ -4299,70 +4551,62 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>339</v>
+        <v>316</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>51771</v>
       </c>
-      <c r="B42" t="n">
-        <v>169535</v>
-      </c>
-      <c r="C42" t="s">
-        <v>341</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F42" t="s">
-        <v>342</v>
+        <v>317</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I42" t="s">
-        <v>343</v>
+        <v>318</v>
       </c>
       <c r="J42" t="s">
-        <v>344</v>
+        <v>319</v>
       </c>
       <c r="K42" t="s">
-        <v>345</v>
+        <v>320</v>
       </c>
       <c r="L42" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
       <c r="M42" t="n">
-        <v>5</v>
-      </c>
-      <c r="N42" t="s">
-        <v>347</v>
-      </c>
-      <c r="O42" t="s">
-        <v>85</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N42" t="s"/>
+      <c r="O42" t="s"/>
       <c r="P42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -4370,70 +4614,62 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>348</v>
+        <v>321</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>51771</v>
       </c>
-      <c r="B43" t="n">
-        <v>169536</v>
-      </c>
-      <c r="C43" t="s">
-        <v>349</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F43" t="s">
-        <v>350</v>
+        <v>322</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I43" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
       <c r="J43" t="s">
-        <v>352</v>
+        <v>324</v>
       </c>
       <c r="K43" t="s">
-        <v>353</v>
+        <v>325</v>
       </c>
       <c r="L43" t="s">
-        <v>354</v>
+        <v>326</v>
       </c>
       <c r="M43" t="n">
-        <v>5</v>
-      </c>
-      <c r="N43" t="s">
-        <v>355</v>
-      </c>
-      <c r="O43" t="s">
-        <v>61</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N43" t="s"/>
+      <c r="O43" t="s"/>
       <c r="P43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q43" t="n">
         <v>4</v>
       </c>
       <c r="R43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S43" t="n">
         <v>5</v>
       </c>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -4441,7 +4677,2113 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>51771</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>328</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>329</v>
+      </c>
+      <c r="J44" t="s">
+        <v>330</v>
+      </c>
+      <c r="K44" t="s">
+        <v>331</v>
+      </c>
+      <c r="L44" t="s">
+        <v>332</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>333</v>
+      </c>
+      <c r="O44" t="s">
+        <v>60</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>51771</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>334</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>335</v>
+      </c>
+      <c r="J45" t="s">
+        <v>336</v>
+      </c>
+      <c r="K45" t="s">
+        <v>337</v>
+      </c>
+      <c r="L45" t="s">
+        <v>338</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s"/>
+      <c r="O45" t="s"/>
+      <c r="P45" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1</v>
+      </c>
+      <c r="R45" t="n">
+        <v>3</v>
+      </c>
+      <c r="S45" t="n">
+        <v>3</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>1</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>51771</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>339</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>340</v>
+      </c>
+      <c r="J46" t="s">
+        <v>341</v>
+      </c>
+      <c r="K46" t="s">
+        <v>342</v>
+      </c>
+      <c r="L46" t="s">
+        <v>343</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s">
+        <v>344</v>
+      </c>
+      <c r="O46" t="s">
+        <v>52</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>1</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>51771</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>345</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>346</v>
+      </c>
+      <c r="J47" t="s">
+        <v>347</v>
+      </c>
+      <c r="K47" t="s">
+        <v>348</v>
+      </c>
+      <c r="L47" t="s">
+        <v>349</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>350</v>
+      </c>
+      <c r="O47" t="s">
+        <v>104</v>
+      </c>
+      <c r="P47" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>51771</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>351</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>352</v>
+      </c>
+      <c r="J48" t="s">
+        <v>353</v>
+      </c>
+      <c r="K48" t="s">
         <v>354</v>
+      </c>
+      <c r="L48" t="s">
+        <v>355</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>356</v>
+      </c>
+      <c r="O48" t="s">
+        <v>52</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>51771</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>358</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>359</v>
+      </c>
+      <c r="J49" t="s">
+        <v>360</v>
+      </c>
+      <c r="K49" t="s">
+        <v>361</v>
+      </c>
+      <c r="L49" t="s">
+        <v>362</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="s"/>
+      <c r="O49" t="s"/>
+      <c r="P49" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>1</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1</v>
+      </c>
+      <c r="S49" t="n">
+        <v>1</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>1</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>51771</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>363</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>364</v>
+      </c>
+      <c r="J50" t="s">
+        <v>365</v>
+      </c>
+      <c r="K50" t="s">
+        <v>366</v>
+      </c>
+      <c r="L50" t="s">
+        <v>367</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>368</v>
+      </c>
+      <c r="O50" t="s">
+        <v>60</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>51771</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>369</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>370</v>
+      </c>
+      <c r="J51" t="s">
+        <v>371</v>
+      </c>
+      <c r="K51" t="s">
+        <v>372</v>
+      </c>
+      <c r="L51" t="s">
+        <v>373</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>374</v>
+      </c>
+      <c r="O51" t="s">
+        <v>75</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51771</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>375</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>376</v>
+      </c>
+      <c r="J52" t="s">
+        <v>377</v>
+      </c>
+      <c r="K52" t="s">
+        <v>378</v>
+      </c>
+      <c r="L52" t="s">
+        <v>379</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>374</v>
+      </c>
+      <c r="O52" t="s">
+        <v>60</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>51771</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>381</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>382</v>
+      </c>
+      <c r="J53" t="s">
+        <v>383</v>
+      </c>
+      <c r="K53" t="s">
+        <v>384</v>
+      </c>
+      <c r="L53" t="s">
+        <v>385</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>386</v>
+      </c>
+      <c r="O53" t="s">
+        <v>75</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>51771</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>388</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>389</v>
+      </c>
+      <c r="J54" t="s">
+        <v>390</v>
+      </c>
+      <c r="K54" t="s">
+        <v>266</v>
+      </c>
+      <c r="L54" t="s">
+        <v>391</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>386</v>
+      </c>
+      <c r="O54" t="s">
+        <v>75</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>51771</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>392</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>393</v>
+      </c>
+      <c r="J55" t="s">
+        <v>394</v>
+      </c>
+      <c r="K55" t="s">
+        <v>395</v>
+      </c>
+      <c r="L55" t="s">
+        <v>396</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s"/>
+      <c r="O55" t="s"/>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>51771</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>397</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s">
+        <v>398</v>
+      </c>
+      <c r="J56" t="s">
+        <v>399</v>
+      </c>
+      <c r="K56" t="s">
+        <v>400</v>
+      </c>
+      <c r="L56" t="s">
+        <v>401</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>402</v>
+      </c>
+      <c r="O56" t="s">
+        <v>52</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>51771</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>403</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
+        <v>404</v>
+      </c>
+      <c r="J57" t="s">
+        <v>405</v>
+      </c>
+      <c r="K57" t="s">
+        <v>406</v>
+      </c>
+      <c r="L57" t="s">
+        <v>407</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" t="s">
+        <v>408</v>
+      </c>
+      <c r="O57" t="s">
+        <v>75</v>
+      </c>
+      <c r="P57" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>2</v>
+      </c>
+      <c r="R57" t="n">
+        <v>2</v>
+      </c>
+      <c r="S57" t="n">
+        <v>2</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>1</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>51771</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>410</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s">
+        <v>411</v>
+      </c>
+      <c r="J58" t="s">
+        <v>412</v>
+      </c>
+      <c r="K58" t="s">
+        <v>413</v>
+      </c>
+      <c r="L58" t="s">
+        <v>414</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>415</v>
+      </c>
+      <c r="O58" t="s">
+        <v>52</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>51771</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s">
+        <v>417</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s">
+        <v>418</v>
+      </c>
+      <c r="J59" t="s">
+        <v>419</v>
+      </c>
+      <c r="K59" t="s">
+        <v>420</v>
+      </c>
+      <c r="L59" t="s">
+        <v>421</v>
+      </c>
+      <c r="M59" t="n">
+        <v>2</v>
+      </c>
+      <c r="N59" t="s"/>
+      <c r="O59" t="s"/>
+      <c r="P59" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>3</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3</v>
+      </c>
+      <c r="S59" t="n">
+        <v>3</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>1</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>51771</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s">
+        <v>422</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" t="s">
+        <v>423</v>
+      </c>
+      <c r="J60" t="s">
+        <v>424</v>
+      </c>
+      <c r="K60" t="s">
+        <v>425</v>
+      </c>
+      <c r="L60" t="s">
+        <v>426</v>
+      </c>
+      <c r="M60" t="n">
+        <v>3</v>
+      </c>
+      <c r="N60" t="s">
+        <v>427</v>
+      </c>
+      <c r="O60" t="s">
+        <v>75</v>
+      </c>
+      <c r="P60" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>2</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>51771</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s">
+        <v>429</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" t="s">
+        <v>430</v>
+      </c>
+      <c r="J61" t="s">
+        <v>431</v>
+      </c>
+      <c r="K61" t="s">
+        <v>432</v>
+      </c>
+      <c r="L61" t="s">
+        <v>433</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s"/>
+      <c r="O61" t="s"/>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>3</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>51771</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s">
+        <v>434</v>
+      </c>
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" t="s">
+        <v>435</v>
+      </c>
+      <c r="J62" t="s">
+        <v>436</v>
+      </c>
+      <c r="K62" t="s">
+        <v>437</v>
+      </c>
+      <c r="L62" t="s">
+        <v>438</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>439</v>
+      </c>
+      <c r="O62" t="s">
+        <v>104</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>51771</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" t="s">
+        <v>441</v>
+      </c>
+      <c r="G63" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" t="s">
+        <v>442</v>
+      </c>
+      <c r="J63" t="s">
+        <v>443</v>
+      </c>
+      <c r="K63" t="s">
+        <v>395</v>
+      </c>
+      <c r="L63" t="s">
+        <v>444</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>439</v>
+      </c>
+      <c r="O63" t="s">
+        <v>60</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>4</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>51771</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" t="s">
+        <v>445</v>
+      </c>
+      <c r="G64" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" t="s">
+        <v>446</v>
+      </c>
+      <c r="J64" t="s">
+        <v>447</v>
+      </c>
+      <c r="K64" t="s">
+        <v>448</v>
+      </c>
+      <c r="L64" t="s">
+        <v>449</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>439</v>
+      </c>
+      <c r="O64" t="s">
+        <v>104</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>51771</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" t="s">
+        <v>450</v>
+      </c>
+      <c r="G65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" t="s">
+        <v>451</v>
+      </c>
+      <c r="J65" t="s">
+        <v>452</v>
+      </c>
+      <c r="K65" t="s">
+        <v>453</v>
+      </c>
+      <c r="L65" t="s">
+        <v>454</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s"/>
+      <c r="O65" t="s"/>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>51771</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" t="s">
+        <v>456</v>
+      </c>
+      <c r="G66" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" t="s">
+        <v>457</v>
+      </c>
+      <c r="J66" t="s">
+        <v>458</v>
+      </c>
+      <c r="K66" t="s">
+        <v>459</v>
+      </c>
+      <c r="L66" t="s">
+        <v>460</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+      <c r="N66" t="s"/>
+      <c r="O66" t="s"/>
+      <c r="P66" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>1</v>
+      </c>
+      <c r="R66" t="n">
+        <v>1</v>
+      </c>
+      <c r="S66" t="n">
+        <v>1</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>1</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>51771</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" t="s">
+        <v>461</v>
+      </c>
+      <c r="G67" t="s">
+        <v>45</v>
+      </c>
+      <c r="H67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" t="s">
+        <v>462</v>
+      </c>
+      <c r="J67" t="s">
+        <v>463</v>
+      </c>
+      <c r="K67" t="s">
+        <v>464</v>
+      </c>
+      <c r="L67" t="s">
+        <v>465</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>466</v>
+      </c>
+      <c r="O67" t="s">
+        <v>75</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>51771</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s">
+        <v>467</v>
+      </c>
+      <c r="G68" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" t="s">
+        <v>46</v>
+      </c>
+      <c r="I68" t="s">
+        <v>468</v>
+      </c>
+      <c r="J68" t="s">
+        <v>469</v>
+      </c>
+      <c r="K68" t="s">
+        <v>470</v>
+      </c>
+      <c r="L68" t="s">
+        <v>471</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>472</v>
+      </c>
+      <c r="O68" t="s">
+        <v>75</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>51771</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" t="s">
+        <v>473</v>
+      </c>
+      <c r="G69" t="s">
+        <v>45</v>
+      </c>
+      <c r="H69" t="s">
+        <v>46</v>
+      </c>
+      <c r="I69" t="s">
+        <v>474</v>
+      </c>
+      <c r="J69" t="s">
+        <v>475</v>
+      </c>
+      <c r="K69" t="s">
+        <v>476</v>
+      </c>
+      <c r="L69" t="s">
+        <v>477</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>478</v>
+      </c>
+      <c r="O69" t="s">
+        <v>75</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>51771</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>43</v>
+      </c>
+      <c r="F70" t="s">
+        <v>480</v>
+      </c>
+      <c r="G70" t="s">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s">
+        <v>46</v>
+      </c>
+      <c r="I70" t="s">
+        <v>481</v>
+      </c>
+      <c r="J70" t="s">
+        <v>482</v>
+      </c>
+      <c r="K70" t="s">
+        <v>483</v>
+      </c>
+      <c r="L70" t="s">
+        <v>484</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>485</v>
+      </c>
+      <c r="O70" t="s">
+        <v>104</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>4</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>51771</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" t="s">
+        <v>486</v>
+      </c>
+      <c r="G71" t="s">
+        <v>45</v>
+      </c>
+      <c r="H71" t="s">
+        <v>46</v>
+      </c>
+      <c r="I71" t="s">
+        <v>487</v>
+      </c>
+      <c r="J71" t="s">
+        <v>488</v>
+      </c>
+      <c r="K71" t="s">
+        <v>489</v>
+      </c>
+      <c r="L71" t="s">
+        <v>490</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>491</v>
+      </c>
+      <c r="O71" t="s">
+        <v>104</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>3</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>51771</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72" t="s">
+        <v>492</v>
+      </c>
+      <c r="G72" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" t="s">
+        <v>46</v>
+      </c>
+      <c r="I72" t="s">
+        <v>493</v>
+      </c>
+      <c r="J72" t="s">
+        <v>494</v>
+      </c>
+      <c r="K72" t="s">
+        <v>495</v>
+      </c>
+      <c r="L72" t="s">
+        <v>496</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>497</v>
+      </c>
+      <c r="O72" t="s">
+        <v>60</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>51771</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>43</v>
+      </c>
+      <c r="F73" t="s">
+        <v>498</v>
+      </c>
+      <c r="G73" t="s">
+        <v>45</v>
+      </c>
+      <c r="H73" t="s">
+        <v>46</v>
+      </c>
+      <c r="I73" t="s">
+        <v>499</v>
+      </c>
+      <c r="J73" t="s">
+        <v>500</v>
+      </c>
+      <c r="K73" t="s">
+        <v>501</v>
+      </c>
+      <c r="L73" t="s">
+        <v>502</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>497</v>
+      </c>
+      <c r="O73" t="s">
+        <v>60</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>51771</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>43</v>
+      </c>
+      <c r="F74" t="s">
+        <v>503</v>
+      </c>
+      <c r="G74" t="s">
+        <v>45</v>
+      </c>
+      <c r="H74" t="s">
+        <v>46</v>
+      </c>
+      <c r="I74" t="s">
+        <v>504</v>
+      </c>
+      <c r="J74" t="s">
+        <v>505</v>
+      </c>
+      <c r="K74" t="s">
+        <v>506</v>
+      </c>
+      <c r="L74" t="s">
+        <v>507</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>508</v>
+      </c>
+      <c r="O74" t="s">
+        <v>75</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>3</v>
+      </c>
+      <c r="R74" t="n">
+        <v>3</v>
+      </c>
+      <c r="S74" t="n">
+        <v>3</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>3</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>51771</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>43</v>
+      </c>
+      <c r="F75" t="s">
+        <v>510</v>
+      </c>
+      <c r="G75" t="s">
+        <v>45</v>
+      </c>
+      <c r="H75" t="s">
+        <v>46</v>
+      </c>
+      <c r="I75" t="s">
+        <v>511</v>
+      </c>
+      <c r="J75" t="s">
+        <v>512</v>
+      </c>
+      <c r="K75" t="s">
+        <v>513</v>
+      </c>
+      <c r="L75" t="s">
+        <v>514</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>515</v>
+      </c>
+      <c r="O75" t="s">
+        <v>60</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>4</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>514</v>
       </c>
     </row>
   </sheetData>
